--- a/tmp_grid_res.xlsx
+++ b/tmp_grid_res.xlsx
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>66</v>
@@ -582,10 +582,10 @@
         <v>8</v>
       </c>
       <c r="I2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0.0031</v>
@@ -594,16 +594,16 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N2">
         <v>0.1111111111111111</v>
       </c>
       <c r="O2">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -611,10 +611,10 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>66</v>
@@ -632,10 +632,10 @@
         <v>8</v>
       </c>
       <c r="I3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0.0031</v>
@@ -644,16 +644,16 @@
         <v>0.001</v>
       </c>
       <c r="M3">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9827586206896551</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -661,10 +661,10 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>66</v>
@@ -682,10 +682,10 @@
         <v>7</v>
       </c>
       <c r="I4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0.0031</v>
@@ -694,16 +694,16 @@
         <v>0.002</v>
       </c>
       <c r="M4">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9661016949152542</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="P4">
-        <v>0.7777777777777778</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -711,10 +711,10 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>66</v>
@@ -732,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <v>0.0031</v>
@@ -744,16 +744,16 @@
         <v>0.003</v>
       </c>
       <c r="M5">
-        <v>0.7878787878787878</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="P5">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -761,10 +761,10 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>66</v>
@@ -782,10 +782,10 @@
         <v>8</v>
       </c>
       <c r="I6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0.0032</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N6">
         <v>0.1111111111111111</v>
       </c>
       <c r="O6">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -811,10 +811,10 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>66</v>
@@ -832,10 +832,10 @@
         <v>8</v>
       </c>
       <c r="I7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0.0032</v>
@@ -844,16 +844,16 @@
         <v>0.001</v>
       </c>
       <c r="M7">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9827586206896551</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -861,10 +861,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>66</v>
@@ -882,10 +882,10 @@
         <v>7</v>
       </c>
       <c r="I8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0.0032</v>
@@ -894,16 +894,16 @@
         <v>0.002</v>
       </c>
       <c r="M8">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9661016949152542</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="P8">
-        <v>0.7777777777777778</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -911,10 +911,10 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>66</v>
@@ -932,10 +932,10 @@
         <v>6</v>
       </c>
       <c r="I9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <v>0.0032</v>
@@ -944,16 +944,16 @@
         <v>0.003</v>
       </c>
       <c r="M9">
-        <v>0.7878787878787878</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="P9">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -961,10 +961,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>66</v>
@@ -982,10 +982,10 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0.0035</v>
@@ -994,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N10">
         <v>0.1111111111111111</v>
       </c>
       <c r="O10">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1011,10 +1011,10 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>66</v>
@@ -1032,10 +1032,10 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0.0035</v>
@@ -1044,16 +1044,16 @@
         <v>0.001</v>
       </c>
       <c r="M11">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9827586206896551</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1111,10 +1111,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>66</v>
@@ -1132,10 +1132,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>0.0035</v>
@@ -1144,16 +1144,16 @@
         <v>0.003</v>
       </c>
       <c r="M13">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="P13">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1161,10 +1161,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>66</v>
@@ -1182,10 +1182,10 @@
         <v>8</v>
       </c>
       <c r="I14">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0.004</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N14">
         <v>0.1111111111111111</v>
       </c>
       <c r="O14">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1211,10 +1211,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>66</v>
@@ -1232,10 +1232,10 @@
         <v>8</v>
       </c>
       <c r="I15">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0.004</v>
@@ -1244,16 +1244,16 @@
         <v>0.001</v>
       </c>
       <c r="M15">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9827586206896551</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1261,10 +1261,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>66</v>
@@ -1282,10 +1282,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0.004</v>
@@ -1294,16 +1294,16 @@
         <v>0.002</v>
       </c>
       <c r="M16">
-        <v>0.8787878787878788</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9830508474576272</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1311,10 +1311,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>66</v>
@@ -1332,10 +1332,10 @@
         <v>6</v>
       </c>
       <c r="I17">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0.004</v>
@@ -1344,16 +1344,16 @@
         <v>0.003</v>
       </c>
       <c r="M17">
-        <v>0.8636363636363636</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.95</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="P17">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1361,10 +1361,10 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>66</v>
@@ -1382,10 +1382,10 @@
         <v>9</v>
       </c>
       <c r="I18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0.005</v>
@@ -1394,16 +1394,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8484848484848485</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="N18">
         <v>0.1</v>
       </c>
       <c r="O18">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1411,10 +1411,10 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>66</v>
@@ -1432,10 +1432,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0.005</v>
@@ -1444,16 +1444,16 @@
         <v>0.001</v>
       </c>
       <c r="M19">
-        <v>0.8484848484848485</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1461,10 +1461,10 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>66</v>
@@ -1482,10 +1482,10 @@
         <v>8</v>
       </c>
       <c r="I20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0.005</v>
@@ -1494,16 +1494,16 @@
         <v>0.002</v>
       </c>
       <c r="M20">
-        <v>0.8636363636363636</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9827586206896551</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1511,10 +1511,10 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>66</v>
@@ -1532,10 +1532,10 @@
         <v>7</v>
       </c>
       <c r="I21">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0.005</v>
@@ -1544,16 +1544,16 @@
         <v>0.003</v>
       </c>
       <c r="M21">
-        <v>0.8636363636363636</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1761,10 +1761,10 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>65</v>
@@ -1782,10 +1782,10 @@
         <v>14</v>
       </c>
       <c r="I26">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0.007</v>
@@ -1794,16 +1794,16 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.7692307692307693</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="N26">
         <v>0.125</v>
       </c>
       <c r="O26">
-        <v>0.9795918367346939</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1811,10 +1811,10 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>65</v>
@@ -1832,10 +1832,10 @@
         <v>14</v>
       </c>
       <c r="I27">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0.007</v>
@@ -1844,16 +1844,16 @@
         <v>0.001</v>
       </c>
       <c r="M27">
-        <v>0.7692307692307693</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="N27">
         <v>0.06666666666666667</v>
       </c>
       <c r="O27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1861,10 +1861,10 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>65</v>
@@ -1882,10 +1882,10 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0.007</v>
@@ -1894,16 +1894,16 @@
         <v>0.002</v>
       </c>
       <c r="M28">
-        <v>0.8153846153846154</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="N28">
         <v>0.08333333333333333</v>
       </c>
       <c r="O28">
-        <v>0.9811320754716981</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1911,10 +1911,10 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>65</v>
@@ -1932,10 +1932,10 @@
         <v>9</v>
       </c>
       <c r="I29">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0.007</v>
@@ -1944,16 +1944,16 @@
         <v>0.003</v>
       </c>
       <c r="M29">
-        <v>0.8461538461538461</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2061,10 +2061,10 @@
         <v>22</v>
       </c>
       <c r="B32">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>64</v>
@@ -2082,10 +2082,10 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0.008</v>
@@ -2094,16 +2094,16 @@
         <v>0.002</v>
       </c>
       <c r="M32">
-        <v>0.8125</v>
+        <v>0.828125</v>
       </c>
       <c r="N32">
         <v>0.08333333333333333</v>
       </c>
       <c r="O32">
-        <v>0.9807692307692307</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2111,10 +2111,10 @@
         <v>22</v>
       </c>
       <c r="B33">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>64</v>
@@ -2132,10 +2132,10 @@
         <v>9</v>
       </c>
       <c r="I33">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0.008</v>
@@ -2144,16 +2144,16 @@
         <v>0.003</v>
       </c>
       <c r="M33">
-        <v>0.84375</v>
+        <v>0.859375</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>0.9818181818181818</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2261,10 +2261,10 @@
         <v>22</v>
       </c>
       <c r="B36">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>62</v>
@@ -2282,10 +2282,10 @@
         <v>13</v>
       </c>
       <c r="I36">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0.008999999999999999</v>
@@ -2294,16 +2294,16 @@
         <v>0.002</v>
       </c>
       <c r="M36">
-        <v>0.7741935483870968</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="N36">
         <v>0.1333333333333333</v>
       </c>
       <c r="O36">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2311,10 +2311,10 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>62</v>
@@ -2332,10 +2332,10 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0.008999999999999999</v>
@@ -2344,16 +2344,16 @@
         <v>0.003</v>
       </c>
       <c r="M37">
-        <v>0.8064516129032258</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0.9803921568627451</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2361,10 +2361,10 @@
         <v>23</v>
       </c>
       <c r="B38">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>59</v>
@@ -2376,10 +2376,10 @@
         <v>38</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I38">
         <v>38</v>
@@ -2394,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.7457627118644068</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="N38">
-        <v>0.2857142857142857</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2411,10 +2411,10 @@
         <v>24</v>
       </c>
       <c r="B39">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>59</v>
@@ -2426,10 +2426,10 @@
         <v>39</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I39">
         <v>39</v>
@@ -2444,10 +2444,10 @@
         <v>0.001</v>
       </c>
       <c r="M39">
-        <v>0.7457627118644068</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="N39">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2476,16 +2476,16 @@
         <v>43</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0.01</v>
@@ -2497,13 +2497,13 @@
         <v>0.7627118644067796</v>
       </c>
       <c r="N40">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="O40">
-        <v>0.9767441860465116</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2526,16 +2526,16 @@
         <v>45</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0.01</v>
@@ -2547,13 +2547,13 @@
         <v>0.7796610169491526</v>
       </c>
       <c r="N41">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="O41">
-        <v>0.9777777777777777</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2561,10 +2561,10 @@
         <v>23</v>
       </c>
       <c r="B42">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D42">
         <v>50</v>
@@ -2576,10 +2576,10 @@
         <v>29</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I42">
         <v>29</v>
@@ -2594,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="N42">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2611,10 +2611,10 @@
         <v>25</v>
       </c>
       <c r="B43">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D43">
         <v>50</v>
@@ -2626,10 +2626,10 @@
         <v>30</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I43">
         <v>30</v>
@@ -2644,10 +2644,10 @@
         <v>0.001</v>
       </c>
       <c r="M43">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="N43">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -2661,10 +2661,10 @@
         <v>25</v>
       </c>
       <c r="B44">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>50</v>
@@ -2676,10 +2676,10 @@
         <v>34</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I44">
         <v>34</v>
@@ -2694,10 +2694,10 @@
         <v>0.002</v>
       </c>
       <c r="M44">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="N44">
-        <v>0.1875</v>
+        <v>0.0625</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2711,10 +2711,10 @@
         <v>25</v>
       </c>
       <c r="B45">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>50</v>
@@ -2726,10 +2726,10 @@
         <v>36</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I45">
         <v>36</v>
@@ -2744,10 +2744,10 @@
         <v>0.003</v>
       </c>
       <c r="M45">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="N45">
-        <v>0.2142857142857143</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -2761,10 +2761,10 @@
         <v>26</v>
       </c>
       <c r="B46">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D46">
         <v>49</v>
@@ -2776,10 +2776,10 @@
         <v>25</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I46">
         <v>25</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.673469387755102</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="N46">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2811,10 +2811,10 @@
         <v>27</v>
       </c>
       <c r="B47">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D47">
         <v>49</v>
@@ -2826,10 +2826,10 @@
         <v>26</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47">
         <v>26</v>
@@ -2844,10 +2844,10 @@
         <v>0.001</v>
       </c>
       <c r="M47">
-        <v>0.673469387755102</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="N47">
-        <v>0.3043478260869565</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2861,10 +2861,10 @@
         <v>27</v>
       </c>
       <c r="B48">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48">
         <v>49</v>
@@ -2876,10 +2876,10 @@
         <v>30</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I48">
         <v>30</v>
@@ -2894,10 +2894,10 @@
         <v>0.002</v>
       </c>
       <c r="M48">
-        <v>0.7142857142857143</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="N48">
-        <v>0.2631578947368421</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2911,10 +2911,10 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>49</v>
@@ -2926,10 +2926,10 @@
         <v>32</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I49">
         <v>32</v>
@@ -2944,10 +2944,10 @@
         <v>0.003</v>
       </c>
       <c r="M49">
-        <v>0.7551020408163265</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N49">
-        <v>0.2941176470588235</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2961,10 +2961,10 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>48</v>
@@ -2976,10 +2976,10 @@
         <v>23</v>
       </c>
       <c r="G50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H50">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50">
         <v>23</v>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="N50">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -3011,10 +3011,10 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <v>48</v>
@@ -3026,10 +3026,10 @@
         <v>24</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H51">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51">
         <v>24</v>
@@ -3044,10 +3044,10 @@
         <v>0.001</v>
       </c>
       <c r="M51">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="N51">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3061,10 +3061,10 @@
         <v>29</v>
       </c>
       <c r="B52">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D52">
         <v>48</v>
@@ -3076,10 +3076,10 @@
         <v>28</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I52">
         <v>28</v>
@@ -3094,10 +3094,10 @@
         <v>0.002</v>
       </c>
       <c r="M52">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N52">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3111,10 +3111,10 @@
         <v>29</v>
       </c>
       <c r="B53">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>48</v>
@@ -3126,10 +3126,10 @@
         <v>30</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I53">
         <v>30</v>
@@ -3144,10 +3144,10 @@
         <v>0.003</v>
       </c>
       <c r="M53">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="N53">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3161,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="B54">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54">
         <v>46</v>
@@ -3176,10 +3176,10 @@
         <v>19</v>
       </c>
       <c r="G54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I54">
         <v>19</v>
@@ -3194,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.6086956521739131</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="N54">
-        <v>0.3333333333333333</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3211,10 +3211,10 @@
         <v>31</v>
       </c>
       <c r="B55">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55">
         <v>46</v>
@@ -3226,10 +3226,10 @@
         <v>20</v>
       </c>
       <c r="G55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I55">
         <v>20</v>
@@ -3244,10 +3244,10 @@
         <v>0.001</v>
       </c>
       <c r="M55">
-        <v>0.6086956521739131</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="N55">
-        <v>0.3076923076923077</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3261,10 +3261,10 @@
         <v>31</v>
       </c>
       <c r="B56">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>46</v>
@@ -3276,10 +3276,10 @@
         <v>24</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I56">
         <v>24</v>
@@ -3294,10 +3294,10 @@
         <v>0.002</v>
       </c>
       <c r="M56">
-        <v>0.6521739130434783</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="N56">
-        <v>0.2727272727272727</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3311,10 +3311,10 @@
         <v>31</v>
       </c>
       <c r="B57">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>46</v>
@@ -3326,10 +3326,10 @@
         <v>26</v>
       </c>
       <c r="G57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57">
         <v>26</v>
@@ -3344,10 +3344,10 @@
         <v>0.003</v>
       </c>
       <c r="M57">
-        <v>0.6956521739130435</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="N57">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -4161,10 +4161,10 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>35</v>
@@ -4176,10 +4176,10 @@
         <v>13</v>
       </c>
       <c r="G74">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H74">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I74">
         <v>13</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.7714285714285715</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N74">
-        <v>0.6363636363636364</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4211,10 +4211,10 @@
         <v>36</v>
       </c>
       <c r="B75">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D75">
         <v>35</v>
@@ -4226,10 +4226,10 @@
         <v>13</v>
       </c>
       <c r="G75">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H75">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I75">
         <v>13</v>
@@ -4244,10 +4244,10 @@
         <v>0.001</v>
       </c>
       <c r="M75">
-        <v>0.7714285714285715</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N75">
-        <v>0.6363636363636364</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4261,10 +4261,10 @@
         <v>36</v>
       </c>
       <c r="B76">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D76">
         <v>35</v>
@@ -4276,10 +4276,10 @@
         <v>13</v>
       </c>
       <c r="G76">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H76">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I76">
         <v>13</v>
@@ -4294,10 +4294,10 @@
         <v>0.002</v>
       </c>
       <c r="M76">
-        <v>0.7714285714285715</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N76">
-        <v>0.6363636363636364</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4311,10 +4311,10 @@
         <v>36</v>
       </c>
       <c r="B77">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>35</v>
@@ -4326,10 +4326,10 @@
         <v>14</v>
       </c>
       <c r="G77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H77">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I77">
         <v>14</v>
@@ -4344,10 +4344,10 @@
         <v>0.003</v>
       </c>
       <c r="M77">
-        <v>0.7714285714285715</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N77">
-        <v>0.6190476190476191</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4361,10 +4361,10 @@
         <v>37</v>
       </c>
       <c r="B78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78">
         <v>35</v>
@@ -4376,10 +4376,10 @@
         <v>13</v>
       </c>
       <c r="G78">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I78">
         <v>13</v>
@@ -4394,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.7714285714285715</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N78">
-        <v>0.6363636363636364</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4411,10 +4411,10 @@
         <v>37</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79">
         <v>35</v>
@@ -4426,10 +4426,10 @@
         <v>13</v>
       </c>
       <c r="G79">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I79">
         <v>13</v>
@@ -4444,10 +4444,10 @@
         <v>0.001</v>
       </c>
       <c r="M79">
-        <v>0.7714285714285715</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N79">
-        <v>0.6363636363636364</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4461,10 +4461,10 @@
         <v>37</v>
       </c>
       <c r="B80">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80">
         <v>35</v>
@@ -4476,10 +4476,10 @@
         <v>13</v>
       </c>
       <c r="G80">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I80">
         <v>13</v>
@@ -4494,10 +4494,10 @@
         <v>0.002</v>
       </c>
       <c r="M80">
-        <v>0.7714285714285715</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N80">
-        <v>0.6363636363636364</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -4511,10 +4511,10 @@
         <v>37</v>
       </c>
       <c r="B81">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>35</v>
@@ -4526,10 +4526,10 @@
         <v>14</v>
       </c>
       <c r="G81">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I81">
         <v>14</v>
@@ -4544,10 +4544,10 @@
         <v>0.003</v>
       </c>
       <c r="M81">
-        <v>0.7714285714285715</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N81">
-        <v>0.6190476190476191</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -4561,10 +4561,10 @@
         <v>37</v>
       </c>
       <c r="B82">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>31</v>
@@ -4576,10 +4576,10 @@
         <v>11</v>
       </c>
       <c r="G82">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I82">
         <v>11</v>
@@ -4594,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="N82">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -4611,10 +4611,10 @@
         <v>37</v>
       </c>
       <c r="B83">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>31</v>
@@ -4626,10 +4626,10 @@
         <v>11</v>
       </c>
       <c r="G83">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I83">
         <v>11</v>
@@ -4644,10 +4644,10 @@
         <v>0.001</v>
       </c>
       <c r="M83">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="N83">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -4661,10 +4661,10 @@
         <v>37</v>
       </c>
       <c r="B84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>31</v>
@@ -4676,10 +4676,10 @@
         <v>11</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I84">
         <v>11</v>
@@ -4694,10 +4694,10 @@
         <v>0.002</v>
       </c>
       <c r="M84">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="N84">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -4711,10 +4711,10 @@
         <v>37</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>31</v>
@@ -4726,10 +4726,10 @@
         <v>12</v>
       </c>
       <c r="G85">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I85">
         <v>12</v>
@@ -4744,10 +4744,10 @@
         <v>0.003</v>
       </c>
       <c r="M85">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="N85">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="O85">
         <v>1</v>

--- a/tmp_grid_res.xlsx
+++ b/tmp_grid_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
   <si>
     <t>win</t>
   </si>
@@ -61,28 +61,22 @@
     <t>close by time lose/lose</t>
   </si>
   <si>
-    <t>2022-06-02 09:30:00 -&gt; 2022-06-28 09:33:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:44:00</t>
   </si>
   <si>
-    <t>2022-06-02 09:30:00 -&gt; 2022-06-28 09:32:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:35:00</t>
   </si>
   <si>
-    <t>2022-06-02 09:30:00 -&gt; 2022-06-28 11:04:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:34:00</t>
   </si>
   <si>
-    <t>2022-06-02 09:30:00 -&gt; 2022-06-28 11:03:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:43:00</t>
   </si>
   <si>
-    <t>2022-06-02 09:30:00 -&gt; 2022-06-22 14:04:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 15:00:00</t>
   </si>
   <si>
-    <t>2022-06-02 09:30:00 -&gt; 2022-06-22 11:27:00</t>
-  </si>
-  <si>
-    <t>2022-06-02 09:30:00 -&gt; 2022-06-22 11:26:00</t>
-  </si>
-  <si>
-    <t>2022-06-02 09:30:00 -&gt; 2022-06-22 11:23:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 13:42:00</t>
   </si>
 </sst>
 </file>
@@ -440,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,28 +492,28 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -531,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="N2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -548,28 +542,28 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -581,10 +575,10 @@
         <v>0.001</v>
       </c>
       <c r="M3">
-        <v>0.8125</v>
+        <v>0.925</v>
       </c>
       <c r="N3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -595,34 +589,34 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+      <c r="J4">
         <v>2</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>0.0031</v>
@@ -634,45 +628,45 @@
         <v>0.875</v>
       </c>
       <c r="N4">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="I5">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>0.0031</v>
@@ -681,16 +675,16 @@
         <v>0.003</v>
       </c>
       <c r="M5">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="N5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -698,28 +692,28 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -731,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8125</v>
+        <v>0.825</v>
       </c>
       <c r="N6">
-        <v>0.25</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -748,28 +742,28 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -781,10 +775,10 @@
         <v>0.001</v>
       </c>
       <c r="M7">
-        <v>0.8125</v>
+        <v>0.925</v>
       </c>
       <c r="N7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -795,34 +789,34 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
       <c r="I8">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0.0032</v>
@@ -831,48 +825,48 @@
         <v>0.002</v>
       </c>
       <c r="M8">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="N8">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
       <c r="I9">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0.0032</v>
@@ -881,16 +875,16 @@
         <v>0.003</v>
       </c>
       <c r="M9">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="N9">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -898,28 +892,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -931,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8125</v>
+        <v>0.825</v>
       </c>
       <c r="N10">
-        <v>0.25</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -948,28 +942,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -981,10 +975,10 @@
         <v>0.001</v>
       </c>
       <c r="M11">
-        <v>0.8125</v>
+        <v>0.925</v>
       </c>
       <c r="N11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -995,31 +989,31 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
       <c r="I12">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1031,10 +1025,10 @@
         <v>0.002</v>
       </c>
       <c r="M12">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="N12">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1045,31 +1039,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
       <c r="I13">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1081,10 +1075,10 @@
         <v>0.003</v>
       </c>
       <c r="M13">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="N13">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1098,28 +1092,28 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1131,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8125</v>
+        <v>0.825</v>
       </c>
       <c r="N14">
-        <v>0.25</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1148,28 +1142,28 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1181,10 +1175,10 @@
         <v>0.001</v>
       </c>
       <c r="M15">
-        <v>0.8125</v>
+        <v>0.925</v>
       </c>
       <c r="N15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1195,31 +1189,31 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
       <c r="I16">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1231,10 +1225,10 @@
         <v>0.002</v>
       </c>
       <c r="M16">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="N16">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1245,31 +1239,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
       <c r="I17">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1281,10 +1275,10 @@
         <v>0.003</v>
       </c>
       <c r="M17">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="N17">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1295,31 +1289,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1331,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="N18">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1345,31 +1339,31 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>33</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1381,10 +1375,10 @@
         <v>0.001</v>
       </c>
       <c r="M19">
-        <v>0.8125</v>
+        <v>0.9</v>
       </c>
       <c r="N19">
-        <v>0.25</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1395,31 +1389,31 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1431,10 +1425,10 @@
         <v>0.002</v>
       </c>
       <c r="M20">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="N20">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1445,31 +1439,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>13</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
       <c r="I21">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1481,10 +1475,10 @@
         <v>0.003</v>
       </c>
       <c r="M21">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="N21">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1495,31 +1489,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I22">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1531,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8125</v>
+        <v>0.725</v>
       </c>
       <c r="N22">
-        <v>0.25</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1545,31 +1539,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>31</v>
+      </c>
+      <c r="G23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>12</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
       <c r="H23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1581,10 +1575,10 @@
         <v>0.001</v>
       </c>
       <c r="M23">
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="N23">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1595,31 +1589,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1631,10 +1625,10 @@
         <v>0.002</v>
       </c>
       <c r="M24">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="N24">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1645,31 +1639,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1681,10 +1675,10 @@
         <v>0.003</v>
       </c>
       <c r="M25">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="N25">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1695,31 +1689,31 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1731,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.8125</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="N26">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1745,31 +1739,31 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>29</v>
+      </c>
+      <c r="G27">
         <v>3</v>
       </c>
-      <c r="D27">
-        <v>16</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
       <c r="H27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1781,10 +1775,10 @@
         <v>0.001</v>
       </c>
       <c r="M27">
-        <v>0.8125</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="N27">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1795,31 +1789,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I28">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1831,10 +1825,10 @@
         <v>0.002</v>
       </c>
       <c r="M28">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="N28">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1845,31 +1839,31 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1881,10 +1875,10 @@
         <v>0.003</v>
       </c>
       <c r="M29">
-        <v>0.875</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="N29">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1895,31 +1889,31 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D30">
+        <v>38</v>
+      </c>
+      <c r="E30">
         <v>16</v>
       </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
       <c r="F30">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1931,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.8125</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="N30">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -1945,31 +1939,31 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>26</v>
+      </c>
+      <c r="G31">
         <v>3</v>
       </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>12</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
       <c r="H31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I31">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1981,7 +1975,7 @@
         <v>0.001</v>
       </c>
       <c r="M31">
-        <v>0.8125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="N31">
         <v>0.25</v>
@@ -1995,31 +1989,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2031,10 +2025,10 @@
         <v>0.002</v>
       </c>
       <c r="M32">
-        <v>0.875</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="N32">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2045,31 +2039,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2081,10 +2075,10 @@
         <v>0.003</v>
       </c>
       <c r="M33">
-        <v>0.875</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="N33">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2095,31 +2089,31 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2131,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.8</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="N34">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2145,31 +2139,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F35">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I35">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2181,10 +2175,10 @@
         <v>0.001</v>
       </c>
       <c r="M35">
-        <v>0.8666666666666667</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N35">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2198,28 +2192,28 @@
         <v>18</v>
       </c>
       <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>38</v>
+      </c>
+      <c r="E36">
         <v>14</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>15</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
       <c r="F36">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2231,10 +2225,10 @@
         <v>0.002</v>
       </c>
       <c r="M36">
-        <v>0.9333333333333333</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N36">
-        <v>0.6666666666666666</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2248,28 +2242,28 @@
         <v>18</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I37">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2281,10 +2275,10 @@
         <v>0.003</v>
       </c>
       <c r="M37">
-        <v>0.9333333333333333</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="N37">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2295,31 +2289,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>19</v>
+      </c>
+      <c r="F38">
         <v>17</v>
       </c>
-      <c r="B38">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>15</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
+      <c r="G38">
+        <v>9</v>
+      </c>
+      <c r="H38">
         <v>10</v>
       </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
       <c r="I38">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2331,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.8</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="N38">
-        <v>0.4</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2345,31 +2339,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I39">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2381,10 +2375,10 @@
         <v>0.001</v>
       </c>
       <c r="M39">
-        <v>0.8666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="N39">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2398,28 +2392,28 @@
         <v>18</v>
       </c>
       <c r="B40">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+      <c r="E40">
         <v>14</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>15</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
       <c r="F40">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I40">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2431,10 +2425,10 @@
         <v>0.002</v>
       </c>
       <c r="M40">
-        <v>0.9333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="N40">
-        <v>0.6666666666666666</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2448,28 +2442,28 @@
         <v>18</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I41">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2481,10 +2475,10 @@
         <v>0.003</v>
       </c>
       <c r="M41">
-        <v>0.9333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N41">
-        <v>0.6666666666666666</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2495,31 +2489,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F42">
+        <v>14</v>
+      </c>
+      <c r="G42">
         <v>10</v>
       </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
       <c r="H42">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2531,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N42">
-        <v>0.4</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2545,31 +2539,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="F43">
         <v>17</v>
       </c>
-      <c r="B43">
-        <v>13</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>15</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="F43">
-        <v>11</v>
-      </c>
       <c r="G43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I43">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2581,7 +2575,7 @@
         <v>0.001</v>
       </c>
       <c r="M43">
-        <v>0.8666666666666667</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N43">
         <v>0.5</v>
@@ -2595,31 +2589,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I44">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2631,10 +2625,10 @@
         <v>0.002</v>
       </c>
       <c r="M44">
-        <v>0.8666666666666667</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N44">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2645,31 +2639,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I45">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2681,10 +2675,10 @@
         <v>0.003</v>
       </c>
       <c r="M45">
-        <v>0.8666666666666667</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="N45">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -2695,31 +2689,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2731,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.8</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N46">
-        <v>0.4</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2745,31 +2739,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>33</v>
+      </c>
+      <c r="E47">
         <v>17</v>
       </c>
-      <c r="B47">
-        <v>12</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>15</v>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
       <c r="F47">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2781,10 +2775,10 @@
         <v>0.001</v>
       </c>
       <c r="M47">
-        <v>0.8</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N47">
-        <v>0.4</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2795,31 +2789,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>33</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48">
         <v>18</v>
       </c>
-      <c r="B48">
-        <v>12</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>15</v>
-      </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
       <c r="G48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2831,10 +2825,10 @@
         <v>0.002</v>
       </c>
       <c r="M48">
-        <v>0.8</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N48">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2845,31 +2839,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2881,10 +2875,10 @@
         <v>0.003</v>
       </c>
       <c r="M49">
-        <v>0.8</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N49">
-        <v>0.4</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2895,31 +2889,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
+      <c r="E50">
         <v>17</v>
       </c>
-      <c r="B50">
+      <c r="F50">
         <v>11</v>
       </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>14</v>
-      </c>
-      <c r="E50">
-        <v>5</v>
-      </c>
-      <c r="F50">
+      <c r="G50">
         <v>9</v>
       </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
       <c r="H50">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I50">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2931,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.7857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N50">
-        <v>0.4</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -2945,31 +2939,31 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>28</v>
+      </c>
+      <c r="E51">
         <v>17</v>
       </c>
-      <c r="B51">
+      <c r="F51">
         <v>11</v>
       </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>14</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="F51">
+      <c r="G51">
         <v>9</v>
       </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
       <c r="H51">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I51">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2981,10 +2975,10 @@
         <v>0.001</v>
       </c>
       <c r="M51">
-        <v>0.7857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N51">
-        <v>0.4</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -2995,31 +2989,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3031,10 +3025,10 @@
         <v>0.002</v>
       </c>
       <c r="M52">
-        <v>0.7857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N52">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3045,31 +3039,31 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3081,10 +3075,10 @@
         <v>0.003</v>
       </c>
       <c r="M53">
-        <v>0.7857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N53">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3095,31 +3089,31 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3131,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.7857142857142857</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N54">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3145,31 +3139,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3181,10 +3175,10 @@
         <v>0.001</v>
       </c>
       <c r="M55">
-        <v>0.7857142857142857</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N55">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3195,31 +3189,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3231,10 +3225,10 @@
         <v>0.002</v>
       </c>
       <c r="M56">
-        <v>0.7857142857142857</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N56">
-        <v>0.4</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3245,31 +3239,31 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3281,10 +3275,10 @@
         <v>0.003</v>
       </c>
       <c r="M57">
-        <v>0.7857142857142857</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N57">
-        <v>0.4</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3295,31 +3289,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3331,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0.7857142857142857</v>
+        <v>0.65</v>
       </c>
       <c r="N58">
-        <v>0.4</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3345,31 +3339,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3381,10 +3375,10 @@
         <v>0.001</v>
       </c>
       <c r="M59">
-        <v>0.7857142857142857</v>
+        <v>0.65</v>
       </c>
       <c r="N59">
-        <v>0.4</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -3395,28 +3389,28 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60">
         <v>11</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60">
-        <v>14</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
       </c>
       <c r="F60">
         <v>9</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I60">
         <v>9</v>
@@ -3431,10 +3425,10 @@
         <v>0.002</v>
       </c>
       <c r="M60">
-        <v>0.7857142857142857</v>
+        <v>0.65</v>
       </c>
       <c r="N60">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3445,28 +3439,28 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61">
         <v>11</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>14</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
       </c>
       <c r="F61">
         <v>9</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I61">
         <v>9</v>
@@ -3481,10 +3475,10 @@
         <v>0.003</v>
       </c>
       <c r="M61">
-        <v>0.7857142857142857</v>
+        <v>0.65</v>
       </c>
       <c r="N61">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -3495,31 +3489,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D62">
+        <v>19</v>
+      </c>
+      <c r="E62">
         <v>13</v>
       </c>
-      <c r="E62">
-        <v>5</v>
-      </c>
       <c r="F62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3531,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.7692307692307693</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N62">
-        <v>0.4</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -3545,31 +3539,31 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D63">
+        <v>19</v>
+      </c>
+      <c r="E63">
         <v>13</v>
       </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
       <c r="F63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3581,10 +3575,10 @@
         <v>0.001</v>
       </c>
       <c r="M63">
-        <v>0.7692307692307693</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N63">
-        <v>0.4</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3595,28 +3589,28 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F64">
         <v>8</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I64">
         <v>8</v>
@@ -3631,10 +3625,10 @@
         <v>0.002</v>
       </c>
       <c r="M64">
-        <v>0.7692307692307693</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N64">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3645,28 +3639,28 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F65">
         <v>8</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I65">
         <v>8</v>
@@ -3681,10 +3675,10 @@
         <v>0.003</v>
       </c>
       <c r="M65">
-        <v>0.7692307692307693</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N65">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3695,31 +3689,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
         <v>17</v>
       </c>
-      <c r="B66">
-        <v>10</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66">
-        <v>13</v>
-      </c>
       <c r="E66">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3731,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.7692307692307693</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N66">
-        <v>0.4</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3745,31 +3739,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
         <v>17</v>
       </c>
-      <c r="B67">
-        <v>10</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>13</v>
-      </c>
       <c r="E67">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3781,10 +3775,10 @@
         <v>0.001</v>
       </c>
       <c r="M67">
-        <v>0.7692307692307693</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N67">
-        <v>0.4</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -3795,31 +3789,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>17</v>
+      </c>
+      <c r="E68">
         <v>10</v>
       </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68">
-        <v>13</v>
-      </c>
-      <c r="E68">
-        <v>5</v>
-      </c>
       <c r="F68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3831,10 +3825,10 @@
         <v>0.002</v>
       </c>
       <c r="M68">
-        <v>0.7692307692307693</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N68">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -3845,31 +3839,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>17</v>
+      </c>
+      <c r="E69">
         <v>10</v>
       </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>13</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
       <c r="F69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3881,10 +3875,10 @@
         <v>0.003</v>
       </c>
       <c r="M69">
-        <v>0.7692307692307693</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N69">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -3895,31 +3889,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>11</v>
+      </c>
+      <c r="F70">
         <v>3</v>
       </c>
-      <c r="D70">
-        <v>13</v>
-      </c>
-      <c r="E70">
-        <v>5</v>
-      </c>
-      <c r="F70">
-        <v>8</v>
-      </c>
       <c r="G70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
         <v>3</v>
-      </c>
-      <c r="I70">
-        <v>8</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3931,10 +3925,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.7692307692307693</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N70">
-        <v>0.4</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -3945,31 +3939,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71">
         <v>3</v>
       </c>
-      <c r="D71">
-        <v>13</v>
-      </c>
-      <c r="E71">
-        <v>5</v>
-      </c>
-      <c r="F71">
-        <v>8</v>
-      </c>
       <c r="G71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
         <v>3</v>
-      </c>
-      <c r="I71">
-        <v>8</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3981,10 +3975,10 @@
         <v>0.001</v>
       </c>
       <c r="M71">
-        <v>0.7692307692307693</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N71">
-        <v>0.4</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -3995,31 +3989,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
         <v>10</v>
       </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72">
-        <v>13</v>
-      </c>
-      <c r="E72">
-        <v>5</v>
-      </c>
       <c r="F72">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4031,10 +4025,10 @@
         <v>0.002</v>
       </c>
       <c r="M72">
-        <v>0.7692307692307693</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N72">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4045,31 +4039,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>14</v>
+      </c>
+      <c r="E73">
         <v>10</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <v>13</v>
-      </c>
-      <c r="E73">
-        <v>5</v>
-      </c>
       <c r="F73">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4081,10 +4075,10 @@
         <v>0.003</v>
       </c>
       <c r="M73">
-        <v>0.7692307692307693</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N73">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4095,31 +4089,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B74">
         <v>9</v>
       </c>
       <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>11</v>
+      </c>
+      <c r="F74">
         <v>3</v>
       </c>
-      <c r="D74">
-        <v>12</v>
-      </c>
-      <c r="E74">
-        <v>5</v>
-      </c>
-      <c r="F74">
-        <v>7</v>
-      </c>
       <c r="G74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
         <v>3</v>
-      </c>
-      <c r="I74">
-        <v>7</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4131,10 +4125,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.75</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N74">
-        <v>0.4</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4145,31 +4139,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B75">
         <v>9</v>
       </c>
       <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
         <v>3</v>
       </c>
-      <c r="D75">
-        <v>12</v>
-      </c>
-      <c r="E75">
-        <v>5</v>
-      </c>
-      <c r="F75">
-        <v>7</v>
-      </c>
       <c r="G75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
         <v>3</v>
-      </c>
-      <c r="I75">
-        <v>7</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4181,10 +4175,10 @@
         <v>0.001</v>
       </c>
       <c r="M75">
-        <v>0.75</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N75">
-        <v>0.4</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4195,31 +4189,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B76">
         <v>9</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4231,10 +4225,10 @@
         <v>0.002</v>
       </c>
       <c r="M76">
-        <v>0.75</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N76">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4245,31 +4239,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B77">
         <v>9</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4281,10 +4275,10 @@
         <v>0.003</v>
       </c>
       <c r="M77">
-        <v>0.75</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N77">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4295,31 +4289,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B78">
         <v>9</v>
       </c>
       <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
         <v>3</v>
       </c>
-      <c r="D78">
-        <v>12</v>
-      </c>
-      <c r="E78">
-        <v>5</v>
-      </c>
-      <c r="F78">
-        <v>7</v>
-      </c>
       <c r="G78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
         <v>3</v>
-      </c>
-      <c r="I78">
-        <v>7</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4331,10 +4325,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N78">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4345,31 +4339,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B79">
         <v>9</v>
       </c>
       <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>13</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
         <v>3</v>
       </c>
-      <c r="D79">
-        <v>12</v>
-      </c>
-      <c r="E79">
-        <v>5</v>
-      </c>
-      <c r="F79">
-        <v>7</v>
-      </c>
       <c r="G79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79">
         <v>3</v>
-      </c>
-      <c r="I79">
-        <v>7</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4381,10 +4375,10 @@
         <v>0.001</v>
       </c>
       <c r="M79">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N79">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4395,31 +4389,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B80">
         <v>9</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4431,10 +4425,10 @@
         <v>0.002</v>
       </c>
       <c r="M80">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N80">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -4445,31 +4439,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81">
         <v>9</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4481,1015 +4475,15 @@
         <v>0.003</v>
       </c>
       <c r="M81">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N81">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O81">
         <v>1</v>
       </c>
       <c r="P81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82">
-        <v>10</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
-        <v>12</v>
-      </c>
-      <c r="E82">
-        <v>6</v>
-      </c>
-      <c r="F82">
-        <v>6</v>
-      </c>
-      <c r="G82">
-        <v>4</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-      <c r="I82">
-        <v>6</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0.021</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="N82">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="A83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B83">
-        <v>10</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83">
-        <v>12</v>
-      </c>
-      <c r="E83">
-        <v>6</v>
-      </c>
-      <c r="F83">
-        <v>6</v>
-      </c>
-      <c r="G83">
-        <v>4</v>
-      </c>
-      <c r="H83">
-        <v>2</v>
-      </c>
-      <c r="I83">
-        <v>6</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0.021</v>
-      </c>
-      <c r="L83">
-        <v>0.001</v>
-      </c>
-      <c r="M83">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="N83">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84">
-        <v>10</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>12</v>
-      </c>
-      <c r="E84">
-        <v>6</v>
-      </c>
-      <c r="F84">
-        <v>6</v>
-      </c>
-      <c r="G84">
-        <v>4</v>
-      </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
-      <c r="I84">
-        <v>6</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0.021</v>
-      </c>
-      <c r="L84">
-        <v>0.002</v>
-      </c>
-      <c r="M84">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="N84">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="P84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85">
-        <v>10</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>12</v>
-      </c>
-      <c r="E85">
-        <v>6</v>
-      </c>
-      <c r="F85">
-        <v>6</v>
-      </c>
-      <c r="G85">
-        <v>4</v>
-      </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="I85">
-        <v>6</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0.021</v>
-      </c>
-      <c r="L85">
-        <v>0.003</v>
-      </c>
-      <c r="M85">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="N85">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86">
-        <v>10</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>11</v>
-      </c>
-      <c r="E86">
-        <v>5</v>
-      </c>
-      <c r="F86">
-        <v>6</v>
-      </c>
-      <c r="G86">
-        <v>4</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>6</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0.022</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N86">
-        <v>0.8</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
-      <c r="A87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87">
-        <v>10</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>11</v>
-      </c>
-      <c r="E87">
-        <v>5</v>
-      </c>
-      <c r="F87">
-        <v>6</v>
-      </c>
-      <c r="G87">
-        <v>4</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>6</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0.022</v>
-      </c>
-      <c r="L87">
-        <v>0.001</v>
-      </c>
-      <c r="M87">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N87">
-        <v>0.8</v>
-      </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
-      <c r="A88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>11</v>
-      </c>
-      <c r="E88">
-        <v>5</v>
-      </c>
-      <c r="F88">
-        <v>6</v>
-      </c>
-      <c r="G88">
-        <v>4</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>6</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0.022</v>
-      </c>
-      <c r="L88">
-        <v>0.002</v>
-      </c>
-      <c r="M88">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N88">
-        <v>0.8</v>
-      </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="A89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89">
-        <v>10</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>11</v>
-      </c>
-      <c r="E89">
-        <v>5</v>
-      </c>
-      <c r="F89">
-        <v>6</v>
-      </c>
-      <c r="G89">
-        <v>4</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>6</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0.022</v>
-      </c>
-      <c r="L89">
-        <v>0.003</v>
-      </c>
-      <c r="M89">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N89">
-        <v>0.8</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="A90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90">
-        <v>10</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>11</v>
-      </c>
-      <c r="E90">
-        <v>5</v>
-      </c>
-      <c r="F90">
-        <v>6</v>
-      </c>
-      <c r="G90">
-        <v>4</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>6</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0.023</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N90">
-        <v>0.8</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91">
-        <v>10</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>11</v>
-      </c>
-      <c r="E91">
-        <v>5</v>
-      </c>
-      <c r="F91">
-        <v>6</v>
-      </c>
-      <c r="G91">
-        <v>4</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>6</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0.023</v>
-      </c>
-      <c r="L91">
-        <v>0.001</v>
-      </c>
-      <c r="M91">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N91">
-        <v>0.8</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92">
-        <v>10</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>11</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
-      </c>
-      <c r="F92">
-        <v>6</v>
-      </c>
-      <c r="G92">
-        <v>4</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>6</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0.023</v>
-      </c>
-      <c r="L92">
-        <v>0.002</v>
-      </c>
-      <c r="M92">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N92">
-        <v>0.8</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93">
-        <v>10</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>11</v>
-      </c>
-      <c r="E93">
-        <v>5</v>
-      </c>
-      <c r="F93">
-        <v>6</v>
-      </c>
-      <c r="G93">
-        <v>4</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>6</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0.023</v>
-      </c>
-      <c r="L93">
-        <v>0.003</v>
-      </c>
-      <c r="M93">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N93">
-        <v>0.8</v>
-      </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B94">
-        <v>9</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>10</v>
-      </c>
-      <c r="E94">
-        <v>5</v>
-      </c>
-      <c r="F94">
-        <v>5</v>
-      </c>
-      <c r="G94">
-        <v>4</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>5</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0.024</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0.9</v>
-      </c>
-      <c r="N94">
-        <v>0.8</v>
-      </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="A95" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95">
-        <v>9</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>10</v>
-      </c>
-      <c r="E95">
-        <v>5</v>
-      </c>
-      <c r="F95">
-        <v>5</v>
-      </c>
-      <c r="G95">
-        <v>4</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
-        <v>5</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0.024</v>
-      </c>
-      <c r="L95">
-        <v>0.001</v>
-      </c>
-      <c r="M95">
-        <v>0.9</v>
-      </c>
-      <c r="N95">
-        <v>0.8</v>
-      </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96">
-        <v>9</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>10</v>
-      </c>
-      <c r="E96">
-        <v>5</v>
-      </c>
-      <c r="F96">
-        <v>5</v>
-      </c>
-      <c r="G96">
-        <v>4</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>5</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0.024</v>
-      </c>
-      <c r="L96">
-        <v>0.002</v>
-      </c>
-      <c r="M96">
-        <v>0.9</v>
-      </c>
-      <c r="N96">
-        <v>0.8</v>
-      </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
-      <c r="A97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97">
-        <v>9</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>10</v>
-      </c>
-      <c r="E97">
-        <v>5</v>
-      </c>
-      <c r="F97">
-        <v>5</v>
-      </c>
-      <c r="G97">
-        <v>4</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>5</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0.024</v>
-      </c>
-      <c r="L97">
-        <v>0.003</v>
-      </c>
-      <c r="M97">
-        <v>0.9</v>
-      </c>
-      <c r="N97">
-        <v>0.8</v>
-      </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
-      <c r="A98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98">
-        <v>8</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>9</v>
-      </c>
-      <c r="E98">
-        <v>5</v>
-      </c>
-      <c r="F98">
-        <v>4</v>
-      </c>
-      <c r="G98">
-        <v>4</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>4</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0.025</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="N98">
-        <v>0.8</v>
-      </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
-      <c r="A99" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99">
-        <v>8</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>9</v>
-      </c>
-      <c r="E99">
-        <v>5</v>
-      </c>
-      <c r="F99">
-        <v>4</v>
-      </c>
-      <c r="G99">
-        <v>4</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>4</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0.025</v>
-      </c>
-      <c r="L99">
-        <v>0.001</v>
-      </c>
-      <c r="M99">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="N99">
-        <v>0.8</v>
-      </c>
-      <c r="O99">
-        <v>1</v>
-      </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
-      <c r="A100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100">
-        <v>8</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>9</v>
-      </c>
-      <c r="E100">
-        <v>5</v>
-      </c>
-      <c r="F100">
-        <v>4</v>
-      </c>
-      <c r="G100">
-        <v>4</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>4</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0.025</v>
-      </c>
-      <c r="L100">
-        <v>0.002</v>
-      </c>
-      <c r="M100">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="N100">
-        <v>0.8</v>
-      </c>
-      <c r="O100">
-        <v>1</v>
-      </c>
-      <c r="P100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
-      <c r="A101" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101">
-        <v>8</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>9</v>
-      </c>
-      <c r="E101">
-        <v>5</v>
-      </c>
-      <c r="F101">
-        <v>4</v>
-      </c>
-      <c r="G101">
-        <v>4</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101">
-        <v>4</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0.025</v>
-      </c>
-      <c r="L101">
-        <v>0.003</v>
-      </c>
-      <c r="M101">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="N101">
-        <v>0.8</v>
-      </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
-      <c r="P101">
         <v>1</v>
       </c>
     </row>

--- a/tmp_grid_res.xlsx
+++ b/tmp_grid_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
   <si>
     <t>win</t>
   </si>
@@ -61,22 +61,88 @@
     <t>close by time lose/lose</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:44:00</t>
+    <t>2021-12-14 09:30:00 -&gt; 2022-06-28 09:33:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:35:00</t>
+    <t>2021-12-14 09:30:00 -&gt; 2022-06-28 09:31:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:34:00</t>
+    <t>2021-12-14 09:58:00 -&gt; 2022-06-28 09:33:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:43:00</t>
+    <t>2021-12-14 09:58:00 -&gt; 2022-06-28 09:31:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 15:00:00</t>
+    <t>2021-12-14 09:59:00 -&gt; 2022-06-28 10:09:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 13:42:00</t>
+    <t>2021-12-14 09:59:00 -&gt; 2022-06-28 10:01:00</t>
+  </si>
+  <si>
+    <t>2021-12-14 13:28:00 -&gt; 2022-06-28 10:09:00</t>
+  </si>
+  <si>
+    <t>2021-12-14 13:28:00 -&gt; 2022-06-28 10:01:00</t>
+  </si>
+  <si>
+    <t>2021-12-14 13:33:00 -&gt; 2022-06-28 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-14 13:37:00 -&gt; 2022-06-28 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-14 14:46:00 -&gt; 2022-06-28 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-15 10:04:00 -&gt; 2022-06-27 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-15 10:09:00 -&gt; 2022-06-27 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-15 10:15:00 -&gt; 2022-06-24 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-15 11:01:00 -&gt; 2022-06-24 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-15 11:19:00 -&gt; 2022-06-24 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-16 14:05:00 -&gt; 2022-06-24 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-16 14:09:00 -&gt; 2022-06-24 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-21 14:52:00 -&gt; 2022-06-24 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-23 13:00:00 -&gt; 2022-06-23 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-18 10:36:00 -&gt; 2022-06-23 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-24 14:43:00 -&gt; 2022-06-23 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-28 10:17:00 -&gt; 2022-06-23 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-28 10:22:00 -&gt; 2022-06-15 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-28 10:23:00 -&gt; 2022-06-15 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-28 10:23:00 -&gt; 2022-05-23 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-28 10:24:00 -&gt; 2022-05-23 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-02-14 14:30:00 -&gt; 2022-04-26 15:00:00</t>
   </si>
 </sst>
 </file>
@@ -434,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,93 +558,93 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.0031</v>
+        <v>0.001</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.85</v>
+        <v>0.8217054263565892</v>
       </c>
       <c r="N2">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I3">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0031</v>
+        <v>0.002</v>
       </c>
       <c r="L3">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.925</v>
+        <v>0.7829457364341085</v>
       </c>
       <c r="N3">
-        <v>0.5</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -589,102 +655,102 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I4">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.0031</v>
+        <v>0.002</v>
       </c>
       <c r="L4">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M4">
-        <v>0.875</v>
+        <v>0.8527131782945736</v>
       </c>
       <c r="N4">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O4">
-        <v>0.9444444444444444</v>
+        <v>0.9907407407407407</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I5">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0031</v>
+        <v>0.003</v>
       </c>
       <c r="L5">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.85</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="N5">
-        <v>0.25</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O5">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -692,43 +758,43 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0032</v>
+        <v>0.003</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M6">
-        <v>0.825</v>
+        <v>0.8449612403100775</v>
       </c>
       <c r="N6">
-        <v>0.3636363636363636</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -742,193 +808,193 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>0.0032</v>
+        <v>0.003</v>
       </c>
       <c r="L7">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="M7">
-        <v>0.925</v>
+        <v>0.875968992248062</v>
       </c>
       <c r="N7">
-        <v>0.5</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9652173913043478</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I8">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0032</v>
+        <v>0.004</v>
       </c>
       <c r="L8">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9</v>
+        <v>0.7364341085271318</v>
       </c>
       <c r="N8">
-        <v>0.25</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="O8">
-        <v>0.9722222222222222</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.0032</v>
+        <v>0.004</v>
       </c>
       <c r="L9">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M9">
-        <v>0.9</v>
+        <v>0.8062015503875969</v>
       </c>
       <c r="N9">
-        <v>0.25</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="O9">
-        <v>0.9722222222222222</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I10">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.0035</v>
+        <v>0.004</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M10">
-        <v>0.825</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="N10">
-        <v>0.3636363636363636</v>
+        <v>0.1</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -942,49 +1008,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>0.0035</v>
+        <v>0.004</v>
       </c>
       <c r="L11">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M11">
-        <v>0.925</v>
+        <v>0.8217054263565892</v>
       </c>
       <c r="N11">
-        <v>0.5</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -992,43 +1058,43 @@
         <v>17</v>
       </c>
       <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
         <v>37</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
       <c r="D12">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I12">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.0035</v>
+        <v>0.005</v>
       </c>
       <c r="L12">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.925</v>
+        <v>0.7086614173228346</v>
       </c>
       <c r="N12">
-        <v>0.25</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1042,43 +1108,43 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>95</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>36</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I13">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.0035</v>
+        <v>0.005</v>
       </c>
       <c r="L13">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M13">
-        <v>0.925</v>
+        <v>0.7795275590551181</v>
       </c>
       <c r="N13">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1089,46 +1155,46 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I14">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M14">
-        <v>0.825</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="N14">
-        <v>0.3636363636363636</v>
+        <v>0.125</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1139,46 +1205,46 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I15">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="L15">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M15">
-        <v>0.925</v>
+        <v>0.8661417322834646</v>
       </c>
       <c r="N15">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1189,46 +1255,46 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D16">
+        <v>125</v>
+      </c>
+      <c r="E16">
+        <v>49</v>
+      </c>
+      <c r="F16">
+        <v>76</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
         <v>40</v>
       </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>36</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
       <c r="I16">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="L16">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.925</v>
+        <v>0.68</v>
       </c>
       <c r="N16">
-        <v>0.25</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1239,46 +1305,46 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F17">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="I17">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="L17">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M17">
-        <v>0.925</v>
+        <v>0.72</v>
       </c>
       <c r="N17">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1289,46 +1355,46 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F18">
+        <v>91</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
         <v>28</v>
       </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
       <c r="I18">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M18">
-        <v>0.8</v>
+        <v>0.776</v>
       </c>
       <c r="N18">
-        <v>0.3333333333333333</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1339,46 +1405,46 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>125</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>98</v>
+      </c>
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>33</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
       <c r="H19">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I19">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="L19">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M19">
-        <v>0.9</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="N19">
-        <v>0.4285714285714285</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1389,46 +1455,46 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D20">
+        <v>121</v>
+      </c>
+      <c r="E20">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
         <v>40</v>
       </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>35</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
       <c r="I20">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="L20">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9</v>
+        <v>0.6694214876033058</v>
       </c>
       <c r="N20">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1439,46 +1505,46 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B21">
+        <v>84</v>
+      </c>
+      <c r="C21">
         <v>37</v>
       </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
       <c r="D21">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I21">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="L21">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M21">
-        <v>0.925</v>
+        <v>0.6942148760330579</v>
       </c>
       <c r="N21">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1489,46 +1555,46 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I22">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M22">
-        <v>0.725</v>
+        <v>0.7438016528925619</v>
       </c>
       <c r="N22">
-        <v>0.2666666666666667</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1539,46 +1605,46 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>121</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>88</v>
+      </c>
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>31</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
       <c r="H23">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I23">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="L23">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M23">
-        <v>0.85</v>
+        <v>0.7768595041322314</v>
       </c>
       <c r="N23">
-        <v>0.3333333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1589,46 +1655,46 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D24">
+        <v>115</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
         <v>40</v>
       </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <v>33</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
       <c r="I24">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="L24">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.85</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="N24">
-        <v>0.1428571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1639,46 +1705,46 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>76</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>115</v>
+      </c>
+      <c r="E25">
+        <v>56</v>
+      </c>
+      <c r="F25">
+        <v>59</v>
+      </c>
+      <c r="G25">
         <v>17</v>
       </c>
-      <c r="B25">
-        <v>36</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>40</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>35</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I25">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="L25">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M25">
-        <v>0.9</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="N25">
-        <v>0.2</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1689,46 +1755,46 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>115</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>65</v>
+      </c>
+      <c r="G26">
         <v>15</v>
       </c>
-      <c r="B26">
-        <v>29</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>39</v>
-      </c>
-      <c r="E26">
-        <v>15</v>
-      </c>
-      <c r="F26">
-        <v>24</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
       <c r="H26">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I26">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M26">
-        <v>0.7435897435897436</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N26">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1739,46 +1805,46 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F27">
+        <v>78</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
         <v>29</v>
       </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>7</v>
-      </c>
       <c r="I27">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="L27">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M27">
-        <v>0.8205128205128205</v>
+        <v>0.7478260869565218</v>
       </c>
       <c r="N27">
-        <v>0.3</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1789,46 +1855,46 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="F28">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I28">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L28">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.8461538461538461</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="N28">
-        <v>0.1428571428571428</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1839,46 +1905,46 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B29">
+        <v>74</v>
+      </c>
+      <c r="C29">
         <v>35</v>
       </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
       <c r="D29">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F29">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I29">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L29">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M29">
-        <v>0.8974358974358975</v>
+        <v>0.6788990825688074</v>
       </c>
       <c r="N29">
-        <v>0.2</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1889,46 +1955,46 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F30">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I30">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M30">
-        <v>0.7105263157894737</v>
+        <v>0.7155963302752294</v>
       </c>
       <c r="N30">
-        <v>0.3125</v>
+        <v>0.38</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -1939,46 +2005,46 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E31">
+        <v>42</v>
+      </c>
+      <c r="F31">
+        <v>67</v>
+      </c>
+      <c r="G31">
         <v>12</v>
       </c>
-      <c r="F31">
-        <v>26</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
       <c r="H31">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I31">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L31">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M31">
-        <v>0.7631578947368421</v>
+        <v>0.7247706422018348</v>
       </c>
       <c r="N31">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -1989,46 +2055,46 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F32">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I32">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="L32">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0.7894736842105263</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="N32">
-        <v>0.1111111111111111</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2039,46 +2105,46 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F33">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>25</v>
+      </c>
+      <c r="H33">
         <v>31</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
-      </c>
       <c r="I33">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="L33">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M33">
-        <v>0.8421052631578947</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="N33">
-        <v>0.1428571428571428</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2089,46 +2155,46 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I34">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M34">
-        <v>0.631578947368421</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="N34">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2139,46 +2205,46 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F35">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I35">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="L35">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M35">
-        <v>0.6842105263157895</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="N35">
-        <v>0.25</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2189,46 +2255,46 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E36">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F36">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I36">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="L36">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.6842105263157895</v>
+        <v>0.6630434782608695</v>
       </c>
       <c r="N36">
-        <v>0.1428571428571428</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2239,46 +2305,46 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E37">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37">
         <v>26</v>
       </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
       <c r="H37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I37">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="L37">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M37">
-        <v>0.7368421052631579</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="N37">
-        <v>0.1666666666666667</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2289,46 +2355,46 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E38">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G38">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I38">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M38">
-        <v>0.7222222222222222</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N38">
-        <v>0.4736842105263158</v>
+        <v>0.44</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2339,46 +2405,46 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I39">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="L39">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M39">
-        <v>0.75</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N39">
-        <v>0.4375</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2389,46 +2455,46 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40">
         <v>22</v>
       </c>
-      <c r="G40">
-        <v>5</v>
-      </c>
       <c r="H40">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I40">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="L40">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0.75</v>
+        <v>0.6419753086419753</v>
       </c>
       <c r="N40">
-        <v>0.3571428571428572</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2439,46 +2505,46 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B41">
+        <v>53</v>
+      </c>
+      <c r="C41">
         <v>28</v>
       </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
       <c r="D41">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E41">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F41">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H41">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I41">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="L41">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M41">
-        <v>0.7777777777777778</v>
+        <v>0.654320987654321</v>
       </c>
       <c r="N41">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2489,46 +2555,46 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E42">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I42">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M42">
-        <v>0.7272727272727273</v>
+        <v>0.6790123456790124</v>
       </c>
       <c r="N42">
-        <v>0.5263157894736842</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2539,46 +2605,46 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E43">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I43">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="L43">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M43">
-        <v>0.7575757575757576</v>
+        <v>0.6790123456790124</v>
       </c>
       <c r="N43">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -2589,46 +2655,46 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>73</v>
+      </c>
+      <c r="E44">
+        <v>48</v>
+      </c>
+      <c r="F44">
         <v>25</v>
       </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>33</v>
-      </c>
-      <c r="E44">
-        <v>14</v>
-      </c>
-      <c r="F44">
-        <v>19</v>
-      </c>
       <c r="G44">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I44">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="L44">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0.7575757575757576</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="N44">
-        <v>0.4285714285714285</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2639,43 +2705,43 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <v>73</v>
+      </c>
+      <c r="E45">
+        <v>48</v>
+      </c>
+      <c r="F45">
+        <v>25</v>
+      </c>
+      <c r="G45">
         <v>20</v>
       </c>
-      <c r="B45">
-        <v>26</v>
-      </c>
-      <c r="C45">
-        <v>7</v>
-      </c>
-      <c r="D45">
-        <v>33</v>
-      </c>
-      <c r="E45">
-        <v>12</v>
-      </c>
-      <c r="F45">
-        <v>21</v>
-      </c>
-      <c r="G45">
-        <v>5</v>
-      </c>
       <c r="H45">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I45">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="L45">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M45">
-        <v>0.7878787878787878</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="N45">
         <v>0.4166666666666667</v>
@@ -2689,46 +2755,46 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B46">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E46">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F46">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G46">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I46">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M46">
-        <v>0.7575757575757576</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="N46">
-        <v>0.5789473684210527</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2739,46 +2805,46 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E47">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I47">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="L47">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M47">
-        <v>0.7575757575757576</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="N47">
-        <v>0.5294117647058824</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2789,46 +2855,46 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D48">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E48">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F48">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G48">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I48">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="L48">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>0.7575757575757576</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="N48">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2839,46 +2905,46 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E49">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H49">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="L49">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M49">
-        <v>0.7575757575757576</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="N49">
-        <v>0.4285714285714285</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2889,46 +2955,46 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E50">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F50">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G50">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H50">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I50">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M50">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="N50">
-        <v>0.5294117647058824</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -2939,46 +3005,46 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E51">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F51">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I51">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="L51">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M51">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="N51">
-        <v>0.5294117647058824</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -2989,46 +3055,46 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>28</v>
+      </c>
+      <c r="D52">
+        <v>64</v>
+      </c>
+      <c r="E52">
+        <v>47</v>
+      </c>
+      <c r="F52">
+        <v>17</v>
+      </c>
+      <c r="G52">
         <v>19</v>
       </c>
-      <c r="B52">
-        <v>20</v>
-      </c>
-      <c r="C52">
-        <v>8</v>
-      </c>
-      <c r="D52">
+      <c r="H52">
         <v>28</v>
       </c>
-      <c r="E52">
-        <v>15</v>
-      </c>
-      <c r="F52">
-        <v>13</v>
-      </c>
-      <c r="G52">
-        <v>7</v>
-      </c>
-      <c r="H52">
-        <v>8</v>
-      </c>
       <c r="I52">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="L52">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>0.7142857142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="N52">
-        <v>0.4666666666666667</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3039,46 +3105,46 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53">
+        <v>36</v>
+      </c>
+      <c r="C53">
+        <v>28</v>
+      </c>
+      <c r="D53">
+        <v>64</v>
+      </c>
+      <c r="E53">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <v>17</v>
+      </c>
+      <c r="G53">
         <v>19</v>
       </c>
-      <c r="B53">
-        <v>20</v>
-      </c>
-      <c r="C53">
-        <v>8</v>
-      </c>
-      <c r="D53">
+      <c r="H53">
         <v>28</v>
       </c>
-      <c r="E53">
-        <v>15</v>
-      </c>
-      <c r="F53">
-        <v>13</v>
-      </c>
-      <c r="G53">
-        <v>7</v>
-      </c>
-      <c r="H53">
-        <v>8</v>
-      </c>
       <c r="I53">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="L53">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M53">
-        <v>0.7142857142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="N53">
-        <v>0.4666666666666667</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3089,46 +3155,46 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E54">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I54">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M54">
-        <v>0.6956521739130435</v>
+        <v>0.59375</v>
       </c>
       <c r="N54">
-        <v>0.5333333333333333</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3139,46 +3205,46 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D55">
+        <v>64</v>
+      </c>
+      <c r="E55">
+        <v>41</v>
+      </c>
+      <c r="F55">
         <v>23</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>15</v>
       </c>
-      <c r="F55">
-        <v>8</v>
-      </c>
-      <c r="G55">
-        <v>8</v>
-      </c>
       <c r="H55">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I55">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="L55">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M55">
-        <v>0.6956521739130435</v>
+        <v>0.59375</v>
       </c>
       <c r="N55">
-        <v>0.5333333333333333</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3189,46 +3255,46 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D56">
+        <v>56</v>
+      </c>
+      <c r="E56">
+        <v>43</v>
+      </c>
+      <c r="F56">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>20</v>
+      </c>
+      <c r="H56">
         <v>23</v>
       </c>
-      <c r="E56">
+      <c r="I56">
         <v>13</v>
       </c>
-      <c r="F56">
-        <v>10</v>
-      </c>
-      <c r="G56">
-        <v>6</v>
-      </c>
-      <c r="H56">
-        <v>7</v>
-      </c>
-      <c r="I56">
-        <v>10</v>
-      </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="L56">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>0.6956521739130435</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="N56">
-        <v>0.4615384615384616</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3239,46 +3305,46 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>43</v>
+      </c>
+      <c r="F57">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>20</v>
+      </c>
+      <c r="H57">
         <v>23</v>
       </c>
-      <c r="E57">
+      <c r="I57">
         <v>13</v>
       </c>
-      <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="G57">
-        <v>6</v>
-      </c>
-      <c r="H57">
-        <v>7</v>
-      </c>
-      <c r="I57">
-        <v>10</v>
-      </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="L57">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M57">
-        <v>0.6956521739130435</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="N57">
-        <v>0.4615384615384616</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3289,43 +3355,43 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E58">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G58">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H58">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M58">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="N58">
         <v>0.4615384615384616</v>
@@ -3339,43 +3405,43 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E59">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I59">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="L59">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M59">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="N59">
         <v>0.4615384615384616</v>
@@ -3389,46 +3455,46 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E60">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="L60">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>0.65</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="N60">
-        <v>0.3636363636363636</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3439,46 +3505,46 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="L61">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M61">
-        <v>0.65</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="N61">
-        <v>0.3636363636363636</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -3489,46 +3555,46 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E62">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G62">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I62">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M62">
-        <v>0.6842105263157895</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="N62">
-        <v>0.5384615384615384</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -3539,46 +3605,46 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E63">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G63">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I63">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="L63">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M63">
-        <v>0.6842105263157895</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="N63">
-        <v>0.5384615384615384</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3589,46 +3655,46 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D64">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="L64">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>0.6842105263157895</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="N64">
-        <v>0.4545454545454545</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3639,46 +3705,46 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B65">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E65">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="L65">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M65">
-        <v>0.6842105263157895</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="N65">
-        <v>0.4545454545454545</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3689,46 +3755,46 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D66">
+        <v>47</v>
+      </c>
+      <c r="E66">
+        <v>37</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
         <v>17</v>
       </c>
-      <c r="E66">
-        <v>12</v>
-      </c>
-      <c r="F66">
-        <v>5</v>
-      </c>
-      <c r="G66">
-        <v>7</v>
-      </c>
       <c r="H66">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M66">
-        <v>0.7058823529411765</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="N66">
-        <v>0.5833333333333334</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3739,46 +3805,46 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D67">
+        <v>47</v>
+      </c>
+      <c r="E67">
+        <v>37</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
         <v>17</v>
       </c>
-      <c r="E67">
-        <v>12</v>
-      </c>
-      <c r="F67">
-        <v>5</v>
-      </c>
-      <c r="G67">
-        <v>7</v>
-      </c>
       <c r="H67">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="L67">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M67">
-        <v>0.7058823529411765</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="N67">
-        <v>0.5833333333333334</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -3789,46 +3855,46 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68">
+        <v>27</v>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>43</v>
+      </c>
+      <c r="E68">
+        <v>35</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68">
         <v>19</v>
       </c>
-      <c r="B68">
-        <v>12</v>
-      </c>
-      <c r="C68">
-        <v>5</v>
-      </c>
-      <c r="D68">
-        <v>17</v>
-      </c>
-      <c r="E68">
-        <v>10</v>
-      </c>
-      <c r="F68">
-        <v>7</v>
-      </c>
-      <c r="G68">
-        <v>5</v>
-      </c>
       <c r="H68">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="L68">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>0.7058823529411765</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="N68">
-        <v>0.5</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -3839,46 +3905,46 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>27</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>43</v>
+      </c>
+      <c r="E69">
+        <v>35</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69">
         <v>19</v>
       </c>
-      <c r="B69">
-        <v>12</v>
-      </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-      <c r="D69">
-        <v>17</v>
-      </c>
-      <c r="E69">
-        <v>10</v>
-      </c>
-      <c r="F69">
-        <v>7</v>
-      </c>
-      <c r="G69">
-        <v>5</v>
-      </c>
       <c r="H69">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="L69">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M69">
-        <v>0.7058823529411765</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="N69">
-        <v>0.5</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -3889,46 +3955,46 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>43</v>
+      </c>
+      <c r="E70">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70">
         <v>19</v>
       </c>
-      <c r="B70">
+      <c r="H70">
+        <v>15</v>
+      </c>
+      <c r="I70">
         <v>9</v>
       </c>
-      <c r="C70">
-        <v>5</v>
-      </c>
-      <c r="D70">
-        <v>14</v>
-      </c>
-      <c r="E70">
-        <v>11</v>
-      </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
-      <c r="G70">
-        <v>6</v>
-      </c>
-      <c r="H70">
-        <v>5</v>
-      </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M70">
-        <v>0.6428571428571429</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="N70">
-        <v>0.5454545454545454</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -3939,46 +4005,46 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71">
+        <v>28</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>43</v>
+      </c>
+      <c r="E71">
+        <v>34</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71">
         <v>19</v>
       </c>
-      <c r="B71">
+      <c r="H71">
+        <v>15</v>
+      </c>
+      <c r="I71">
         <v>9</v>
       </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-      <c r="D71">
-        <v>14</v>
-      </c>
-      <c r="E71">
-        <v>11</v>
-      </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
-      <c r="G71">
-        <v>6</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="L71">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M71">
-        <v>0.6428571428571429</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="N71">
-        <v>0.5454545454545454</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -3989,46 +4055,46 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D72">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="L72">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>0.6428571428571429</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="N72">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4039,46 +4105,46 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G73">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="L73">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M73">
-        <v>0.6428571428571429</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="N73">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4089,43 +4155,43 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E74">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G74">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M74">
-        <v>0.6428571428571429</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="N74">
         <v>0.5454545454545454</v>
@@ -4139,43 +4205,43 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E75">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="L75">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M75">
-        <v>0.6428571428571429</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="N75">
         <v>0.5454545454545454</v>
@@ -4189,46 +4255,46 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D76">
+        <v>38</v>
+      </c>
+      <c r="E76">
+        <v>32</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>18</v>
+      </c>
+      <c r="H76">
         <v>14</v>
       </c>
-      <c r="E76">
-        <v>10</v>
-      </c>
-      <c r="F76">
-        <v>4</v>
-      </c>
-      <c r="G76">
-        <v>5</v>
-      </c>
-      <c r="H76">
-        <v>5</v>
-      </c>
       <c r="I76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="L76">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>0.6428571428571429</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="N76">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4239,46 +4305,46 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D77">
+        <v>38</v>
+      </c>
+      <c r="E77">
+        <v>32</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>18</v>
+      </c>
+      <c r="H77">
         <v>14</v>
       </c>
-      <c r="E77">
-        <v>10</v>
-      </c>
-      <c r="F77">
-        <v>4</v>
-      </c>
-      <c r="G77">
-        <v>5</v>
-      </c>
-      <c r="H77">
-        <v>5</v>
-      </c>
       <c r="I77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="L77">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M77">
-        <v>0.6428571428571429</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="N77">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4289,46 +4355,46 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D78">
+        <v>38</v>
+      </c>
+      <c r="E78">
+        <v>31</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78">
+        <v>18</v>
+      </c>
+      <c r="H78">
         <v>13</v>
       </c>
-      <c r="E78">
-        <v>10</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="G78">
-        <v>6</v>
-      </c>
-      <c r="H78">
-        <v>4</v>
-      </c>
       <c r="I78">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M78">
-        <v>0.6923076923076923</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="N78">
-        <v>0.6</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4339,46 +4405,46 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D79">
+        <v>38</v>
+      </c>
+      <c r="E79">
+        <v>31</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>18</v>
+      </c>
+      <c r="H79">
         <v>13</v>
       </c>
-      <c r="E79">
-        <v>10</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-      <c r="G79">
-        <v>6</v>
-      </c>
-      <c r="H79">
-        <v>4</v>
-      </c>
       <c r="I79">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="L79">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M79">
-        <v>0.6923076923076923</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="N79">
-        <v>0.6</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4389,46 +4455,46 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D80">
+        <v>35</v>
+      </c>
+      <c r="E80">
+        <v>29</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>16</v>
+      </c>
+      <c r="H80">
         <v>13</v>
       </c>
-      <c r="E80">
-        <v>9</v>
-      </c>
-      <c r="F80">
-        <v>4</v>
-      </c>
-      <c r="G80">
-        <v>5</v>
-      </c>
-      <c r="H80">
-        <v>4</v>
-      </c>
       <c r="I80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="L80">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>0.6923076923076923</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="N80">
-        <v>0.5555555555555556</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -4439,51 +4505,2739 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B81">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>35</v>
+      </c>
+      <c r="E81">
+        <v>29</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>16</v>
+      </c>
+      <c r="H81">
+        <v>13</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0.022</v>
+      </c>
+      <c r="L81">
+        <v>0.001</v>
+      </c>
+      <c r="M81">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="N81">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82">
+        <v>23</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>35</v>
+      </c>
+      <c r="E82">
+        <v>28</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82">
+        <v>16</v>
+      </c>
+      <c r="H82">
+        <v>12</v>
+      </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0.022</v>
+      </c>
+      <c r="L82">
+        <v>0.002</v>
+      </c>
+      <c r="M82">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="N82">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83">
+        <v>23</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>35</v>
+      </c>
+      <c r="E83">
+        <v>28</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>12</v>
+      </c>
+      <c r="I83">
+        <v>7</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0.022</v>
+      </c>
+      <c r="L83">
+        <v>0.003</v>
+      </c>
+      <c r="M83">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="N83">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84">
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>28</v>
+      </c>
+      <c r="E84">
+        <v>25</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>14</v>
+      </c>
+      <c r="H84">
+        <v>11</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0.023</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="N84">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85">
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>28</v>
+      </c>
+      <c r="E85">
+        <v>25</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>14</v>
+      </c>
+      <c r="H85">
+        <v>11</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0.023</v>
+      </c>
+      <c r="L85">
+        <v>0.001</v>
+      </c>
+      <c r="M85">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="N85">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>28</v>
+      </c>
+      <c r="E86">
+        <v>24</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>14</v>
+      </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0.023</v>
+      </c>
+      <c r="L86">
+        <v>0.002</v>
+      </c>
+      <c r="M86">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="N86">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87">
+        <v>18</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>28</v>
+      </c>
+      <c r="E87">
+        <v>24</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>14</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0.023</v>
+      </c>
+      <c r="L87">
+        <v>0.003</v>
+      </c>
+      <c r="M87">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="N87">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>24</v>
+      </c>
+      <c r="E88">
+        <v>22</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>15</v>
+      </c>
+      <c r="H88">
+        <v>7</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0.024</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="N88">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>24</v>
+      </c>
+      <c r="E89">
+        <v>22</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>15</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0.024</v>
+      </c>
+      <c r="L89">
+        <v>0.001</v>
+      </c>
+      <c r="M89">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="N89">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90">
+        <v>18</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+      <c r="E90">
+        <v>21</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>15</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0.024</v>
+      </c>
+      <c r="L90">
+        <v>0.002</v>
+      </c>
+      <c r="M90">
+        <v>0.75</v>
+      </c>
+      <c r="N90">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91">
+        <v>18</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>24</v>
+      </c>
+      <c r="E91">
+        <v>21</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0.024</v>
+      </c>
+      <c r="L91">
+        <v>0.003</v>
+      </c>
+      <c r="M91">
+        <v>0.75</v>
+      </c>
+      <c r="N91">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>23</v>
+      </c>
+      <c r="E92">
+        <v>21</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>14</v>
+      </c>
+      <c r="H92">
+        <v>7</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0.025</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="N92">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>23</v>
+      </c>
+      <c r="E93">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>14</v>
+      </c>
+      <c r="H93">
+        <v>7</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0.025</v>
+      </c>
+      <c r="L93">
+        <v>0.001</v>
+      </c>
+      <c r="M93">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="N93">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>23</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>14</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0.025</v>
+      </c>
+      <c r="L94">
+        <v>0.002</v>
+      </c>
+      <c r="M94">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="N94">
+        <v>0.7</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>23</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>14</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0.025</v>
+      </c>
+      <c r="L95">
+        <v>0.003</v>
+      </c>
+      <c r="M95">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="N95">
+        <v>0.7</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>12</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0.026</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0.7</v>
+      </c>
+      <c r="N96">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>18</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>12</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0.026</v>
+      </c>
+      <c r="L97">
+        <v>0.001</v>
+      </c>
+      <c r="M97">
+        <v>0.7</v>
+      </c>
+      <c r="N97">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98">
+        <v>14</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>17</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>11</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0.026</v>
+      </c>
+      <c r="L98">
+        <v>0.002</v>
+      </c>
+      <c r="M98">
+        <v>0.7</v>
+      </c>
+      <c r="N98">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>11</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0.026</v>
+      </c>
+      <c r="L99">
+        <v>0.003</v>
+      </c>
+      <c r="M99">
+        <v>0.7</v>
+      </c>
+      <c r="N99">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>15</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>10</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0.027</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="N100">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>15</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>10</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0.027</v>
+      </c>
+      <c r="L101">
+        <v>0.001</v>
+      </c>
+      <c r="M101">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="N101">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>15</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>10</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0.027</v>
+      </c>
+      <c r="L102">
+        <v>0.002</v>
+      </c>
+      <c r="M102">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="N102">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>17</v>
+      </c>
+      <c r="E103">
+        <v>15</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0.027</v>
+      </c>
+      <c r="L103">
+        <v>0.003</v>
+      </c>
+      <c r="M103">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="N103">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>17</v>
+      </c>
+      <c r="E104">
+        <v>15</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>10</v>
+      </c>
+      <c r="H104">
+        <v>5</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0.028</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="N104">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0.028</v>
+      </c>
+      <c r="L105">
+        <v>0.001</v>
+      </c>
+      <c r="M105">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="N105">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>15</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>10</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0.028</v>
+      </c>
+      <c r="L106">
+        <v>0.002</v>
+      </c>
+      <c r="M106">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="N106">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>15</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>10</v>
+      </c>
+      <c r="H107">
+        <v>5</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0.028</v>
+      </c>
+      <c r="L107">
+        <v>0.003</v>
+      </c>
+      <c r="M107">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="N107">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>16</v>
+      </c>
+      <c r="E108">
+        <v>14</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
         <v>9</v>
       </c>
-      <c r="C81">
+      <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0.029</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0.6875</v>
+      </c>
+      <c r="N108">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>16</v>
+      </c>
+      <c r="E109">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0.029</v>
+      </c>
+      <c r="L109">
+        <v>0.001</v>
+      </c>
+      <c r="M109">
+        <v>0.6875</v>
+      </c>
+      <c r="N109">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>16</v>
+      </c>
+      <c r="E110">
+        <v>14</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>9</v>
+      </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0.029</v>
+      </c>
+      <c r="L110">
+        <v>0.002</v>
+      </c>
+      <c r="M110">
+        <v>0.6875</v>
+      </c>
+      <c r="N110">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>14</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>9</v>
+      </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0.029</v>
+      </c>
+      <c r="L111">
+        <v>0.003</v>
+      </c>
+      <c r="M111">
+        <v>0.6875</v>
+      </c>
+      <c r="N111">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
         <v>4</v>
       </c>
-      <c r="D81">
+      <c r="D112">
+        <v>14</v>
+      </c>
+      <c r="E112">
+        <v>12</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>8</v>
+      </c>
+      <c r="H112">
+        <v>4</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0.03</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N112">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>14</v>
+      </c>
+      <c r="E113">
+        <v>12</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>8</v>
+      </c>
+      <c r="H113">
+        <v>4</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0.03</v>
+      </c>
+      <c r="L113">
+        <v>0.001</v>
+      </c>
+      <c r="M113">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N113">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114">
+        <v>10</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>14</v>
+      </c>
+      <c r="E114">
+        <v>12</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>8</v>
+      </c>
+      <c r="H114">
+        <v>4</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0.03</v>
+      </c>
+      <c r="L114">
+        <v>0.002</v>
+      </c>
+      <c r="M114">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N114">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>14</v>
+      </c>
+      <c r="E115">
+        <v>12</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>8</v>
+      </c>
+      <c r="H115">
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0.03</v>
+      </c>
+      <c r="L115">
+        <v>0.003</v>
+      </c>
+      <c r="M115">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N115">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
         <v>13</v>
       </c>
-      <c r="E81">
+      <c r="E116">
+        <v>12</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>8</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0.031</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="N116">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117">
         <v>9</v>
       </c>
-      <c r="F81">
+      <c r="C117">
         <v>4</v>
       </c>
-      <c r="G81">
+      <c r="D117">
+        <v>13</v>
+      </c>
+      <c r="E117">
+        <v>12</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>8</v>
+      </c>
+      <c r="H117">
+        <v>4</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0.031</v>
+      </c>
+      <c r="L117">
+        <v>0.001</v>
+      </c>
+      <c r="M117">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="N117">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>13</v>
+      </c>
+      <c r="E118">
+        <v>12</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>8</v>
+      </c>
+      <c r="H118">
+        <v>4</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0.031</v>
+      </c>
+      <c r="L118">
+        <v>0.002</v>
+      </c>
+      <c r="M118">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="N118">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>13</v>
+      </c>
+      <c r="E119">
+        <v>12</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>8</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0.031</v>
+      </c>
+      <c r="L119">
+        <v>0.003</v>
+      </c>
+      <c r="M119">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="N119">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>6</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0.032</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="N120">
+        <v>0.6</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>11</v>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>6</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0.032</v>
+      </c>
+      <c r="L121">
+        <v>0.001</v>
+      </c>
+      <c r="M121">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="N121">
+        <v>0.6</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>11</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>6</v>
+      </c>
+      <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0.032</v>
+      </c>
+      <c r="L122">
+        <v>0.002</v>
+      </c>
+      <c r="M122">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="N122">
+        <v>0.6</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>11</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>6</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0.032</v>
+      </c>
+      <c r="L123">
+        <v>0.003</v>
+      </c>
+      <c r="M123">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="N123">
+        <v>0.6</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>9</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
         <v>5</v>
       </c>
-      <c r="H81">
+      <c r="H124">
         <v>4</v>
       </c>
-      <c r="I81">
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0.033</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0.6</v>
+      </c>
+      <c r="N124">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125">
+        <v>6</v>
+      </c>
+      <c r="C125">
         <v>4</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0.02</v>
-      </c>
-      <c r="L81">
+      <c r="D125">
+        <v>10</v>
+      </c>
+      <c r="E125">
+        <v>9</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0.033</v>
+      </c>
+      <c r="L125">
+        <v>0.001</v>
+      </c>
+      <c r="M125">
+        <v>0.6</v>
+      </c>
+      <c r="N125">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126">
+        <v>9</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>5</v>
+      </c>
+      <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0.033</v>
+      </c>
+      <c r="L126">
+        <v>0.002</v>
+      </c>
+      <c r="M126">
+        <v>0.6</v>
+      </c>
+      <c r="N126">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>9</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>5</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0.033</v>
+      </c>
+      <c r="L127">
         <v>0.003</v>
       </c>
-      <c r="M81">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="N81">
+      <c r="M127">
+        <v>0.6</v>
+      </c>
+      <c r="N127">
         <v>0.5555555555555556</v>
       </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>5</v>
+      </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0.034</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N128">
+        <v>0.625</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>9</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0.034</v>
+      </c>
+      <c r="L129">
+        <v>0.001</v>
+      </c>
+      <c r="M129">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N129">
+        <v>0.625</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>8</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>5</v>
+      </c>
+      <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0.034</v>
+      </c>
+      <c r="L130">
+        <v>0.002</v>
+      </c>
+      <c r="M130">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N130">
+        <v>0.625</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>8</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>5</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0.034</v>
+      </c>
+      <c r="L131">
+        <v>0.003</v>
+      </c>
+      <c r="M131">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N131">
+        <v>0.625</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>6</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>4</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0.035</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N132">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>6</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>4</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0.035</v>
+      </c>
+      <c r="L133">
+        <v>0.001</v>
+      </c>
+      <c r="M133">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N133">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>4</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0.035</v>
+      </c>
+      <c r="L134">
+        <v>0.002</v>
+      </c>
+      <c r="M134">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N134">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>6</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>4</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0.035</v>
+      </c>
+      <c r="L135">
+        <v>0.003</v>
+      </c>
+      <c r="M135">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N135">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="P135">
         <v>1</v>
       </c>
     </row>

--- a/tmp_grid_res.xlsx
+++ b/tmp_grid_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="28">
   <si>
     <t>win</t>
   </si>
@@ -61,88 +61,43 @@
     <t>close by time lose/lose</t>
   </si>
   <si>
-    <t>2021-12-14 09:30:00 -&gt; 2022-06-28 09:33:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:44:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:30:00 -&gt; 2022-06-28 09:31:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:35:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:58:00 -&gt; 2022-06-28 09:33:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:34:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:58:00 -&gt; 2022-06-28 09:31:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:43:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:59:00 -&gt; 2022-06-28 10:09:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:59:00 -&gt; 2022-06-28 10:01:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 13:42:00</t>
   </si>
   <si>
-    <t>2021-12-14 13:28:00 -&gt; 2022-06-28 10:09:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-20 14:25:00</t>
   </si>
   <si>
-    <t>2021-12-14 13:28:00 -&gt; 2022-06-28 10:01:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-20 14:21:00</t>
   </si>
   <si>
-    <t>2021-12-14 13:33:00 -&gt; 2022-06-28 15:00:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-13 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 13:37:00 -&gt; 2022-06-28 15:00:00</t>
+    <t>2022-04-29 09:30:00 -&gt; 2022-06-10 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 14:46:00 -&gt; 2022-06-28 15:00:00</t>
+    <t>2022-04-29 11:06:00 -&gt; 2022-06-10 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-15 10:04:00 -&gt; 2022-06-27 15:00:00</t>
+    <t>2022-04-29 11:12:00 -&gt; 2022-06-10 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-15 10:09:00 -&gt; 2022-06-27 15:00:00</t>
-  </si>
-  <si>
-    <t>2021-12-15 10:15:00 -&gt; 2022-06-24 15:00:00</t>
-  </si>
-  <si>
-    <t>2021-12-15 11:01:00 -&gt; 2022-06-24 15:00:00</t>
-  </si>
-  <si>
-    <t>2021-12-15 11:19:00 -&gt; 2022-06-24 15:00:00</t>
-  </si>
-  <si>
-    <t>2021-12-16 14:05:00 -&gt; 2022-06-24 15:00:00</t>
-  </si>
-  <si>
-    <t>2021-12-16 14:09:00 -&gt; 2022-06-24 15:00:00</t>
-  </si>
-  <si>
-    <t>2021-12-21 14:52:00 -&gt; 2022-06-24 15:00:00</t>
-  </si>
-  <si>
-    <t>2021-12-23 13:00:00 -&gt; 2022-06-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-18 10:36:00 -&gt; 2022-06-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-24 14:43:00 -&gt; 2022-06-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28 10:17:00 -&gt; 2022-06-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28 10:22:00 -&gt; 2022-06-15 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28 10:23:00 -&gt; 2022-06-15 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28 10:23:00 -&gt; 2022-05-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28 10:24:00 -&gt; 2022-05-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-02-14 14:30:00 -&gt; 2022-04-26 15:00:00</t>
+    <t>2022-04-29 11:15:00 -&gt; 2022-06-10 15:00:00</t>
   </si>
 </sst>
 </file>
@@ -558,31 +513,31 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0.001</v>
@@ -591,16 +546,16 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8217054263565892</v>
+        <v>0.875</v>
       </c>
       <c r="N2">
-        <v>0.12</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O2">
-        <v>0.9903846153846154</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -608,28 +563,28 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -641,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7829457364341085</v>
+        <v>0.85</v>
       </c>
       <c r="N3">
-        <v>0.09677419354838709</v>
+        <v>0.4</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -655,31 +610,31 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -691,16 +646,16 @@
         <v>0.001</v>
       </c>
       <c r="M4">
-        <v>0.8527131782945736</v>
+        <v>0.9</v>
       </c>
       <c r="N4">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="O4">
-        <v>0.9907407407407407</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="P4">
-        <v>0.9473684210526315</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -708,28 +663,28 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>129</v>
-      </c>
-      <c r="E5">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>96</v>
-      </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
         <v>30</v>
-      </c>
-      <c r="I5">
-        <v>96</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -741,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7674418604651163</v>
+        <v>0.85</v>
       </c>
       <c r="N5">
-        <v>0.09090909090909091</v>
+        <v>0.4</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -755,31 +710,31 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -791,10 +746,10 @@
         <v>0.001</v>
       </c>
       <c r="M6">
-        <v>0.8449612403100775</v>
+        <v>0.925</v>
       </c>
       <c r="N6">
-        <v>0.1304347826086956</v>
+        <v>0.5</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -805,34 +760,34 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>0.003</v>
@@ -841,16 +796,16 @@
         <v>0.002</v>
       </c>
       <c r="M7">
-        <v>0.875968992248062</v>
+        <v>0.875</v>
       </c>
       <c r="N7">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="O7">
-        <v>0.9652173913043478</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="P7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -858,28 +813,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -891,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7364341085271318</v>
+        <v>0.825</v>
       </c>
       <c r="N8">
-        <v>0.08108108108108109</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -905,31 +860,31 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -941,10 +896,10 @@
         <v>0.001</v>
       </c>
       <c r="M9">
-        <v>0.8062015503875969</v>
+        <v>0.925</v>
       </c>
       <c r="N9">
-        <v>0.1071428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -955,31 +910,31 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -991,10 +946,10 @@
         <v>0.002</v>
       </c>
       <c r="M10">
-        <v>0.8604651162790697</v>
+        <v>0.925</v>
       </c>
       <c r="N10">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1005,34 +960,34 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0.004</v>
@@ -1041,45 +996,45 @@
         <v>0.003</v>
       </c>
       <c r="M11">
-        <v>0.8217054263565892</v>
+        <v>0.925</v>
       </c>
       <c r="N11">
-        <v>0.1176470588235294</v>
+        <v>0.25</v>
       </c>
       <c r="O11">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0.6521739130434783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1091,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7086614173228346</v>
+        <v>0.8</v>
       </c>
       <c r="N12">
-        <v>0.119047619047619</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1105,31 +1060,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="H13">
-        <v>28</v>
-      </c>
       <c r="I13">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1141,10 +1096,10 @@
         <v>0.001</v>
       </c>
       <c r="M13">
-        <v>0.7795275590551181</v>
+        <v>0.9</v>
       </c>
       <c r="N13">
-        <v>0.125</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1155,31 +1110,31 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1191,10 +1146,10 @@
         <v>0.002</v>
       </c>
       <c r="M14">
-        <v>0.8346456692913385</v>
+        <v>0.9</v>
       </c>
       <c r="N14">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1205,31 +1160,31 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1241,10 +1196,10 @@
         <v>0.003</v>
       </c>
       <c r="M15">
-        <v>0.8661417322834646</v>
+        <v>0.925</v>
       </c>
       <c r="N15">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1255,31 +1210,31 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
         <v>40</v>
       </c>
-      <c r="D16">
-        <v>125</v>
-      </c>
       <c r="E16">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1291,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.68</v>
+        <v>0.725</v>
       </c>
       <c r="N16">
-        <v>0.1836734693877551</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1305,31 +1260,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1341,10 +1296,10 @@
         <v>0.001</v>
       </c>
       <c r="M17">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="N17">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1355,31 +1310,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1391,10 +1346,10 @@
         <v>0.002</v>
       </c>
       <c r="M18">
-        <v>0.776</v>
+        <v>0.85</v>
       </c>
       <c r="N18">
-        <v>0.1764705882352941</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1405,31 +1360,31 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>4</v>
       </c>
-      <c r="H19">
-        <v>23</v>
-      </c>
       <c r="I19">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1441,10 +1396,10 @@
         <v>0.003</v>
       </c>
       <c r="M19">
-        <v>0.8159999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="N19">
-        <v>0.1481481481481481</v>
+        <v>0.2</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1455,31 +1410,31 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G20">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1491,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6694214876033058</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="N20">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1505,31 +1460,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1541,10 +1496,10 @@
         <v>0.001</v>
       </c>
       <c r="M21">
-        <v>0.6942148760330579</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="N21">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1555,31 +1510,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="E22">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1591,10 +1546,10 @@
         <v>0.002</v>
       </c>
       <c r="M22">
-        <v>0.7438016528925619</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="N22">
-        <v>0.2439024390243902</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1605,31 +1560,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1641,10 +1596,10 @@
         <v>0.003</v>
       </c>
       <c r="M23">
-        <v>0.7768595041322314</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="N23">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1655,31 +1610,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I24">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1691,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6521739130434783</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="N24">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1705,31 +1660,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E25">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F25">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G25">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I25">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1741,10 +1696,10 @@
         <v>0.001</v>
       </c>
       <c r="M25">
-        <v>0.6608695652173913</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="N25">
-        <v>0.3035714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1755,31 +1710,31 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I26">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1791,10 +1746,10 @@
         <v>0.002</v>
       </c>
       <c r="M26">
-        <v>0.6956521739130435</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="N26">
-        <v>0.3</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1805,31 +1760,31 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E27">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1841,10 +1796,10 @@
         <v>0.003</v>
       </c>
       <c r="M27">
-        <v>0.7478260869565218</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="N27">
-        <v>0.2162162162162162</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1855,31 +1810,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
         <v>24</v>
       </c>
-      <c r="B28">
-        <v>73</v>
-      </c>
       <c r="C28">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="E28">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F28">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G28">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I28">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1891,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.6697247706422018</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="N28">
-        <v>0.4098360655737705</v>
+        <v>0.3</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1905,31 +1860,31 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="E29">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F29">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29">
         <v>22</v>
-      </c>
-      <c r="H29">
-        <v>35</v>
-      </c>
-      <c r="I29">
-        <v>52</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1941,10 +1896,10 @@
         <v>0.001</v>
       </c>
       <c r="M29">
-        <v>0.6788990825688074</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N29">
-        <v>0.3859649122807017</v>
+        <v>0.25</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1955,31 +1910,31 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
         <v>24</v>
       </c>
-      <c r="B30">
-        <v>78</v>
-      </c>
-      <c r="C30">
-        <v>31</v>
-      </c>
-      <c r="D30">
-        <v>109</v>
-      </c>
-      <c r="E30">
-        <v>50</v>
-      </c>
-      <c r="F30">
-        <v>59</v>
-      </c>
       <c r="G30">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I30">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1991,10 +1946,10 @@
         <v>0.002</v>
       </c>
       <c r="M30">
-        <v>0.7155963302752294</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N30">
-        <v>0.38</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2005,31 +1960,31 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2041,10 +1996,10 @@
         <v>0.003</v>
       </c>
       <c r="M31">
-        <v>0.7247706422018348</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="N31">
-        <v>0.2857142857142857</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2055,31 +2010,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F32">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G32">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2091,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.6767676767676768</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="N32">
-        <v>0.4576271186440678</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2105,31 +2060,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F33">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H33">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I33">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2141,10 +2096,10 @@
         <v>0.001</v>
       </c>
       <c r="M33">
-        <v>0.6868686868686869</v>
+        <v>0.75</v>
       </c>
       <c r="N33">
-        <v>0.4464285714285715</v>
+        <v>0.4375</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2155,31 +2110,31 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F34">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I34">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2191,10 +2146,10 @@
         <v>0.002</v>
       </c>
       <c r="M34">
-        <v>0.7070707070707071</v>
+        <v>0.75</v>
       </c>
       <c r="N34">
-        <v>0.42</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2205,31 +2160,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E35">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F35">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="G35">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I35">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2241,10 +2196,10 @@
         <v>0.003</v>
       </c>
       <c r="M35">
-        <v>0.7070707070707071</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N35">
-        <v>0.3409090909090909</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2255,31 +2210,31 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="E36">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F36">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G36">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H36">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I36">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2291,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.6630434782608695</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N36">
-        <v>0.4655172413793103</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2305,31 +2260,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
         <v>25</v>
       </c>
-      <c r="B37">
-        <v>62</v>
-      </c>
       <c r="C37">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="E37">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G37">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2341,10 +2296,10 @@
         <v>0.001</v>
       </c>
       <c r="M37">
-        <v>0.6739130434782609</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N37">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2355,31 +2310,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
         <v>25</v>
       </c>
-      <c r="B38">
-        <v>64</v>
-      </c>
       <c r="C38">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F38">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G38">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I38">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2391,10 +2346,10 @@
         <v>0.002</v>
       </c>
       <c r="M38">
-        <v>0.6956521739130435</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N38">
-        <v>0.44</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2405,31 +2360,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="E39">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F39">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G39">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I39">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2441,10 +2396,10 @@
         <v>0.003</v>
       </c>
       <c r="M39">
-        <v>0.6956521739130435</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="N39">
-        <v>0.3777777777777778</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2455,31 +2410,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B40">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G40">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H40">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I40">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2491,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.6419753086419753</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N40">
-        <v>0.4313725490196079</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2505,31 +2460,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G41">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H41">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I41">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2541,10 +2496,10 @@
         <v>0.001</v>
       </c>
       <c r="M41">
-        <v>0.654320987654321</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N41">
-        <v>0.4285714285714285</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2555,31 +2510,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
         <v>18</v>
-      </c>
-      <c r="H42">
-        <v>26</v>
-      </c>
-      <c r="I42">
-        <v>37</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2591,10 +2546,10 @@
         <v>0.002</v>
       </c>
       <c r="M42">
-        <v>0.6790123456790124</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N42">
-        <v>0.4090909090909091</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2605,31 +2560,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F43">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G43">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I43">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2641,10 +2596,10 @@
         <v>0.003</v>
       </c>
       <c r="M43">
-        <v>0.6790123456790124</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N43">
-        <v>0.35</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -2655,31 +2610,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
         <v>28</v>
       </c>
-      <c r="D44">
-        <v>73</v>
-      </c>
       <c r="E44">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F44">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H44">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I44">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2691,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.6164383561643836</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N44">
-        <v>0.4166666666666667</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2705,31 +2660,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
         <v>28</v>
       </c>
-      <c r="D45">
-        <v>73</v>
-      </c>
       <c r="E45">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F45">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G45">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H45">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I45">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2741,10 +2696,10 @@
         <v>0.001</v>
       </c>
       <c r="M45">
-        <v>0.6164383561643836</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N45">
-        <v>0.4166666666666667</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -2755,31 +2710,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B46">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E46">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F46">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G46">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H46">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I46">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2791,10 +2746,10 @@
         <v>0.002</v>
       </c>
       <c r="M46">
-        <v>0.6438356164383562</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N46">
-        <v>0.4090909090909091</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2805,31 +2760,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B47">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E47">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G47">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H47">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I47">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2841,10 +2796,10 @@
         <v>0.003</v>
       </c>
       <c r="M47">
-        <v>0.6438356164383562</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N47">
-        <v>0.3658536585365854</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2855,31 +2810,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B48">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E48">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G48">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H48">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I48">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2891,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.5692307692307692</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N48">
-        <v>0.3777777777777778</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2905,31 +2860,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G49">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H49">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I49">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2941,10 +2896,10 @@
         <v>0.001</v>
       </c>
       <c r="M49">
-        <v>0.5692307692307692</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N49">
-        <v>0.3777777777777778</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2955,31 +2910,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F50">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H50">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I50">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2991,10 +2946,10 @@
         <v>0.002</v>
       </c>
       <c r="M50">
-        <v>0.6</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N50">
-        <v>0.3658536585365854</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -3005,31 +2960,31 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D51">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E51">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F51">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G51">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H51">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I51">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3041,10 +2996,10 @@
         <v>0.003</v>
       </c>
       <c r="M51">
-        <v>0.6</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N51">
-        <v>0.3333333333333333</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3055,31 +3010,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F52">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H52">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I52">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3091,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.5625</v>
+        <v>0.65</v>
       </c>
       <c r="N52">
-        <v>0.4042553191489361</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3105,31 +3060,31 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G53">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H53">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I53">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3141,10 +3096,10 @@
         <v>0.001</v>
       </c>
       <c r="M53">
-        <v>0.5625</v>
+        <v>0.65</v>
       </c>
       <c r="N53">
-        <v>0.4042553191489361</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3155,31 +3110,31 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F54">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G54">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I54">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3191,10 +3146,10 @@
         <v>0.002</v>
       </c>
       <c r="M54">
-        <v>0.59375</v>
+        <v>0.65</v>
       </c>
       <c r="N54">
-        <v>0.3953488372093023</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3205,31 +3160,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E55">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F55">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G55">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3241,10 +3196,10 @@
         <v>0.003</v>
       </c>
       <c r="M55">
-        <v>0.59375</v>
+        <v>0.65</v>
       </c>
       <c r="N55">
-        <v>0.3658536585365854</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3255,31 +3210,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H56">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I56">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3291,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.5892857142857143</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N56">
-        <v>0.4651162790697674</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3305,31 +3260,31 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B57">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E57">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F57">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H57">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I57">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3341,10 +3296,10 @@
         <v>0.001</v>
       </c>
       <c r="M57">
-        <v>0.5892857142857143</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N57">
-        <v>0.4651162790697674</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3355,31 +3310,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F58">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G58">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I58">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3391,10 +3346,10 @@
         <v>0.002</v>
       </c>
       <c r="M58">
-        <v>0.625</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N58">
-        <v>0.4615384615384616</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3405,31 +3360,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E59">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F59">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G59">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I59">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3441,10 +3396,10 @@
         <v>0.003</v>
       </c>
       <c r="M59">
-        <v>0.625</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N59">
-        <v>0.4615384615384616</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -3455,31 +3410,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H60">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3491,10 +3446,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.5510204081632653</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N60">
-        <v>0.4358974358974359</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3505,31 +3460,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E61">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H61">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3541,10 +3496,10 @@
         <v>0.001</v>
       </c>
       <c r="M61">
-        <v>0.5510204081632653</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N61">
-        <v>0.4358974358974359</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -3555,31 +3510,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B62">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G62">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H62">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I62">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3591,10 +3546,10 @@
         <v>0.002</v>
       </c>
       <c r="M62">
-        <v>0.5918367346938775</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N62">
-        <v>0.4594594594594595</v>
+        <v>0.5</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -3605,31 +3560,31 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B63">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E63">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G63">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H63">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3641,10 +3596,10 @@
         <v>0.003</v>
       </c>
       <c r="M63">
-        <v>0.5918367346938775</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N63">
-        <v>0.4594594594594595</v>
+        <v>0.5</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3655,31 +3610,31 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G64">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H64">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I64">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3691,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.5531914893617021</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N64">
-        <v>0.4473684210526316</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3705,31 +3660,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B65">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3741,10 +3696,10 @@
         <v>0.001</v>
       </c>
       <c r="M65">
-        <v>0.5531914893617021</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N65">
-        <v>0.4473684210526316</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3755,31 +3710,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B66">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3791,10 +3746,10 @@
         <v>0.002</v>
       </c>
       <c r="M66">
-        <v>0.574468085106383</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N66">
-        <v>0.4594594594594595</v>
+        <v>0.5</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3805,31 +3760,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E67">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3841,10 +3796,10 @@
         <v>0.003</v>
       </c>
       <c r="M67">
-        <v>0.574468085106383</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N67">
-        <v>0.4594594594594595</v>
+        <v>0.5</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -3855,31 +3810,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E68">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H68">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3891,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.6279069767441861</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N68">
-        <v>0.5428571428571428</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -3905,31 +3860,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G69">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H69">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3941,10 +3896,10 @@
         <v>0.001</v>
       </c>
       <c r="M69">
-        <v>0.6279069767441861</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N69">
-        <v>0.5428571428571428</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -3955,31 +3910,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E70">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H70">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3991,10 +3946,10 @@
         <v>0.002</v>
       </c>
       <c r="M70">
-        <v>0.6511627906976745</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N70">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -4005,31 +3960,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G71">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H71">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4041,10 +3996,10 @@
         <v>0.003</v>
       </c>
       <c r="M71">
-        <v>0.6511627906976745</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N71">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4055,31 +4010,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E72">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G72">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H72">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4091,10 +4046,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.6097560975609756</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N72">
-        <v>0.5294117647058824</v>
+        <v>0.6</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4105,31 +4060,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E73">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G73">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H73">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4141,10 +4096,10 @@
         <v>0.001</v>
       </c>
       <c r="M73">
-        <v>0.6097560975609756</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N73">
-        <v>0.5294117647058824</v>
+        <v>0.6</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4155,31 +4110,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E74">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G74">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H74">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4191,10 +4146,10 @@
         <v>0.002</v>
       </c>
       <c r="M74">
-        <v>0.6341463414634146</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N74">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4205,31 +4160,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E75">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G75">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I75">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4241,10 +4196,10 @@
         <v>0.003</v>
       </c>
       <c r="M75">
-        <v>0.6341463414634146</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N75">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4255,31 +4210,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B76">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H76">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4291,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.631578947368421</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N76">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4305,31 +4260,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B77">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E77">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G77">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H77">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4341,10 +4296,10 @@
         <v>0.001</v>
       </c>
       <c r="M77">
-        <v>0.631578947368421</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N77">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4355,31 +4310,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G78">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H78">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4391,10 +4346,10 @@
         <v>0.002</v>
       </c>
       <c r="M78">
-        <v>0.6578947368421053</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N78">
-        <v>0.5806451612903226</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4405,31 +4360,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B79">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E79">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G79">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H79">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4441,10 +4396,10 @@
         <v>0.003</v>
       </c>
       <c r="M79">
-        <v>0.6578947368421053</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N79">
-        <v>0.5806451612903226</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4455,31 +4410,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H80">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4491,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.6285714285714286</v>
+        <v>0.9</v>
       </c>
       <c r="N80">
-        <v>0.5517241379310345</v>
+        <v>0.875</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -4505,31 +4460,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H81">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4541,10 +4496,10 @@
         <v>0.001</v>
       </c>
       <c r="M81">
-        <v>0.6285714285714286</v>
+        <v>0.9</v>
       </c>
       <c r="N81">
-        <v>0.5517241379310345</v>
+        <v>0.875</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -4555,31 +4510,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G82">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H82">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4591,10 +4546,10 @@
         <v>0.002</v>
       </c>
       <c r="M82">
-        <v>0.6571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="N82">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -4605,31 +4560,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H83">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4641,10 +4596,10 @@
         <v>0.003</v>
       </c>
       <c r="M83">
-        <v>0.6571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="N83">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -4655,31 +4610,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H84">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4691,45 +4646,42 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.6071428571428571</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="P84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B85">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C85">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H85">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4741,45 +4693,42 @@
         <v>0.001</v>
       </c>
       <c r="M85">
-        <v>0.6071428571428571</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B86">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4791,45 +4740,42 @@
         <v>0.002</v>
       </c>
       <c r="M86">
-        <v>0.6428571428571429</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>1</v>
-      </c>
-      <c r="P86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B87">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E87">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G87">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4841,42 +4787,39 @@
         <v>0.003</v>
       </c>
       <c r="M87">
-        <v>0.6428571428571429</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="P87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B88">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88">
         <v>7</v>
       </c>
-      <c r="D88">
-        <v>24</v>
-      </c>
-      <c r="E88">
-        <v>22</v>
-      </c>
       <c r="F88">
         <v>2</v>
       </c>
       <c r="G88">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>2</v>
@@ -4891,42 +4834,39 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.7083333333333334</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B89">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89">
         <v>7</v>
       </c>
-      <c r="D89">
-        <v>24</v>
-      </c>
-      <c r="E89">
-        <v>22</v>
-      </c>
       <c r="F89">
         <v>2</v>
       </c>
       <c r="G89">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -4941,42 +4881,39 @@
         <v>0.001</v>
       </c>
       <c r="M89">
-        <v>0.7083333333333334</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B90">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F90">
         <v>3</v>
       </c>
       <c r="G90">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H90">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>3</v>
@@ -4991,42 +4928,39 @@
         <v>0.002</v>
       </c>
       <c r="M90">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B91">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E91">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="G91">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>3</v>
@@ -5041,42 +4975,39 @@
         <v>0.003</v>
       </c>
       <c r="M91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B92">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
       <c r="G92">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -5091,42 +5022,39 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.6956521739130435</v>
+        <v>1</v>
       </c>
       <c r="N92">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B93">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E93">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F93">
         <v>2</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H93">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -5141,42 +5069,39 @@
         <v>0.001</v>
       </c>
       <c r="M93">
-        <v>0.6956521739130435</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="P93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B94">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F94">
         <v>3</v>
       </c>
       <c r="G94">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H94">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>3</v>
@@ -5191,42 +5116,39 @@
         <v>0.002</v>
       </c>
       <c r="M94">
-        <v>0.7391304347826086</v>
+        <v>1</v>
       </c>
       <c r="N94">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B95">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F95">
         <v>3</v>
       </c>
       <c r="G95">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>3</v>
@@ -5241,42 +5163,39 @@
         <v>0.003</v>
       </c>
       <c r="M95">
-        <v>0.7391304347826086</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>1</v>
-      </c>
-      <c r="P95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F96">
         <v>2</v>
       </c>
       <c r="G96">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -5291,42 +5210,39 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N96">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O96">
         <v>1</v>
       </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E97">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F97">
         <v>2</v>
       </c>
       <c r="G97">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H97">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -5341,42 +5257,39 @@
         <v>0.001</v>
       </c>
       <c r="M97">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N97">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O97">
         <v>1</v>
       </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B98">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F98">
         <v>3</v>
       </c>
       <c r="G98">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -5391,42 +5304,39 @@
         <v>0.002</v>
       </c>
       <c r="M98">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N98">
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="O98">
         <v>1</v>
       </c>
-      <c r="P98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B99">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F99">
         <v>3</v>
       </c>
       <c r="G99">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H99">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>3</v>
@@ -5441,42 +5351,39 @@
         <v>0.003</v>
       </c>
       <c r="M99">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="O99">
         <v>1</v>
       </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F100">
         <v>2</v>
       </c>
       <c r="G100">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -5491,42 +5398,39 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O100">
         <v>1</v>
       </c>
-      <c r="P100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F101">
         <v>2</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -5541,42 +5445,39 @@
         <v>0.001</v>
       </c>
       <c r="M101">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="N101">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O101">
         <v>1</v>
       </c>
-      <c r="P101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B102">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E102">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F102">
         <v>2</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>2</v>
@@ -5591,42 +5492,39 @@
         <v>0.002</v>
       </c>
       <c r="M102">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="N102">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O102">
         <v>1</v>
       </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E103">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F103">
         <v>2</v>
       </c>
       <c r="G103">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>2</v>
@@ -5641,42 +5539,39 @@
         <v>0.003</v>
       </c>
       <c r="M103">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="N103">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O103">
         <v>1</v>
       </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B104">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E104">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F104">
         <v>2</v>
       </c>
       <c r="G104">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>2</v>
@@ -5691,42 +5586,39 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="N104">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O104">
         <v>1</v>
       </c>
-      <c r="P104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16">
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B105">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F105">
         <v>2</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -5741,42 +5633,39 @@
         <v>0.001</v>
       </c>
       <c r="M105">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="N105">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O105">
         <v>1</v>
       </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16">
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B106">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E106">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F106">
         <v>2</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -5791,42 +5680,39 @@
         <v>0.002</v>
       </c>
       <c r="M106">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="N106">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O106">
         <v>1</v>
       </c>
-      <c r="P106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16">
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F107">
         <v>2</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
@@ -5841,42 +5727,39 @@
         <v>0.003</v>
       </c>
       <c r="M107">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="N107">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O107">
         <v>1</v>
       </c>
-      <c r="P107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16">
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F108">
         <v>2</v>
       </c>
       <c r="G108">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -5891,42 +5774,39 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.6875</v>
+        <v>1</v>
       </c>
       <c r="N108">
-        <v>0.6428571428571429</v>
+        <v>1</v>
       </c>
       <c r="O108">
         <v>1</v>
       </c>
-      <c r="P108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16">
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F109">
         <v>2</v>
       </c>
       <c r="G109">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>2</v>
@@ -5941,42 +5821,39 @@
         <v>0.001</v>
       </c>
       <c r="M109">
-        <v>0.6875</v>
+        <v>1</v>
       </c>
       <c r="N109">
-        <v>0.6428571428571429</v>
+        <v>1</v>
       </c>
       <c r="O109">
         <v>1</v>
       </c>
-      <c r="P109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B110">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F110">
         <v>2</v>
       </c>
       <c r="G110">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -5991,42 +5868,39 @@
         <v>0.002</v>
       </c>
       <c r="M110">
-        <v>0.6875</v>
+        <v>1</v>
       </c>
       <c r="N110">
-        <v>0.6428571428571429</v>
+        <v>1</v>
       </c>
       <c r="O110">
         <v>1</v>
       </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B111">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F111">
         <v>2</v>
       </c>
       <c r="G111">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -6041,42 +5915,39 @@
         <v>0.003</v>
       </c>
       <c r="M111">
-        <v>0.6875</v>
+        <v>1</v>
       </c>
       <c r="N111">
-        <v>0.6428571428571429</v>
+        <v>1</v>
       </c>
       <c r="O111">
         <v>1</v>
       </c>
-      <c r="P111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16">
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E112">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F112">
         <v>2</v>
       </c>
       <c r="G112">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>2</v>
@@ -6091,42 +5962,39 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="N112">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O112">
         <v>1</v>
       </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16">
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F113">
         <v>2</v>
       </c>
       <c r="G113">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -6141,42 +6009,39 @@
         <v>0.001</v>
       </c>
       <c r="M113">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="N113">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O113">
         <v>1</v>
       </c>
-      <c r="P113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16">
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B114">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E114">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F114">
         <v>2</v>
       </c>
       <c r="G114">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>2</v>
@@ -6191,42 +6056,39 @@
         <v>0.002</v>
       </c>
       <c r="M114">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="N114">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O114">
         <v>1</v>
       </c>
-      <c r="P114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16">
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F115">
         <v>2</v>
       </c>
       <c r="G115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -6241,45 +6103,42 @@
         <v>0.003</v>
       </c>
       <c r="M115">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="N115">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O115">
         <v>1</v>
       </c>
-      <c r="P115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6291,45 +6150,42 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="N116">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O116">
         <v>1</v>
       </c>
-      <c r="P116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6341,45 +6197,42 @@
         <v>0.001</v>
       </c>
       <c r="M117">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="N117">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O117">
         <v>1</v>
       </c>
-      <c r="P117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6391,45 +6244,42 @@
         <v>0.002</v>
       </c>
       <c r="M118">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="N118">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O118">
         <v>1</v>
       </c>
-      <c r="P118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6441,45 +6291,42 @@
         <v>0.003</v>
       </c>
       <c r="M119">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="N119">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O119">
         <v>1</v>
       </c>
-      <c r="P119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6491,45 +6338,42 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="N120">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O120">
         <v>1</v>
       </c>
-      <c r="P120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16">
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -6541,45 +6385,42 @@
         <v>0.001</v>
       </c>
       <c r="M121">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="N121">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O121">
         <v>1</v>
       </c>
-      <c r="P121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -6591,45 +6432,42 @@
         <v>0.002</v>
       </c>
       <c r="M122">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="N122">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O122">
         <v>1</v>
       </c>
-      <c r="P122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -6641,45 +6479,42 @@
         <v>0.003</v>
       </c>
       <c r="M123">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="N123">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O123">
         <v>1</v>
       </c>
-      <c r="P123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B124">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E124">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -6691,45 +6526,42 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N124">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="O124">
         <v>1</v>
       </c>
-      <c r="P124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B125">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E125">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -6741,45 +6573,42 @@
         <v>0.001</v>
       </c>
       <c r="M125">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N125">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="O125">
         <v>1</v>
       </c>
-      <c r="P125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E126">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -6791,45 +6620,42 @@
         <v>0.002</v>
       </c>
       <c r="M126">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N126">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="O126">
         <v>1</v>
       </c>
-      <c r="P126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -6841,45 +6667,42 @@
         <v>0.003</v>
       </c>
       <c r="M127">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N127">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="O127">
         <v>1</v>
       </c>
-      <c r="P127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -6891,45 +6714,42 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N128">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="O128">
         <v>1</v>
       </c>
-      <c r="P128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16">
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E129">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -6941,45 +6761,42 @@
         <v>0.001</v>
       </c>
       <c r="M129">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N129">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="O129">
         <v>1</v>
       </c>
-      <c r="P129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16">
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6991,45 +6808,42 @@
         <v>0.002</v>
       </c>
       <c r="M130">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N130">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="O130">
         <v>1</v>
       </c>
-      <c r="P130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7041,45 +6855,42 @@
         <v>0.003</v>
       </c>
       <c r="M131">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N131">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="O131">
         <v>1</v>
       </c>
-      <c r="P131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16">
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7091,42 +6902,42 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N132">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7138,42 +6949,42 @@
         <v>0.001</v>
       </c>
       <c r="M133">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N133">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -7185,42 +6996,42 @@
         <v>0.002</v>
       </c>
       <c r="M134">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N134">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E135">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7232,12 +7043,12 @@
         <v>0.003</v>
       </c>
       <c r="M135">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N135">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="O135">
         <v>1</v>
       </c>
     </row>

--- a/tmp_grid_res.xlsx
+++ b/tmp_grid_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
   <si>
     <t>win</t>
   </si>
@@ -61,43 +61,106 @@
     <t>close by time lose/lose</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:44:00</t>
+    <t>2022-02-25 09:30:00 -&gt; 2022-04-28 09:31:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:35:00</t>
+    <t>2022-02-25 09:30:00 -&gt; 2022-04-28 09:52:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:34:00</t>
+    <t>2022-02-25 09:30:00 -&gt; 2022-04-28 09:41:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 09:43:00</t>
+    <t>2022-02-25 09:32:00 -&gt; 2022-04-28 09:52:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 15:00:00</t>
+    <t>2022-02-25 09:32:00 -&gt; 2022-04-28 09:41:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-29 13:42:00</t>
+    <t>2022-02-25 09:32:00 -&gt; 2022-04-28 09:50:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-20 14:25:00</t>
+    <t>2022-02-25 09:35:00 -&gt; 2022-04-28 09:52:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-20 14:21:00</t>
+    <t>2022-02-25 09:35:00 -&gt; 2022-04-28 09:50:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-13 15:00:00</t>
+    <t>2022-02-25 09:36:00 -&gt; 2022-04-28 09:52:00</t>
   </si>
   <si>
-    <t>2022-04-29 09:30:00 -&gt; 2022-06-10 15:00:00</t>
+    <t>2022-02-25 09:36:00 -&gt; 2022-04-28 09:50:00</t>
   </si>
   <si>
-    <t>2022-04-29 11:06:00 -&gt; 2022-06-10 15:00:00</t>
+    <t>2022-02-25 09:36:00 -&gt; 2022-04-28 13:14:00</t>
   </si>
   <si>
-    <t>2022-04-29 11:12:00 -&gt; 2022-06-10 15:00:00</t>
+    <t>2022-02-25 09:36:00 -&gt; 2022-04-28 13:12:00</t>
   </si>
   <si>
-    <t>2022-04-29 11:15:00 -&gt; 2022-06-10 15:00:00</t>
+    <t>2022-02-28 09:30:00 -&gt; 2022-04-28 13:14:00</t>
+  </si>
+  <si>
+    <t>2022-02-28 09:30:00 -&gt; 2022-04-28 13:12:00</t>
+  </si>
+  <si>
+    <t>2022-02-28 09:37:00 -&gt; 2022-04-28 13:14:00</t>
+  </si>
+  <si>
+    <t>2022-02-28 09:37:00 -&gt; 2022-04-28 13:12:00</t>
+  </si>
+  <si>
+    <t>2022-02-28 10:25:00 -&gt; 2022-04-28 13:14:00</t>
+  </si>
+  <si>
+    <t>2022-02-28 10:25:00 -&gt; 2022-04-28 13:12:00</t>
+  </si>
+  <si>
+    <t>2022-02-28 13:28:00 -&gt; 2022-04-26 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-02-28 13:28:00 -&gt; 2022-04-26 14:30:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:28:00 -&gt; 2022-04-26 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:28:00 -&gt; 2022-04-26 14:30:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:29:00 -&gt; 2022-04-26 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:29:00 -&gt; 2022-04-26 14:30:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:39:00 -&gt; 2022-04-26 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:39:00 -&gt; 2022-04-26 14:30:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:48:00 -&gt; 2022-04-26 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:48:00 -&gt; 2022-04-26 14:30:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:53:00 -&gt; 2022-04-26 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:53:00 -&gt; 2022-04-26 14:30:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:54:00 -&gt; 2022-04-26 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-03-03 14:54:00 -&gt; 2022-04-26 14:30:00</t>
+  </si>
+  <si>
+    <t>2022-03-04 10:11:00 -&gt; 2022-04-26 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-03-04 10:11:00 -&gt; 2022-04-26 14:30:00</t>
   </si>
 </sst>
 </file>
@@ -513,31 +576,31 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
       <c r="F2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>0.001</v>
@@ -546,45 +609,45 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.875</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="N2">
-        <v>0.4444444444444444</v>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -596,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.85</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="N3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -610,34 +673,34 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0.002</v>
@@ -646,45 +709,45 @@
         <v>0.001</v>
       </c>
       <c r="M4">
-        <v>0.9</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="N4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O4">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -696,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.85</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="N5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -710,31 +773,31 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -746,10 +809,10 @@
         <v>0.001</v>
       </c>
       <c r="M6">
-        <v>0.925</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="N6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -763,31 +826,31 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>40</v>
       </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>36</v>
-      </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0.003</v>
@@ -796,45 +859,45 @@
         <v>0.002</v>
       </c>
       <c r="M7">
-        <v>0.875</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="N7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9444444444444444</v>
+        <v>0.975</v>
       </c>
       <c r="P7">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -846,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.825</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="N8">
-        <v>0.3636363636363636</v>
+        <v>0.2</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -860,31 +923,31 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -896,10 +959,10 @@
         <v>0.001</v>
       </c>
       <c r="M9">
-        <v>0.925</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="N9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -910,31 +973,31 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>40</v>
       </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>36</v>
-      </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -946,10 +1009,10 @@
         <v>0.002</v>
       </c>
       <c r="M10">
-        <v>0.925</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="N10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -960,31 +1023,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <v>40</v>
       </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>36</v>
-      </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -996,10 +1059,10 @@
         <v>0.003</v>
       </c>
       <c r="M11">
-        <v>0.925</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="N11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1010,31 +1073,31 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1046,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="N12">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1060,31 +1123,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1096,10 +1159,10 @@
         <v>0.001</v>
       </c>
       <c r="M13">
-        <v>0.9</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="N13">
-        <v>0.4285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1110,31 +1173,31 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
         <v>40</v>
       </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>35</v>
-      </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1146,10 +1209,10 @@
         <v>0.002</v>
       </c>
       <c r="M14">
-        <v>0.9</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="N14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1160,31 +1223,31 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
         <v>40</v>
       </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>36</v>
-      </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1196,10 +1259,10 @@
         <v>0.003</v>
       </c>
       <c r="M15">
-        <v>0.925</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="N15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1210,31 +1273,31 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1246,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.725</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="N16">
-        <v>0.2666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1260,31 +1323,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1296,10 +1359,10 @@
         <v>0.001</v>
       </c>
       <c r="M17">
-        <v>0.85</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="N17">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1310,31 +1373,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1346,10 +1409,10 @@
         <v>0.002</v>
       </c>
       <c r="M18">
-        <v>0.85</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="N18">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1360,31 +1423,31 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
         <v>40</v>
       </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>35</v>
-      </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1396,10 +1459,10 @@
         <v>0.003</v>
       </c>
       <c r="M19">
-        <v>0.9</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="N19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1410,31 +1473,31 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1446,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7435897435897436</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="N20">
-        <v>0.3333333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1460,31 +1523,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1496,10 +1559,10 @@
         <v>0.001</v>
       </c>
       <c r="M21">
-        <v>0.8205128205128205</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="N21">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1510,31 +1573,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>7</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1546,10 +1609,10 @@
         <v>0.002</v>
       </c>
       <c r="M22">
-        <v>0.8461538461538461</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="N22">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1560,31 +1623,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
         <v>39</v>
       </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>34</v>
-      </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1596,10 +1659,10 @@
         <v>0.003</v>
       </c>
       <c r="M23">
-        <v>0.8974358974358975</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="N23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1610,31 +1673,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1646,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7105263157894737</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="N24">
-        <v>0.3125</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1660,31 +1723,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I25">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1696,10 +1759,10 @@
         <v>0.001</v>
       </c>
       <c r="M25">
-        <v>0.7631578947368421</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="N25">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1710,31 +1773,31 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>9</v>
       </c>
       <c r="F26">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1746,10 +1809,10 @@
         <v>0.002</v>
       </c>
       <c r="M26">
-        <v>0.7894736842105263</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="N26">
-        <v>0.1111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1760,31 +1823,31 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>7</v>
       </c>
       <c r="F27">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1796,10 +1859,10 @@
         <v>0.003</v>
       </c>
       <c r="M27">
-        <v>0.8421052631578947</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="N27">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1810,31 +1873,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28">
         <v>14</v>
       </c>
-      <c r="D28">
-        <v>38</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
       <c r="F28">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>6</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1846,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.631578947368421</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="N28">
-        <v>0.3</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1860,31 +1923,31 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>4</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1896,10 +1959,10 @@
         <v>0.001</v>
       </c>
       <c r="M29">
-        <v>0.6842105263157895</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="N29">
-        <v>0.25</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1910,31 +1973,31 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1946,10 +2009,10 @@
         <v>0.002</v>
       </c>
       <c r="M30">
-        <v>0.6842105263157895</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="N30">
-        <v>0.1428571428571428</v>
+        <v>0.3</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -1960,31 +2023,31 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1996,10 +2059,10 @@
         <v>0.003</v>
       </c>
       <c r="M31">
-        <v>0.7368421052631579</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="N31">
-        <v>0.1666666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2010,31 +2073,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>42</v>
+      </c>
+      <c r="E32">
         <v>15</v>
       </c>
-      <c r="B32">
-        <v>26</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>36</v>
-      </c>
-      <c r="E32">
-        <v>19</v>
-      </c>
       <c r="F32">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2046,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.7222222222222222</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="N32">
-        <v>0.4736842105263158</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2060,31 +2123,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2096,10 +2159,10 @@
         <v>0.001</v>
       </c>
       <c r="M33">
-        <v>0.75</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="N33">
-        <v>0.4375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2110,31 +2173,31 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E34">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I34">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2146,10 +2209,10 @@
         <v>0.002</v>
       </c>
       <c r="M34">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N34">
-        <v>0.3571428571428572</v>
+        <v>0.3</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2160,31 +2223,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F35">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
         <v>5</v>
       </c>
-      <c r="H35">
-        <v>8</v>
-      </c>
       <c r="I35">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2196,10 +2259,10 @@
         <v>0.003</v>
       </c>
       <c r="M35">
-        <v>0.7777777777777778</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="N35">
-        <v>0.3846153846153846</v>
+        <v>0.375</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2210,31 +2273,31 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I36">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2246,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.7272727272727273</v>
+        <v>0.8</v>
       </c>
       <c r="N36">
-        <v>0.5263157894736842</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2260,31 +2323,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H37">
         <v>8</v>
       </c>
       <c r="I37">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2296,10 +2359,10 @@
         <v>0.001</v>
       </c>
       <c r="M37">
-        <v>0.7575757575757576</v>
+        <v>0.8</v>
       </c>
       <c r="N37">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2310,31 +2373,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I38">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2346,10 +2409,10 @@
         <v>0.002</v>
       </c>
       <c r="M38">
-        <v>0.7575757575757576</v>
+        <v>0.825</v>
       </c>
       <c r="N38">
-        <v>0.4285714285714285</v>
+        <v>0.3</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2360,31 +2423,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F39">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2396,10 +2459,10 @@
         <v>0.003</v>
       </c>
       <c r="M39">
-        <v>0.7878787878787878</v>
+        <v>0.85</v>
       </c>
       <c r="N39">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2410,31 +2473,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B40">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>14</v>
+      </c>
+      <c r="F40">
         <v>25</v>
       </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>33</v>
-      </c>
-      <c r="E40">
-        <v>19</v>
-      </c>
-      <c r="F40">
-        <v>14</v>
-      </c>
       <c r="G40">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H40">
         <v>8</v>
       </c>
       <c r="I40">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2446,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.7575757575757576</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="N40">
-        <v>0.5789473684210527</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2460,31 +2523,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E41">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F41">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H41">
         <v>8</v>
       </c>
       <c r="I41">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2496,10 +2559,10 @@
         <v>0.001</v>
       </c>
       <c r="M41">
-        <v>0.7575757575757576</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="N41">
-        <v>0.5294117647058824</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2510,31 +2573,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E42">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F42">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>8</v>
       </c>
       <c r="I42">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2546,10 +2609,10 @@
         <v>0.002</v>
       </c>
       <c r="M42">
-        <v>0.7575757575757576</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="N42">
-        <v>0.4666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2560,31 +2623,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E43">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I43">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2596,10 +2659,10 @@
         <v>0.003</v>
       </c>
       <c r="M43">
-        <v>0.7575757575757576</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="N43">
-        <v>0.4285714285714285</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -2610,31 +2673,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
         <v>9</v>
       </c>
-      <c r="H44">
-        <v>8</v>
-      </c>
       <c r="I44">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2646,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.7142857142857143</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="N44">
-        <v>0.5294117647058824</v>
+        <v>0.4375</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2660,31 +2723,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
         <v>9</v>
       </c>
-      <c r="H45">
-        <v>8</v>
-      </c>
       <c r="I45">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2696,10 +2759,10 @@
         <v>0.001</v>
       </c>
       <c r="M45">
-        <v>0.7142857142857143</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="N45">
-        <v>0.5294117647058824</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -2710,31 +2773,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F46">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>8</v>
       </c>
       <c r="I46">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2746,10 +2809,10 @@
         <v>0.002</v>
       </c>
       <c r="M46">
-        <v>0.7142857142857143</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="N46">
-        <v>0.4666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2760,31 +2823,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47">
+        <v>37</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
         <v>28</v>
       </c>
-      <c r="E47">
-        <v>15</v>
-      </c>
-      <c r="F47">
-        <v>13</v>
-      </c>
       <c r="G47">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I47">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2796,10 +2859,10 @@
         <v>0.003</v>
       </c>
       <c r="M47">
-        <v>0.7142857142857143</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="N47">
-        <v>0.4666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2810,31 +2873,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I48">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2846,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.6956521739130435</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N48">
-        <v>0.5333333333333333</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2860,31 +2923,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2896,10 +2959,10 @@
         <v>0.001</v>
       </c>
       <c r="M49">
-        <v>0.6956521739130435</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N49">
-        <v>0.5333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2910,31 +2973,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E50">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2946,10 +3009,10 @@
         <v>0.002</v>
       </c>
       <c r="M50">
-        <v>0.6956521739130435</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N50">
-        <v>0.4615384615384616</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -2960,31 +3023,31 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2996,10 +3059,10 @@
         <v>0.003</v>
       </c>
       <c r="M51">
-        <v>0.6956521739130435</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="N51">
-        <v>0.4615384615384616</v>
+        <v>0.2</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3010,31 +3073,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I52">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3046,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="N52">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3060,31 +3123,31 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G53">
         <v>6</v>
       </c>
       <c r="H53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I53">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3096,10 +3159,10 @@
         <v>0.001</v>
       </c>
       <c r="M53">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="N53">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3110,31 +3173,31 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>32</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54">
         <v>19</v>
       </c>
-      <c r="B54">
-        <v>13</v>
-      </c>
-      <c r="C54">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>20</v>
-      </c>
-      <c r="E54">
-        <v>11</v>
-      </c>
-      <c r="F54">
-        <v>9</v>
-      </c>
       <c r="G54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I54">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3146,10 +3209,10 @@
         <v>0.002</v>
       </c>
       <c r="M54">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="N54">
-        <v>0.3636363636363636</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3160,22 +3223,22 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B55">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>7</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E55">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -3184,7 +3247,7 @@
         <v>7</v>
       </c>
       <c r="I55">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3196,7 +3259,7 @@
         <v>0.003</v>
       </c>
       <c r="M55">
-        <v>0.65</v>
+        <v>0.78125</v>
       </c>
       <c r="N55">
         <v>0.3636363636363636</v>
@@ -3210,31 +3273,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E56">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G56">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I56">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3246,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.6842105263157895</v>
+        <v>0.78125</v>
       </c>
       <c r="N56">
-        <v>0.5384615384615384</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3260,31 +3323,31 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I57">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3296,10 +3359,10 @@
         <v>0.001</v>
       </c>
       <c r="M57">
-        <v>0.6842105263157895</v>
+        <v>0.78125</v>
       </c>
       <c r="N57">
-        <v>0.5384615384615384</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3310,31 +3373,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F58">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I58">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3346,10 +3409,10 @@
         <v>0.002</v>
       </c>
       <c r="M58">
-        <v>0.6842105263157895</v>
+        <v>0.78125</v>
       </c>
       <c r="N58">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3360,31 +3423,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
       <c r="H59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I59">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3396,10 +3459,10 @@
         <v>0.003</v>
       </c>
       <c r="M59">
-        <v>0.6842105263157895</v>
+        <v>0.78125</v>
       </c>
       <c r="N59">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -3410,31 +3473,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B60">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <v>18</v>
+      </c>
+      <c r="F60">
         <v>12</v>
       </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>17</v>
-      </c>
-      <c r="E60">
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
         <v>12</v>
-      </c>
-      <c r="F60">
-        <v>5</v>
-      </c>
-      <c r="G60">
-        <v>7</v>
-      </c>
-      <c r="H60">
-        <v>5</v>
-      </c>
-      <c r="I60">
-        <v>5</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3446,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.7058823529411765</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="N60">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3460,31 +3523,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D61">
+        <v>30</v>
+      </c>
+      <c r="E61">
         <v>17</v>
       </c>
-      <c r="E61">
-        <v>12</v>
-      </c>
       <c r="F61">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3496,10 +3559,10 @@
         <v>0.001</v>
       </c>
       <c r="M61">
-        <v>0.7058823529411765</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="N61">
-        <v>0.5833333333333334</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -3510,31 +3573,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F62">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I62">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3546,7 +3609,7 @@
         <v>0.002</v>
       </c>
       <c r="M62">
-        <v>0.7058823529411765</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="N62">
         <v>0.5</v>
@@ -3560,31 +3623,31 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I63">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3596,10 +3659,10 @@
         <v>0.003</v>
       </c>
       <c r="M63">
-        <v>0.7058823529411765</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="N63">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3610,31 +3673,31 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>5</v>
       </c>
       <c r="D64">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E64">
+        <v>16</v>
+      </c>
+      <c r="F64">
         <v>11</v>
       </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
       <c r="G64">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H64">
         <v>5</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3646,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.6428571428571429</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="N64">
-        <v>0.5454545454545454</v>
+        <v>0.6875</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3660,31 +3723,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E65">
+        <v>16</v>
+      </c>
+      <c r="F65">
         <v>11</v>
       </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
       <c r="G65">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H65">
         <v>5</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3696,10 +3759,10 @@
         <v>0.001</v>
       </c>
       <c r="M65">
-        <v>0.6428571428571429</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="N65">
-        <v>0.5454545454545454</v>
+        <v>0.6875</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3710,31 +3773,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E66">
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="G66">
         <v>10</v>
-      </c>
-      <c r="F66">
-        <v>4</v>
-      </c>
-      <c r="G66">
-        <v>5</v>
       </c>
       <c r="H66">
         <v>5</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3746,10 +3809,10 @@
         <v>0.002</v>
       </c>
       <c r="M66">
-        <v>0.6428571428571429</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="N66">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3760,31 +3823,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C67">
         <v>5</v>
       </c>
       <c r="D67">
+        <v>27</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+      <c r="F67">
         <v>14</v>
       </c>
-      <c r="E67">
-        <v>10</v>
-      </c>
-      <c r="F67">
-        <v>4</v>
-      </c>
       <c r="G67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H67">
         <v>5</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3796,10 +3859,10 @@
         <v>0.003</v>
       </c>
       <c r="M67">
-        <v>0.6428571428571429</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="N67">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -3810,31 +3873,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>24</v>
+      </c>
+      <c r="E68">
+        <v>13</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68">
         <v>9</v>
       </c>
-      <c r="C68">
-        <v>5</v>
-      </c>
-      <c r="D68">
-        <v>14</v>
-      </c>
-      <c r="E68">
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
         <v>11</v>
-      </c>
-      <c r="F68">
-        <v>3</v>
-      </c>
-      <c r="G68">
-        <v>6</v>
-      </c>
-      <c r="H68">
-        <v>5</v>
-      </c>
-      <c r="I68">
-        <v>3</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3846,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.6428571428571429</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N68">
-        <v>0.5454545454545454</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -3860,31 +3923,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>24</v>
+      </c>
+      <c r="E69">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <v>11</v>
+      </c>
+      <c r="G69">
         <v>9</v>
       </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-      <c r="D69">
-        <v>14</v>
-      </c>
-      <c r="E69">
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
         <v>11</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-      <c r="G69">
-        <v>6</v>
-      </c>
-      <c r="H69">
-        <v>5</v>
-      </c>
-      <c r="I69">
-        <v>3</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3896,10 +3959,10 @@
         <v>0.001</v>
       </c>
       <c r="M69">
-        <v>0.6428571428571429</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N69">
-        <v>0.5454545454545454</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -3910,31 +3973,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3946,10 +4009,10 @@
         <v>0.002</v>
       </c>
       <c r="M70">
-        <v>0.6428571428571429</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N70">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -3960,31 +4023,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3996,10 +4059,10 @@
         <v>0.003</v>
       </c>
       <c r="M71">
-        <v>0.6428571428571429</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N71">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4010,31 +4073,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72">
+        <v>24</v>
+      </c>
+      <c r="E72">
         <v>13</v>
       </c>
-      <c r="E72">
+      <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="G72">
         <v>10</v>
       </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-      <c r="G72">
-        <v>6</v>
-      </c>
       <c r="H72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4046,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.6923076923076923</v>
+        <v>0.875</v>
       </c>
       <c r="N72">
-        <v>0.6</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4060,31 +4123,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73">
         <v>13</v>
       </c>
-      <c r="E73">
+      <c r="F73">
+        <v>11</v>
+      </c>
+      <c r="G73">
         <v>10</v>
       </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="G73">
-        <v>6</v>
-      </c>
       <c r="H73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4096,10 +4159,10 @@
         <v>0.001</v>
       </c>
       <c r="M73">
-        <v>0.6923076923076923</v>
+        <v>0.875</v>
       </c>
       <c r="N73">
-        <v>0.6</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4110,31 +4173,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B74">
+        <v>21</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>24</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>12</v>
+      </c>
+      <c r="G74">
         <v>9</v>
       </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>13</v>
-      </c>
-      <c r="E74">
-        <v>9</v>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
-      <c r="G74">
-        <v>5</v>
-      </c>
       <c r="H74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4146,10 +4209,10 @@
         <v>0.002</v>
       </c>
       <c r="M74">
-        <v>0.6923076923076923</v>
+        <v>0.875</v>
       </c>
       <c r="N74">
-        <v>0.5555555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4160,31 +4223,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4196,10 +4259,10 @@
         <v>0.003</v>
       </c>
       <c r="M75">
-        <v>0.6923076923076923</v>
+        <v>0.875</v>
       </c>
       <c r="N75">
-        <v>0.5555555555555556</v>
+        <v>0.7</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4210,31 +4273,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
         <v>21</v>
       </c>
-      <c r="B76">
+      <c r="E76">
+        <v>12</v>
+      </c>
+      <c r="F76">
         <v>9</v>
       </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>11</v>
-      </c>
-      <c r="E76">
-        <v>8</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
       <c r="G76">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4246,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.8181818181818182</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N76">
         <v>0.75</v>
@@ -4260,31 +4323,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>21</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+      <c r="F77">
         <v>9</v>
       </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>11</v>
-      </c>
-      <c r="E77">
-        <v>8</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
       <c r="G77">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4296,7 +4359,7 @@
         <v>0.001</v>
       </c>
       <c r="M77">
-        <v>0.8181818181818182</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N77">
         <v>0.75</v>
@@ -4310,31 +4373,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78">
+        <v>21</v>
+      </c>
+      <c r="E78">
         <v>11</v>
       </c>
-      <c r="E78">
-        <v>7</v>
-      </c>
       <c r="F78">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4346,10 +4409,10 @@
         <v>0.002</v>
       </c>
       <c r="M78">
-        <v>0.8181818181818182</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N78">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4360,31 +4423,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>21</v>
+      </c>
+      <c r="E79">
         <v>9</v>
       </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>11</v>
-      </c>
-      <c r="E79">
-        <v>7</v>
-      </c>
       <c r="F79">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4396,10 +4459,10 @@
         <v>0.003</v>
       </c>
       <c r="M79">
-        <v>0.8181818181818182</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N79">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4410,31 +4473,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B80">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
         <v>9</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>10</v>
-      </c>
-      <c r="E80">
-        <v>8</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
       <c r="G80">
         <v>7</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4446,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.9</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="N80">
-        <v>0.875</v>
+        <v>0.7</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -4460,31 +4523,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B81">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
         <v>9</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>10</v>
-      </c>
-      <c r="E81">
-        <v>8</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
       <c r="G81">
         <v>7</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4496,10 +4559,10 @@
         <v>0.001</v>
       </c>
       <c r="M81">
-        <v>0.9</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="N81">
-        <v>0.875</v>
+        <v>0.7</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -4510,31 +4573,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B82">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>19</v>
+      </c>
+      <c r="E82">
         <v>9</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
+      <c r="F82">
         <v>10</v>
-      </c>
-      <c r="E82">
-        <v>7</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
       </c>
       <c r="G82">
         <v>6</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4546,10 +4609,10 @@
         <v>0.002</v>
       </c>
       <c r="M82">
-        <v>0.9</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="N82">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -4560,31 +4623,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>7</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4596,10 +4659,10 @@
         <v>0.003</v>
       </c>
       <c r="M83">
-        <v>0.9</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="N83">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -4610,31 +4673,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D84">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4646,42 +4709,45 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B85">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4693,42 +4759,45 @@
         <v>0.001</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B86">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>18</v>
+      </c>
+      <c r="E86">
         <v>9</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
+      <c r="F86">
         <v>9</v>
       </c>
-      <c r="E86">
-        <v>6</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
       <c r="G86">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4740,42 +4809,45 @@
         <v>0.002</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4787,42 +4859,45 @@
         <v>0.003</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B88">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>17</v>
+      </c>
+      <c r="E88">
         <v>9</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>9</v>
-      </c>
-      <c r="E88">
-        <v>7</v>
-      </c>
       <c r="F88">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4834,42 +4909,45 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B89">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>17</v>
+      </c>
+      <c r="E89">
         <v>9</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>9</v>
-      </c>
-      <c r="E89">
-        <v>7</v>
-      </c>
       <c r="F89">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4881,42 +4959,45 @@
         <v>0.001</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B90">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="F90">
         <v>9</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
         <v>9</v>
-      </c>
-      <c r="E90">
-        <v>6</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <v>6</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>3</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4928,42 +5009,45 @@
         <v>0.002</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4975,42 +5059,45 @@
         <v>0.003</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5022,42 +5109,45 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5069,42 +5159,45 @@
         <v>0.001</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5116,42 +5209,45 @@
         <v>0.002</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>5</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5163,42 +5259,45 @@
         <v>0.003</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5210,42 +5309,45 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="P96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5257,42 +5359,45 @@
         <v>0.001</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="P97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5304,42 +5409,45 @@
         <v>0.002</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="P98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>5</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5351,42 +5459,45 @@
         <v>0.003</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="P99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>13</v>
+      </c>
+      <c r="E100">
         <v>6</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>6</v>
-      </c>
-      <c r="E100">
-        <v>4</v>
-      </c>
       <c r="F100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5398,42 +5509,45 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="P100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>13</v>
+      </c>
+      <c r="E101">
         <v>6</v>
       </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>6</v>
-      </c>
-      <c r="E101">
-        <v>4</v>
-      </c>
       <c r="F101">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -5445,42 +5559,45 @@
         <v>0.001</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="P101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102">
         <v>2</v>
       </c>
-      <c r="G102">
-        <v>4</v>
-      </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5492,42 +5609,45 @@
         <v>0.002</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:15">
+      <c r="P102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E103">
         <v>4</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -5539,42 +5659,45 @@
         <v>0.003</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="O103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="P103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>12</v>
+      </c>
+      <c r="E104">
         <v>6</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
+      <c r="F104">
         <v>6</v>
       </c>
-      <c r="E104">
-        <v>4</v>
-      </c>
-      <c r="F104">
-        <v>2</v>
-      </c>
       <c r="G104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -5586,42 +5709,45 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="P104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>12</v>
+      </c>
+      <c r="E105">
         <v>6</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
+      <c r="F105">
         <v>6</v>
       </c>
-      <c r="E105">
-        <v>4</v>
-      </c>
-      <c r="F105">
-        <v>2</v>
-      </c>
       <c r="G105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -5633,42 +5759,45 @@
         <v>0.001</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="P105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F106">
+        <v>7</v>
+      </c>
+      <c r="G106">
         <v>2</v>
       </c>
-      <c r="G106">
-        <v>4</v>
-      </c>
       <c r="H106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5680,42 +5809,45 @@
         <v>0.002</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="P106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E107">
         <v>4</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5727,42 +5859,45 @@
         <v>0.003</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="O107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:15">
+      <c r="P107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G108">
         <v>3</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -5774,42 +5909,45 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:15">
+      <c r="P108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G109">
         <v>3</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -5821,42 +5959,45 @@
         <v>0.001</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:15">
+      <c r="P109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>12</v>
+      </c>
+      <c r="E110">
         <v>5</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-      <c r="E110">
-        <v>3</v>
-      </c>
       <c r="F110">
+        <v>7</v>
+      </c>
+      <c r="G110">
         <v>2</v>
       </c>
-      <c r="G110">
-        <v>3</v>
-      </c>
       <c r="H110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5868,42 +6009,45 @@
         <v>0.002</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:15">
+      <c r="P110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -5915,42 +6059,45 @@
         <v>0.003</v>
       </c>
       <c r="M111">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="O111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:15">
+      <c r="P111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G112">
         <v>3</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -5962,42 +6109,45 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:15">
+      <c r="P112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G113">
         <v>3</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6009,42 +6159,45 @@
         <v>0.001</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="P113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E114">
         <v>3</v>
       </c>
       <c r="F114">
+        <v>7</v>
+      </c>
+      <c r="G114">
         <v>2</v>
       </c>
-      <c r="G114">
-        <v>3</v>
-      </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6056,42 +6209,45 @@
         <v>0.002</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="P114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6103,42 +6259,45 @@
         <v>0.003</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:15">
+      <c r="P115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G116">
         <v>3</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6150,42 +6309,45 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:15">
+      <c r="P116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G117">
         <v>3</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6197,42 +6359,45 @@
         <v>0.001</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="P117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E118">
         <v>3</v>
       </c>
       <c r="F118">
+        <v>7</v>
+      </c>
+      <c r="G118">
         <v>2</v>
       </c>
-      <c r="G118">
-        <v>3</v>
-      </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6244,42 +6409,45 @@
         <v>0.002</v>
       </c>
       <c r="M118">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="P118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6291,42 +6459,45 @@
         <v>0.003</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:15">
+      <c r="P119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G120">
         <v>3</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6338,42 +6509,45 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:15">
+      <c r="P120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G121">
         <v>3</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -6385,42 +6559,45 @@
         <v>0.001</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:15">
+      <c r="P121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E122">
         <v>3</v>
       </c>
       <c r="F122">
+        <v>7</v>
+      </c>
+      <c r="G122">
         <v>2</v>
       </c>
-      <c r="G122">
-        <v>3</v>
-      </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -6432,42 +6609,45 @@
         <v>0.002</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:15">
+      <c r="P122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F123">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -6479,42 +6659,45 @@
         <v>0.003</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:15">
+      <c r="P123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E124">
         <v>3</v>
       </c>
       <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124">
         <v>2</v>
       </c>
-      <c r="G124">
-        <v>3</v>
-      </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -6526,42 +6709,45 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="P124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E125">
         <v>3</v>
       </c>
       <c r="F125">
+        <v>6</v>
+      </c>
+      <c r="G125">
         <v>2</v>
       </c>
-      <c r="G125">
-        <v>3</v>
-      </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -6573,42 +6759,45 @@
         <v>0.001</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="P125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -6620,42 +6809,45 @@
         <v>0.002</v>
       </c>
       <c r="M126">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:15">
+      <c r="P126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -6667,42 +6859,45 @@
         <v>0.003</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:15">
+      <c r="P127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>8</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
         <v>5</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
         <v>5</v>
-      </c>
-      <c r="E128">
-        <v>3</v>
-      </c>
-      <c r="F128">
-        <v>2</v>
-      </c>
-      <c r="G128">
-        <v>3</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>2</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -6714,42 +6909,45 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:15">
+      <c r="P128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>8</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
         <v>5</v>
       </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
         <v>5</v>
-      </c>
-      <c r="E129">
-        <v>3</v>
-      </c>
-      <c r="F129">
-        <v>2</v>
-      </c>
-      <c r="G129">
-        <v>3</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>2</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -6761,42 +6959,45 @@
         <v>0.001</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:15">
+      <c r="P129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6808,42 +7009,45 @@
         <v>0.002</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="P130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B131">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -6855,42 +7059,45 @@
         <v>0.003</v>
       </c>
       <c r="M131">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="P131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
         <v>5</v>
       </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>5</v>
-      </c>
-      <c r="E132">
-        <v>3</v>
-      </c>
-      <c r="F132">
-        <v>2</v>
-      </c>
-      <c r="G132">
-        <v>3</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>2</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -6902,42 +7109,45 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:15">
+      <c r="P132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>8</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
         <v>5</v>
       </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
         <v>5</v>
-      </c>
-      <c r="E133">
-        <v>3</v>
-      </c>
-      <c r="F133">
-        <v>2</v>
-      </c>
-      <c r="G133">
-        <v>3</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>2</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -6949,42 +7159,45 @@
         <v>0.001</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="P133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B134">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -6996,42 +7209,45 @@
         <v>0.002</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="P134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7043,12 +7259,15 @@
         <v>0.003</v>
       </c>
       <c r="M135">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135">
         <v>1</v>
       </c>
     </row>

--- a/tmp_grid_res.xlsx
+++ b/tmp_grid_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
   <si>
     <t>win</t>
   </si>
@@ -61,106 +61,88 @@
     <t>close by time lose/lose</t>
   </si>
   <si>
-    <t>2022-02-25 09:30:00 -&gt; 2022-04-28 09:31:00</t>
+    <t>2021-12-14 09:30:00 -&gt; 2022-06-28 09:33:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:30:00 -&gt; 2022-04-28 09:52:00</t>
+    <t>2021-12-14 09:30:00 -&gt; 2022-06-28 09:31:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:30:00 -&gt; 2022-04-28 09:41:00</t>
+    <t>2021-12-14 09:58:00 -&gt; 2022-06-28 09:33:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:32:00 -&gt; 2022-04-28 09:52:00</t>
+    <t>2021-12-14 09:58:00 -&gt; 2022-06-28 09:31:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:32:00 -&gt; 2022-04-28 09:41:00</t>
+    <t>2021-12-14 09:59:00 -&gt; 2022-06-28 10:09:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:32:00 -&gt; 2022-04-28 09:50:00</t>
+    <t>2021-12-14 09:59:00 -&gt; 2022-06-28 10:01:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:35:00 -&gt; 2022-04-28 09:52:00</t>
+    <t>2021-12-14 13:28:00 -&gt; 2022-06-28 10:09:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:35:00 -&gt; 2022-04-28 09:50:00</t>
+    <t>2021-12-14 13:28:00 -&gt; 2022-06-28 10:01:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:36:00 -&gt; 2022-04-28 09:52:00</t>
+    <t>2021-12-14 13:33:00 -&gt; 2022-06-28 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:36:00 -&gt; 2022-04-28 09:50:00</t>
+    <t>2021-12-14 13:37:00 -&gt; 2022-06-28 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:36:00 -&gt; 2022-04-28 13:14:00</t>
+    <t>2021-12-14 14:46:00 -&gt; 2022-06-28 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-25 09:36:00 -&gt; 2022-04-28 13:12:00</t>
+    <t>2021-12-15 10:04:00 -&gt; 2022-06-27 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-28 09:30:00 -&gt; 2022-04-28 13:14:00</t>
+    <t>2021-12-15 10:09:00 -&gt; 2022-06-27 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-28 09:30:00 -&gt; 2022-04-28 13:12:00</t>
+    <t>2021-12-15 10:15:00 -&gt; 2022-06-24 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-28 09:37:00 -&gt; 2022-04-28 13:14:00</t>
+    <t>2021-12-15 11:01:00 -&gt; 2022-06-24 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-28 09:37:00 -&gt; 2022-04-28 13:12:00</t>
+    <t>2021-12-15 11:19:00 -&gt; 2022-06-24 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-28 10:25:00 -&gt; 2022-04-28 13:14:00</t>
+    <t>2021-12-16 14:05:00 -&gt; 2022-06-24 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-28 10:25:00 -&gt; 2022-04-28 13:12:00</t>
+    <t>2021-12-16 14:09:00 -&gt; 2022-06-24 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-28 13:28:00 -&gt; 2022-04-26 15:00:00</t>
+    <t>2021-12-21 14:52:00 -&gt; 2022-06-24 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-28 13:28:00 -&gt; 2022-04-26 14:30:00</t>
+    <t>2021-12-23 13:00:00 -&gt; 2022-06-23 15:00:00</t>
   </si>
   <si>
-    <t>2022-03-03 14:28:00 -&gt; 2022-04-26 15:00:00</t>
+    <t>2022-01-18 10:36:00 -&gt; 2022-06-23 15:00:00</t>
   </si>
   <si>
-    <t>2022-03-03 14:28:00 -&gt; 2022-04-26 14:30:00</t>
+    <t>2022-01-24 14:43:00 -&gt; 2022-06-23 15:00:00</t>
   </si>
   <si>
-    <t>2022-03-03 14:29:00 -&gt; 2022-04-26 15:00:00</t>
+    <t>2022-01-28 10:17:00 -&gt; 2022-06-23 15:00:00</t>
   </si>
   <si>
-    <t>2022-03-03 14:29:00 -&gt; 2022-04-26 14:30:00</t>
+    <t>2022-01-28 10:22:00 -&gt; 2022-06-15 15:00:00</t>
   </si>
   <si>
-    <t>2022-03-03 14:39:00 -&gt; 2022-04-26 15:00:00</t>
+    <t>2022-01-28 10:23:00 -&gt; 2022-06-15 15:00:00</t>
   </si>
   <si>
-    <t>2022-03-03 14:39:00 -&gt; 2022-04-26 14:30:00</t>
+    <t>2022-01-28 10:23:00 -&gt; 2022-05-23 15:00:00</t>
   </si>
   <si>
-    <t>2022-03-03 14:48:00 -&gt; 2022-04-26 15:00:00</t>
+    <t>2022-01-28 10:24:00 -&gt; 2022-05-23 15:00:00</t>
   </si>
   <si>
-    <t>2022-03-03 14:48:00 -&gt; 2022-04-26 14:30:00</t>
-  </si>
-  <si>
-    <t>2022-03-03 14:53:00 -&gt; 2022-04-26 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-03-03 14:53:00 -&gt; 2022-04-26 14:30:00</t>
-  </si>
-  <si>
-    <t>2022-03-03 14:54:00 -&gt; 2022-04-26 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-03-03 14:54:00 -&gt; 2022-04-26 14:30:00</t>
-  </si>
-  <si>
-    <t>2022-03-04 10:11:00 -&gt; 2022-04-26 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-03-04 10:11:00 -&gt; 2022-04-26 14:30:00</t>
+    <t>2022-02-14 14:30:00 -&gt; 2022-04-26 15:00:00</t>
   </si>
 </sst>
 </file>
@@ -576,31 +558,31 @@
         <v>15</v>
       </c>
       <c r="B2">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>129</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>104</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>67</v>
+      </c>
+      <c r="J2">
         <v>37</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>43</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>38</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>36</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
       </c>
       <c r="K2">
         <v>0.001</v>
@@ -609,48 +591,48 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8604651162790697</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="N2">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="O2">
-        <v>0.9473684210526315</v>
+        <v>0.6442307692307693</v>
       </c>
       <c r="P2">
-        <v>0.6666666666666666</v>
+        <v>0.3833333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>0.002</v>
@@ -659,48 +641,48 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9069767441860465</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="N3">
-        <v>0.2</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6836734693877551</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I4">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>0.002</v>
@@ -709,48 +691,48 @@
         <v>0.001</v>
       </c>
       <c r="M4">
-        <v>0.9302325581395349</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="N4">
-        <v>0.25</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2835820895522388</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I5">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K5">
         <v>0.003</v>
@@ -759,48 +741,48 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9069767441860465</v>
+        <v>0.6589147286821705</v>
       </c>
       <c r="N5">
-        <v>0.2</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8645833333333334</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I6">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>0.003</v>
@@ -809,48 +791,48 @@
         <v>0.001</v>
       </c>
       <c r="M6">
-        <v>0.9302325581395349</v>
+        <v>0.5658914728682171</v>
       </c>
       <c r="N6">
-        <v>0.25</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="K7">
         <v>0.003</v>
@@ -859,45 +841,45 @@
         <v>0.002</v>
       </c>
       <c r="M7">
-        <v>0.9069767441860465</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O7">
-        <v>0.975</v>
+        <v>0.4608695652173913</v>
       </c>
       <c r="P7">
-        <v>0.75</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I8">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -909,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9069767441860465</v>
+        <v>0.7286821705426356</v>
       </c>
       <c r="N8">
-        <v>0.2</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -923,34 +905,34 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K9">
         <v>0.004</v>
@@ -959,48 +941,48 @@
         <v>0.001</v>
       </c>
       <c r="M9">
-        <v>0.9302325581395349</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="N9">
-        <v>0.25</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.8712871287128713</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="D10">
+        <v>129</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>109</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>66</v>
+      </c>
+      <c r="J10">
         <v>43</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>40</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>40</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
       </c>
       <c r="K10">
         <v>0.004</v>
@@ -1009,48 +991,48 @@
         <v>0.002</v>
       </c>
       <c r="M10">
-        <v>0.9302325581395349</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0.6055045871559633</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.2950819672131147</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D11">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K11">
         <v>0.004</v>
@@ -1059,45 +1041,45 @@
         <v>0.003</v>
       </c>
       <c r="M11">
-        <v>0.9302325581395349</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
+        <v>88</v>
+      </c>
+      <c r="C12">
         <v>39</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
       <c r="D12">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I12">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1109,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9069767441860465</v>
+        <v>0.6929133858267716</v>
       </c>
       <c r="N12">
-        <v>0.2</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1123,31 +1105,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>95</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>39</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I13">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1159,10 +1141,10 @@
         <v>0.001</v>
       </c>
       <c r="M13">
-        <v>0.9302325581395349</v>
+        <v>0.7716535433070866</v>
       </c>
       <c r="N13">
-        <v>0.25</v>
+        <v>0.09375</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1173,34 +1155,34 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>103</v>
+      </c>
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>43</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>40</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I14">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K14">
         <v>0.005</v>
@@ -1209,48 +1191,48 @@
         <v>0.002</v>
       </c>
       <c r="M14">
-        <v>0.9302325581395349</v>
+        <v>0.7007874015748031</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C15">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>107</v>
+      </c>
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>43</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>40</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I15">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>0.005</v>
@@ -1259,45 +1241,45 @@
         <v>0.003</v>
       </c>
       <c r="M15">
-        <v>0.9302325581395349</v>
+        <v>0.5118110236220472</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0.5794392523364486</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.2741935483870968</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F16">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I16">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1309,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8837209302325582</v>
+        <v>0.632</v>
       </c>
       <c r="N16">
-        <v>0.2857142857142857</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1323,31 +1305,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
+        <v>86</v>
+      </c>
+      <c r="C17">
         <v>39</v>
       </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
       <c r="D17">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F17">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I17">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1359,10 +1341,10 @@
         <v>0.001</v>
       </c>
       <c r="M17">
-        <v>0.9069767441860465</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="N17">
-        <v>0.2</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1376,28 +1358,28 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F18">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I18">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1409,10 +1391,10 @@
         <v>0.002</v>
       </c>
       <c r="M18">
-        <v>0.9069767441860465</v>
+        <v>0.752</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1426,31 +1408,31 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>125</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>98</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>43</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>40</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I19">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K19">
         <v>0.006</v>
@@ -1459,45 +1441,45 @@
         <v>0.003</v>
       </c>
       <c r="M19">
-        <v>0.9302325581395349</v>
+        <v>0.712</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F20">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I20">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1509,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8604651162790697</v>
+        <v>0.5702479338842975</v>
       </c>
       <c r="N20">
-        <v>0.4545454545454545</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1523,31 +1505,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I21">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1559,10 +1541,10 @@
         <v>0.001</v>
       </c>
       <c r="M21">
-        <v>0.8837209302325582</v>
+        <v>0.6198347107438017</v>
       </c>
       <c r="N21">
-        <v>0.375</v>
+        <v>0.08</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1573,31 +1555,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
+        <v>83</v>
+      </c>
+      <c r="C22">
         <v>38</v>
       </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
       <c r="D22">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="I22">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1609,10 +1591,10 @@
         <v>0.002</v>
       </c>
       <c r="M22">
-        <v>0.8837209302325582</v>
+        <v>0.6859504132231405</v>
       </c>
       <c r="N22">
-        <v>0.2857142857142857</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1623,31 +1605,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>121</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>88</v>
+      </c>
+      <c r="G23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>43</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>39</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
       <c r="H23">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I23">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1659,10 +1641,10 @@
         <v>0.003</v>
       </c>
       <c r="M23">
-        <v>0.9302325581395349</v>
+        <v>0.7520661157024794</v>
       </c>
       <c r="N23">
-        <v>0.25</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1673,31 +1655,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="E24">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G24">
         <v>6</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="I24">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1709,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8372093023255814</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="N24">
-        <v>0.4615384615384616</v>
+        <v>0.1</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1723,31 +1705,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F25">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I25">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1759,10 +1741,10 @@
         <v>0.001</v>
       </c>
       <c r="M25">
-        <v>0.8604651162790697</v>
+        <v>0.5478260869565217</v>
       </c>
       <c r="N25">
-        <v>0.4</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1773,31 +1755,31 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F26">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="I26">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1809,10 +1791,10 @@
         <v>0.002</v>
       </c>
       <c r="M26">
-        <v>0.8604651162790697</v>
+        <v>0.6</v>
       </c>
       <c r="N26">
-        <v>0.3333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1823,31 +1805,31 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F27">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I27">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1859,10 +1841,10 @@
         <v>0.003</v>
       </c>
       <c r="M27">
-        <v>0.8837209302325582</v>
+        <v>0.7043478260869566</v>
       </c>
       <c r="N27">
-        <v>0.2857142857142857</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1873,31 +1855,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F28">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I28">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1909,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.813953488372093</v>
+        <v>0.5412844036697247</v>
       </c>
       <c r="N28">
-        <v>0.4285714285714285</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1923,31 +1905,31 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F29">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I29">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1959,10 +1941,10 @@
         <v>0.001</v>
       </c>
       <c r="M29">
-        <v>0.8372093023255814</v>
+        <v>0.5504587155963303</v>
       </c>
       <c r="N29">
-        <v>0.3636363636363636</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1973,31 +1955,31 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>109</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>59</v>
+      </c>
+      <c r="G30">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="H30">
         <v>43</v>
       </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>33</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>7</v>
-      </c>
       <c r="I30">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2009,10 +1991,10 @@
         <v>0.002</v>
       </c>
       <c r="M30">
-        <v>0.8372093023255814</v>
+        <v>0.6055045871559633</v>
       </c>
       <c r="N30">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2023,31 +2005,31 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F31">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="I31">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2059,10 +2041,10 @@
         <v>0.003</v>
       </c>
       <c r="M31">
-        <v>0.8837209302325582</v>
+        <v>0.6422018348623854</v>
       </c>
       <c r="N31">
-        <v>0.375</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2073,31 +2055,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F32">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I32">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2109,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.8095238095238095</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="N32">
-        <v>0.4666666666666667</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2123,31 +2105,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D33">
+        <v>99</v>
+      </c>
+      <c r="E33">
+        <v>56</v>
+      </c>
+      <c r="F33">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
         <v>42</v>
       </c>
-      <c r="E33">
-        <v>12</v>
-      </c>
-      <c r="F33">
-        <v>30</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>8</v>
-      </c>
       <c r="I33">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2159,10 +2141,10 @@
         <v>0.001</v>
       </c>
       <c r="M33">
-        <v>0.8095238095238095</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="N33">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2173,31 +2155,31 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I34">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2209,10 +2191,10 @@
         <v>0.002</v>
       </c>
       <c r="M34">
-        <v>0.8333333333333334</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="N34">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2223,31 +2205,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E35">
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>55</v>
+      </c>
+      <c r="G35">
         <v>8</v>
       </c>
-      <c r="F35">
-        <v>34</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
       <c r="H35">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="I35">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2259,10 +2241,10 @@
         <v>0.003</v>
       </c>
       <c r="M35">
-        <v>0.8809523809523809</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N35">
-        <v>0.375</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2273,31 +2255,31 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F36">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I36">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2309,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.8</v>
+        <v>0.5760869565217391</v>
       </c>
       <c r="N36">
-        <v>0.4666666666666667</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2323,31 +2305,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E37">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F37">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I37">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2359,10 +2341,10 @@
         <v>0.001</v>
       </c>
       <c r="M37">
-        <v>0.8</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="N37">
-        <v>0.3333333333333333</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2373,31 +2355,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I38">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2409,10 +2391,10 @@
         <v>0.002</v>
       </c>
       <c r="M38">
-        <v>0.825</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="N38">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2423,31 +2405,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39">
+        <v>58</v>
+      </c>
+      <c r="C39">
         <v>34</v>
       </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
       <c r="D39">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F39">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I39">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2459,10 +2441,10 @@
         <v>0.003</v>
       </c>
       <c r="M39">
-        <v>0.85</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="N39">
-        <v>0.3333333333333333</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2473,31 +2455,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F40">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I40">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2509,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.7948717948717948</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="N40">
-        <v>0.4285714285714285</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2523,31 +2505,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D41">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F41">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H41">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I41">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2559,10 +2541,10 @@
         <v>0.001</v>
       </c>
       <c r="M41">
-        <v>0.7948717948717948</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="N41">
-        <v>0.2727272727272727</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2576,28 +2558,28 @@
         <v>26</v>
       </c>
       <c r="B42">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F42">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H42">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I42">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2609,10 +2591,10 @@
         <v>0.002</v>
       </c>
       <c r="M42">
-        <v>0.7948717948717948</v>
+        <v>0.6049382716049383</v>
       </c>
       <c r="N42">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2626,28 +2608,28 @@
         <v>26</v>
       </c>
       <c r="B43">
+        <v>49</v>
+      </c>
+      <c r="C43">
         <v>32</v>
       </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
       <c r="D43">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I43">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2659,10 +2641,10 @@
         <v>0.003</v>
       </c>
       <c r="M43">
-        <v>0.8205128205128205</v>
+        <v>0.6049382716049383</v>
       </c>
       <c r="N43">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -2676,28 +2658,28 @@
         <v>27</v>
       </c>
       <c r="B44">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F44">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H44">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I44">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2709,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.7567567567567568</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="N44">
-        <v>0.4375</v>
+        <v>0.3125</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2726,28 +2708,28 @@
         <v>27</v>
       </c>
       <c r="B45">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E45">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F45">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H45">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I45">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2759,10 +2741,10 @@
         <v>0.001</v>
       </c>
       <c r="M45">
-        <v>0.7567567567567568</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="N45">
-        <v>0.3076923076923077</v>
+        <v>0.3125</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -2773,31 +2755,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>73</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46">
         <v>29</v>
       </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>37</v>
-      </c>
-      <c r="E46">
-        <v>10</v>
-      </c>
-      <c r="F46">
-        <v>27</v>
-      </c>
       <c r="G46">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I46">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2809,10 +2791,10 @@
         <v>0.002</v>
       </c>
       <c r="M46">
-        <v>0.7837837837837838</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="N46">
-        <v>0.2</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2823,31 +2805,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D47">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F47">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I47">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2859,10 +2841,10 @@
         <v>0.003</v>
       </c>
       <c r="M47">
-        <v>0.8108108108108109</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="N47">
-        <v>0.2222222222222222</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2873,31 +2855,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E48">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F48">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G48">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H48">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I48">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2909,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.7142857142857143</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="N48">
-        <v>0.4117647058823529</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2923,31 +2905,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D49">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E49">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F49">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I49">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2959,10 +2941,10 @@
         <v>0.001</v>
       </c>
       <c r="M49">
-        <v>0.7428571428571429</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="N49">
-        <v>0.3076923076923077</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2976,25 +2958,25 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E50">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F50">
         <v>24</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H50">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I50">
         <v>24</v>
@@ -3009,10 +2991,10 @@
         <v>0.002</v>
       </c>
       <c r="M50">
-        <v>0.7428571428571429</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="N50">
-        <v>0.1818181818181818</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -3026,28 +3008,28 @@
         <v>28</v>
       </c>
       <c r="B51">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C51">
+        <v>31</v>
+      </c>
+      <c r="D51">
+        <v>65</v>
+      </c>
+      <c r="E51">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>26</v>
+      </c>
+      <c r="G51">
         <v>8</v>
       </c>
-      <c r="D51">
-        <v>35</v>
-      </c>
-      <c r="E51">
-        <v>10</v>
-      </c>
-      <c r="F51">
-        <v>25</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
       <c r="H51">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I51">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3059,10 +3041,10 @@
         <v>0.003</v>
       </c>
       <c r="M51">
-        <v>0.7714285714285715</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="N51">
-        <v>0.2</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3073,31 +3055,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B52">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D52">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3109,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.75</v>
+        <v>0.484375</v>
       </c>
       <c r="N52">
-        <v>0.5</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3123,31 +3105,31 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E53">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <v>17</v>
+      </c>
+      <c r="G53">
         <v>14</v>
       </c>
-      <c r="F53">
-        <v>18</v>
-      </c>
-      <c r="G53">
-        <v>6</v>
-      </c>
       <c r="H53">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3159,10 +3141,10 @@
         <v>0.001</v>
       </c>
       <c r="M53">
-        <v>0.75</v>
+        <v>0.484375</v>
       </c>
       <c r="N53">
-        <v>0.4285714285714285</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3173,31 +3155,31 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D54">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E54">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F54">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I54">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3209,10 +3191,10 @@
         <v>0.002</v>
       </c>
       <c r="M54">
-        <v>0.75</v>
+        <v>0.515625</v>
       </c>
       <c r="N54">
-        <v>0.3846153846153846</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3223,31 +3205,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E55">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F55">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I55">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3259,10 +3241,10 @@
         <v>0.003</v>
       </c>
       <c r="M55">
-        <v>0.78125</v>
+        <v>0.515625</v>
       </c>
       <c r="N55">
-        <v>0.3636363636363636</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3273,31 +3255,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B56">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E56">
+        <v>43</v>
+      </c>
+      <c r="F56">
+        <v>13</v>
+      </c>
+      <c r="G56">
         <v>17</v>
       </c>
-      <c r="F56">
-        <v>15</v>
-      </c>
-      <c r="G56">
-        <v>10</v>
-      </c>
       <c r="H56">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I56">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3309,10 +3291,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.78125</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="N56">
-        <v>0.5882352941176471</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3323,31 +3305,31 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B57">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D57">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E57">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F57">
+        <v>13</v>
+      </c>
+      <c r="G57">
         <v>17</v>
       </c>
-      <c r="G57">
-        <v>8</v>
-      </c>
       <c r="H57">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I57">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3359,10 +3341,10 @@
         <v>0.001</v>
       </c>
       <c r="M57">
-        <v>0.78125</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="N57">
-        <v>0.5333333333333333</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3373,31 +3355,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H58">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3409,10 +3391,10 @@
         <v>0.002</v>
       </c>
       <c r="M58">
-        <v>0.78125</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N58">
-        <v>0.5</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3423,31 +3405,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D59">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E59">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F59">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I59">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3459,10 +3441,10 @@
         <v>0.003</v>
       </c>
       <c r="M59">
-        <v>0.78125</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N59">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -3473,31 +3455,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F60">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G60">
+        <v>14</v>
+      </c>
+      <c r="H60">
+        <v>25</v>
+      </c>
+      <c r="I60">
         <v>10</v>
-      </c>
-      <c r="H60">
-        <v>8</v>
-      </c>
-      <c r="I60">
-        <v>12</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3509,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.7333333333333333</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="N60">
-        <v>0.5555555555555556</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3523,31 +3505,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B61">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E61">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F61">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H61">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I61">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3559,10 +3541,10 @@
         <v>0.001</v>
       </c>
       <c r="M61">
-        <v>0.7333333333333333</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="N61">
-        <v>0.5294117647058824</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -3573,31 +3555,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E62">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F62">
+        <v>12</v>
+      </c>
+      <c r="G62">
         <v>14</v>
       </c>
-      <c r="G62">
-        <v>8</v>
-      </c>
       <c r="H62">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I62">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3609,10 +3591,10 @@
         <v>0.002</v>
       </c>
       <c r="M62">
-        <v>0.7333333333333333</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="N62">
-        <v>0.5</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -3623,31 +3605,31 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E63">
+        <v>37</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="G63">
         <v>14</v>
       </c>
-      <c r="F63">
-        <v>16</v>
-      </c>
-      <c r="G63">
-        <v>6</v>
-      </c>
       <c r="H63">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I63">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3659,10 +3641,10 @@
         <v>0.003</v>
       </c>
       <c r="M63">
-        <v>0.7333333333333333</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="N63">
-        <v>0.4285714285714285</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3673,31 +3655,31 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B64">
         <v>22</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D64">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G64">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3709,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.8148148148148148</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="N64">
-        <v>0.6875</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3723,31 +3705,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B65">
         <v>22</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G65">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3759,10 +3741,10 @@
         <v>0.001</v>
       </c>
       <c r="M65">
-        <v>0.8148148148148148</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="N65">
-        <v>0.6875</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3773,31 +3755,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B66">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D66">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F66">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G66">
+        <v>13</v>
+      </c>
+      <c r="H66">
+        <v>24</v>
+      </c>
+      <c r="I66">
         <v>10</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66">
-        <v>12</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3809,10 +3791,10 @@
         <v>0.002</v>
       </c>
       <c r="M66">
-        <v>0.8148148148148148</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="N66">
-        <v>0.6666666666666666</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3823,31 +3805,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B67">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D67">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E67">
+        <v>37</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
         <v>13</v>
       </c>
-      <c r="F67">
-        <v>14</v>
-      </c>
-      <c r="G67">
-        <v>8</v>
-      </c>
       <c r="H67">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I67">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3859,10 +3841,10 @@
         <v>0.003</v>
       </c>
       <c r="M67">
-        <v>0.8148148148148148</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="N67">
-        <v>0.6153846153846154</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -3873,31 +3855,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B68">
         <v>20</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E68">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I68">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3909,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.8333333333333334</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="N68">
-        <v>0.6923076923076923</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -3923,31 +3905,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B69">
         <v>20</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E69">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F69">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G69">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I69">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3959,10 +3941,10 @@
         <v>0.001</v>
       </c>
       <c r="M69">
-        <v>0.8333333333333334</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="N69">
-        <v>0.6923076923076923</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -3973,31 +3955,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E70">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70">
         <v>12</v>
       </c>
-      <c r="F70">
-        <v>12</v>
-      </c>
-      <c r="G70">
-        <v>8</v>
-      </c>
       <c r="H70">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I70">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4009,10 +3991,10 @@
         <v>0.002</v>
       </c>
       <c r="M70">
-        <v>0.8333333333333334</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="N70">
-        <v>0.6666666666666666</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -4023,31 +4005,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F71">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G71">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I71">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4059,10 +4041,10 @@
         <v>0.003</v>
       </c>
       <c r="M71">
-        <v>0.8333333333333334</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="N71">
-        <v>0.6</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4073,31 +4055,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E72">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G72">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I72">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4109,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.875</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="N72">
-        <v>0.7692307692307693</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4123,31 +4105,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B73">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E73">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F73">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G73">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I73">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4159,10 +4141,10 @@
         <v>0.001</v>
       </c>
       <c r="M73">
-        <v>0.875</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="N73">
-        <v>0.7692307692307693</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4173,31 +4155,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D74">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G74">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I74">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4209,10 +4191,10 @@
         <v>0.002</v>
       </c>
       <c r="M74">
-        <v>0.875</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="N74">
-        <v>0.75</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4223,31 +4205,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B75">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F75">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I75">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4259,10 +4241,10 @@
         <v>0.003</v>
       </c>
       <c r="M75">
-        <v>0.875</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="N75">
-        <v>0.7</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4273,31 +4255,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E76">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F76">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G76">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4309,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.8571428571428571</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="N76">
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4323,31 +4305,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G77">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4359,10 +4341,10 @@
         <v>0.001</v>
       </c>
       <c r="M77">
-        <v>0.8571428571428571</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="N77">
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4373,31 +4355,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D78">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E78">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I78">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4409,10 +4391,10 @@
         <v>0.002</v>
       </c>
       <c r="M78">
-        <v>0.8571428571428571</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="N78">
-        <v>0.7272727272727273</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4426,28 +4408,28 @@
         <v>34</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E79">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F79">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G79">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I79">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4459,10 +4441,10 @@
         <v>0.003</v>
       </c>
       <c r="M79">
-        <v>0.8571428571428571</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="N79">
-        <v>0.6666666666666666</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4473,31 +4455,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80">
+        <v>21</v>
+      </c>
+      <c r="C80">
+        <v>14</v>
+      </c>
+      <c r="D80">
         <v>35</v>
       </c>
-      <c r="B80">
-        <v>16</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80">
-        <v>19</v>
-      </c>
       <c r="E80">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G80">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I80">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4509,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.8421052631578947</v>
+        <v>0.6</v>
       </c>
       <c r="N80">
-        <v>0.7</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -4523,31 +4505,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81">
+        <v>21</v>
+      </c>
+      <c r="C81">
+        <v>14</v>
+      </c>
+      <c r="D81">
         <v>35</v>
       </c>
-      <c r="B81">
-        <v>16</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="D81">
-        <v>19</v>
-      </c>
       <c r="E81">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F81">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I81">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4559,10 +4541,10 @@
         <v>0.001</v>
       </c>
       <c r="M81">
-        <v>0.8421052631578947</v>
+        <v>0.6</v>
       </c>
       <c r="N81">
-        <v>0.7</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -4573,31 +4555,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+      <c r="D82">
         <v>35</v>
       </c>
-      <c r="B82">
-        <v>16</v>
-      </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-      <c r="D82">
-        <v>19</v>
-      </c>
       <c r="E82">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G82">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4609,10 +4591,10 @@
         <v>0.002</v>
       </c>
       <c r="M82">
-        <v>0.8421052631578947</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="N82">
-        <v>0.6666666666666666</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -4623,31 +4605,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E83">
+        <v>28</v>
+      </c>
+      <c r="F83">
         <v>7</v>
       </c>
-      <c r="F83">
-        <v>12</v>
-      </c>
       <c r="G83">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I83">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4659,10 +4641,10 @@
         <v>0.003</v>
       </c>
       <c r="M83">
-        <v>0.8421052631578947</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="N83">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -4673,31 +4655,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I84">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4709,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.7777777777777778</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="N84">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -4723,31 +4705,31 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B85">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D85">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G85">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I85">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4759,10 +4741,10 @@
         <v>0.001</v>
       </c>
       <c r="M85">
-        <v>0.7777777777777778</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="N85">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -4773,31 +4755,31 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B86">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>28</v>
+      </c>
+      <c r="E86">
+        <v>24</v>
+      </c>
+      <c r="F86">
         <v>4</v>
       </c>
-      <c r="D86">
-        <v>18</v>
-      </c>
-      <c r="E86">
-        <v>9</v>
-      </c>
-      <c r="F86">
-        <v>9</v>
-      </c>
       <c r="G86">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H86">
+        <v>12</v>
+      </c>
+      <c r="I86">
         <v>4</v>
-      </c>
-      <c r="I86">
-        <v>9</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4809,10 +4791,10 @@
         <v>0.002</v>
       </c>
       <c r="M86">
-        <v>0.7777777777777778</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N86">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -4823,31 +4805,31 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B87">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>28</v>
+      </c>
+      <c r="E87">
+        <v>24</v>
+      </c>
+      <c r="F87">
         <v>4</v>
       </c>
-      <c r="D87">
-        <v>18</v>
-      </c>
-      <c r="E87">
-        <v>7</v>
-      </c>
-      <c r="F87">
-        <v>11</v>
-      </c>
       <c r="G87">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H87">
+        <v>12</v>
+      </c>
+      <c r="I87">
         <v>4</v>
-      </c>
-      <c r="I87">
-        <v>11</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4859,10 +4841,10 @@
         <v>0.003</v>
       </c>
       <c r="M87">
-        <v>0.7777777777777778</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N87">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -4873,31 +4855,31 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B88">
         <v>13</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E88">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F88">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I88">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4909,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.7647058823529411</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="N88">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -4923,31 +4905,31 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B89">
         <v>13</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E89">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I89">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4959,10 +4941,10 @@
         <v>0.001</v>
       </c>
       <c r="M89">
-        <v>0.7647058823529411</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="N89">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="O89">
         <v>1</v>
@@ -4973,31 +4955,31 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E90">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F90">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I90">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -5009,10 +4991,10 @@
         <v>0.002</v>
       </c>
       <c r="M90">
-        <v>0.7647058823529411</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="N90">
-        <v>0.5</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -5023,31 +5005,31 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B91">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E91">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>11</v>
+      </c>
+      <c r="H91">
         <v>10</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>3</v>
-      </c>
-      <c r="H91">
-        <v>4</v>
-      </c>
-      <c r="I91">
-        <v>10</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5059,10 +5041,10 @@
         <v>0.003</v>
       </c>
       <c r="M91">
-        <v>0.7647058823529411</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="N91">
-        <v>0.4285714285714285</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -5073,31 +5055,31 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>23</v>
+      </c>
+      <c r="E92">
+        <v>21</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
         <v>10</v>
       </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-      <c r="D92">
-        <v>14</v>
-      </c>
-      <c r="E92">
-        <v>7</v>
-      </c>
-      <c r="F92">
-        <v>7</v>
-      </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
       <c r="H92">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I92">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5109,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.7142857142857143</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="N92">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="O92">
         <v>1</v>
@@ -5123,31 +5105,31 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>23</v>
+      </c>
+      <c r="E93">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
         <v>10</v>
       </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93">
-        <v>14</v>
-      </c>
-      <c r="E93">
-        <v>7</v>
-      </c>
-      <c r="F93">
-        <v>7</v>
-      </c>
-      <c r="G93">
-        <v>3</v>
-      </c>
       <c r="H93">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I93">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5159,10 +5141,10 @@
         <v>0.001</v>
       </c>
       <c r="M93">
-        <v>0.7142857142857143</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="N93">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -5173,31 +5155,31 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B94">
+        <v>13</v>
+      </c>
+      <c r="C94">
         <v>10</v>
       </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
       <c r="D94">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F94">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I94">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5209,10 +5191,10 @@
         <v>0.002</v>
       </c>
       <c r="M94">
-        <v>0.7142857142857143</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="N94">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -5223,31 +5205,31 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B95">
+        <v>13</v>
+      </c>
+      <c r="C95">
         <v>10</v>
       </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
       <c r="D95">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F95">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I95">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5259,10 +5241,10 @@
         <v>0.003</v>
       </c>
       <c r="M95">
-        <v>0.7142857142857143</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="N95">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -5273,31 +5255,31 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B96">
         <v>10</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5309,10 +5291,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="N96">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -5323,31 +5305,31 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B97">
         <v>10</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I97">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5359,10 +5341,10 @@
         <v>0.001</v>
       </c>
       <c r="M97">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="N97">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -5373,31 +5355,31 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
         <v>8</v>
       </c>
-      <c r="G98">
-        <v>2</v>
-      </c>
       <c r="H98">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I98">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5409,10 +5391,10 @@
         <v>0.002</v>
       </c>
       <c r="M98">
-        <v>0.7142857142857143</v>
+        <v>0.55</v>
       </c>
       <c r="N98">
-        <v>0.3333333333333333</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -5423,31 +5405,31 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D99">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>8</v>
+      </c>
+      <c r="H99">
         <v>9</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>4</v>
-      </c>
       <c r="I99">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5459,10 +5441,10 @@
         <v>0.003</v>
       </c>
       <c r="M99">
-        <v>0.7142857142857143</v>
+        <v>0.55</v>
       </c>
       <c r="N99">
-        <v>0.2</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -5473,31 +5455,31 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E100">
+        <v>15</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
         <v>6</v>
       </c>
-      <c r="F100">
-        <v>7</v>
-      </c>
-      <c r="G100">
-        <v>3</v>
-      </c>
       <c r="H100">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I100">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5509,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.7692307692307693</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="N100">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -5523,31 +5505,31 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D101">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E101">
+        <v>15</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
         <v>6</v>
       </c>
-      <c r="F101">
-        <v>7</v>
-      </c>
-      <c r="G101">
-        <v>3</v>
-      </c>
       <c r="H101">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -5559,10 +5541,10 @@
         <v>0.001</v>
       </c>
       <c r="M101">
-        <v>0.7692307692307693</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="N101">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -5573,31 +5555,31 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E102">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G102">
+        <v>6</v>
+      </c>
+      <c r="H102">
+        <v>9</v>
+      </c>
+      <c r="I102">
         <v>2</v>
-      </c>
-      <c r="H102">
-        <v>3</v>
-      </c>
-      <c r="I102">
-        <v>8</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5609,7 +5591,7 @@
         <v>0.002</v>
       </c>
       <c r="M102">
-        <v>0.7692307692307693</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="N102">
         <v>0.4</v>
@@ -5623,31 +5605,31 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D103">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>6</v>
+      </c>
+      <c r="H103">
         <v>9</v>
       </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>3</v>
-      </c>
       <c r="I103">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -5659,10 +5641,10 @@
         <v>0.003</v>
       </c>
       <c r="M103">
-        <v>0.7692307692307693</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="N103">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -5673,31 +5655,31 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B104">
         <v>9</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D104">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I104">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -5709,10 +5691,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.75</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="N104">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -5723,31 +5705,31 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B105">
         <v>9</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D105">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E105">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I105">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -5759,10 +5741,10 @@
         <v>0.001</v>
       </c>
       <c r="M105">
-        <v>0.75</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="N105">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -5773,31 +5755,31 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B106">
         <v>9</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D106">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
         <v>7</v>
       </c>
-      <c r="G106">
+      <c r="H106">
+        <v>8</v>
+      </c>
+      <c r="I106">
         <v>2</v>
-      </c>
-      <c r="H106">
-        <v>3</v>
-      </c>
-      <c r="I106">
-        <v>7</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5809,10 +5791,10 @@
         <v>0.002</v>
       </c>
       <c r="M106">
-        <v>0.75</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="N106">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -5823,31 +5805,31 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B107">
         <v>9</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D107">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>7</v>
+      </c>
+      <c r="H107">
         <v>8</v>
       </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>3</v>
-      </c>
       <c r="I107">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5859,10 +5841,10 @@
         <v>0.003</v>
       </c>
       <c r="M107">
-        <v>0.75</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="N107">
-        <v>0.25</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -5873,31 +5855,31 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B108">
         <v>9</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D108">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E108">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F108">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I108">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -5909,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="N108">
         <v>0.5</v>
@@ -5923,31 +5905,31 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B109">
         <v>9</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D109">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -5959,7 +5941,7 @@
         <v>0.001</v>
       </c>
       <c r="M109">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="N109">
         <v>0.5</v>
@@ -5973,31 +5955,31 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B110">
         <v>9</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D110">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
         <v>7</v>
       </c>
-      <c r="G110">
+      <c r="H110">
+        <v>7</v>
+      </c>
+      <c r="I110">
         <v>2</v>
-      </c>
-      <c r="H110">
-        <v>3</v>
-      </c>
-      <c r="I110">
-        <v>7</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6009,10 +5991,10 @@
         <v>0.002</v>
       </c>
       <c r="M110">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="N110">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -6023,31 +6005,31 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B111">
         <v>9</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D111">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I111">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -6059,10 +6041,10 @@
         <v>0.003</v>
       </c>
       <c r="M111">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="N111">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -6073,31 +6055,31 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E112">
+        <v>12</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>8</v>
+      </c>
+      <c r="H112">
         <v>4</v>
       </c>
-      <c r="F112">
-        <v>6</v>
-      </c>
-      <c r="G112">
-        <v>3</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
       <c r="I112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6109,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.9</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N112">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6123,31 +6105,31 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B113">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E113">
+        <v>12</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>8</v>
+      </c>
+      <c r="H113">
         <v>4</v>
       </c>
-      <c r="F113">
-        <v>6</v>
-      </c>
-      <c r="G113">
-        <v>3</v>
-      </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
       <c r="I113">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6159,10 +6141,10 @@
         <v>0.001</v>
       </c>
       <c r="M113">
-        <v>0.9</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N113">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -6173,31 +6155,31 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G114">
+        <v>8</v>
+      </c>
+      <c r="H114">
+        <v>4</v>
+      </c>
+      <c r="I114">
         <v>2</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>7</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6209,7 +6191,7 @@
         <v>0.002</v>
       </c>
       <c r="M114">
-        <v>0.9</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N114">
         <v>0.6666666666666666</v>
@@ -6223,31 +6205,31 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E115">
+        <v>12</v>
+      </c>
+      <c r="F115">
         <v>2</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>8</v>
       </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
       <c r="H115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6259,10 +6241,10 @@
         <v>0.003</v>
       </c>
       <c r="M115">
-        <v>0.9</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N115">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -6273,31 +6255,31 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B116">
         <v>9</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E116">
+        <v>12</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>8</v>
+      </c>
+      <c r="H116">
         <v>4</v>
       </c>
-      <c r="F116">
-        <v>6</v>
-      </c>
-      <c r="G116">
-        <v>3</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
       <c r="I116">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6309,10 +6291,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.9</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N116">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -6323,31 +6305,31 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B117">
         <v>9</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E117">
+        <v>12</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>8</v>
+      </c>
+      <c r="H117">
         <v>4</v>
       </c>
-      <c r="F117">
-        <v>6</v>
-      </c>
-      <c r="G117">
-        <v>3</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
       <c r="I117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6359,10 +6341,10 @@
         <v>0.001</v>
       </c>
       <c r="M117">
-        <v>0.9</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N117">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O117">
         <v>1</v>
@@ -6373,31 +6355,31 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B118">
         <v>9</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F118">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6409,7 +6391,7 @@
         <v>0.002</v>
       </c>
       <c r="M118">
-        <v>0.9</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N118">
         <v>0.6666666666666666</v>
@@ -6423,31 +6405,31 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B119">
         <v>9</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
         <v>8</v>
       </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
       <c r="H119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6459,10 +6441,10 @@
         <v>0.003</v>
       </c>
       <c r="M119">
-        <v>0.9</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N119">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O119">
         <v>1</v>
@@ -6473,31 +6455,31 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D120">
+        <v>11</v>
+      </c>
+      <c r="E120">
         <v>10</v>
       </c>
-      <c r="E120">
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>6</v>
+      </c>
+      <c r="H120">
         <v>4</v>
       </c>
-      <c r="F120">
-        <v>6</v>
-      </c>
-      <c r="G120">
-        <v>3</v>
-      </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
       <c r="I120">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6509,10 +6491,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.9</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N120">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -6523,31 +6505,31 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D121">
+        <v>11</v>
+      </c>
+      <c r="E121">
         <v>10</v>
       </c>
-      <c r="E121">
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>6</v>
+      </c>
+      <c r="H121">
         <v>4</v>
       </c>
-      <c r="F121">
-        <v>6</v>
-      </c>
-      <c r="G121">
-        <v>3</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
       <c r="I121">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -6559,10 +6541,10 @@
         <v>0.001</v>
       </c>
       <c r="M121">
-        <v>0.9</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N121">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O121">
         <v>1</v>
@@ -6573,31 +6555,31 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D122">
+        <v>11</v>
+      </c>
+      <c r="E122">
         <v>10</v>
       </c>
-      <c r="E122">
-        <v>3</v>
-      </c>
       <c r="F122">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I122">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -6609,10 +6591,10 @@
         <v>0.002</v>
       </c>
       <c r="M122">
-        <v>0.9</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N122">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="O122">
         <v>1</v>
@@ -6623,31 +6605,31 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D123">
+        <v>11</v>
+      </c>
+      <c r="E123">
         <v>10</v>
       </c>
-      <c r="E123">
-        <v>2</v>
-      </c>
       <c r="F123">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -6659,10 +6641,10 @@
         <v>0.003</v>
       </c>
       <c r="M123">
-        <v>0.9</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N123">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O123">
         <v>1</v>
@@ -6673,31 +6655,31 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B124">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D124">
+        <v>10</v>
+      </c>
+      <c r="E124">
         <v>9</v>
       </c>
-      <c r="E124">
-        <v>3</v>
-      </c>
       <c r="F124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -6709,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.8888888888888888</v>
+        <v>0.6</v>
       </c>
       <c r="N124">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O124">
         <v>1</v>
@@ -6723,31 +6705,31 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B125">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D125">
+        <v>10</v>
+      </c>
+      <c r="E125">
         <v>9</v>
       </c>
-      <c r="E125">
-        <v>3</v>
-      </c>
       <c r="F125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -6759,10 +6741,10 @@
         <v>0.001</v>
       </c>
       <c r="M125">
-        <v>0.8888888888888888</v>
+        <v>0.6</v>
       </c>
       <c r="N125">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O125">
         <v>1</v>
@@ -6773,31 +6755,31 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B126">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126">
         <v>9</v>
       </c>
-      <c r="E126">
-        <v>2</v>
-      </c>
       <c r="F126">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -6809,10 +6791,10 @@
         <v>0.002</v>
       </c>
       <c r="M126">
-        <v>0.8888888888888888</v>
+        <v>0.6</v>
       </c>
       <c r="N126">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O126">
         <v>1</v>
@@ -6823,31 +6805,31 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B127">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
         <v>9</v>
       </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
       <c r="F127">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -6859,10 +6841,10 @@
         <v>0.003</v>
       </c>
       <c r="M127">
-        <v>0.8888888888888888</v>
+        <v>0.6</v>
       </c>
       <c r="N127">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O127">
         <v>1</v>
@@ -6873,31 +6855,31 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128">
+        <v>9</v>
+      </c>
+      <c r="E128">
         <v>8</v>
       </c>
-      <c r="E128">
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>5</v>
+      </c>
+      <c r="H128">
         <v>3</v>
       </c>
-      <c r="F128">
-        <v>5</v>
-      </c>
-      <c r="G128">
-        <v>2</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
       <c r="I128">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -6909,10 +6891,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N128">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="O128">
         <v>1</v>
@@ -6923,31 +6905,31 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D129">
+        <v>9</v>
+      </c>
+      <c r="E129">
         <v>8</v>
       </c>
-      <c r="E129">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129">
         <v>3</v>
       </c>
-      <c r="F129">
-        <v>5</v>
-      </c>
-      <c r="G129">
-        <v>2</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
       <c r="I129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -6959,10 +6941,10 @@
         <v>0.001</v>
       </c>
       <c r="M129">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N129">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="O129">
         <v>1</v>
@@ -6973,31 +6955,31 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130">
+        <v>9</v>
+      </c>
+      <c r="E130">
         <v>8</v>
       </c>
-      <c r="E130">
-        <v>2</v>
-      </c>
       <c r="F130">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -7009,10 +6991,10 @@
         <v>0.002</v>
       </c>
       <c r="M130">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N130">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -7023,31 +7005,31 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131">
+        <v>9</v>
+      </c>
+      <c r="E131">
         <v>8</v>
       </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
       <c r="F131">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7059,10 +7041,10 @@
         <v>0.003</v>
       </c>
       <c r="M131">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="O131">
         <v>1</v>
@@ -7073,31 +7055,31 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G132">
+        <v>4</v>
+      </c>
+      <c r="H132">
         <v>2</v>
       </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
       <c r="I132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7109,45 +7091,42 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N132">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O132">
-        <v>1</v>
-      </c>
       <c r="P132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G133">
+        <v>4</v>
+      </c>
+      <c r="H133">
         <v>2</v>
       </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
       <c r="I133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7159,45 +7138,42 @@
         <v>0.001</v>
       </c>
       <c r="M133">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N133">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O133">
-        <v>1</v>
-      </c>
       <c r="P133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B134">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>4</v>
+      </c>
+      <c r="H134">
         <v>2</v>
       </c>
-      <c r="F134">
-        <v>6</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
       <c r="I134">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -7209,13 +7185,10 @@
         <v>0.002</v>
       </c>
       <c r="M134">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N134">
-        <v>0.5</v>
-      </c>
-      <c r="O134">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P134">
         <v>1</v>
@@ -7223,31 +7196,31 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B135">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F135">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7259,13 +7232,10 @@
         <v>0.003</v>
       </c>
       <c r="M135">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N135">
-        <v>0</v>
-      </c>
-      <c r="O135">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P135">
         <v>1</v>

--- a/tmp_grid_res.xlsx
+++ b/tmp_grid_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="37">
   <si>
     <t>win</t>
   </si>
@@ -61,88 +61,70 @@
     <t>close by time lose/lose</t>
   </si>
   <si>
-    <t>2021-12-14 09:30:00 -&gt; 2022-06-28 09:33:00</t>
+    <t>2022-02-08 09:31:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:30:00 -&gt; 2022-06-28 09:31:00</t>
+    <t>2022-02-08 09:32:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:58:00 -&gt; 2022-06-28 09:33:00</t>
+    <t>2022-02-08 09:36:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:58:00 -&gt; 2022-06-28 09:31:00</t>
+    <t>2022-02-08 09:42:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:59:00 -&gt; 2022-06-28 10:09:00</t>
+    <t>2022-02-08 10:41:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:59:00 -&gt; 2022-06-28 10:01:00</t>
+    <t>2022-02-08 10:43:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 13:28:00 -&gt; 2022-06-28 10:09:00</t>
+    <t>2022-02-08 10:44:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 13:28:00 -&gt; 2022-06-28 10:01:00</t>
+    <t>2022-02-08 10:50:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 13:33:00 -&gt; 2022-06-28 15:00:00</t>
+    <t>2022-02-08 11:03:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 13:37:00 -&gt; 2022-06-28 15:00:00</t>
+    <t>2022-02-08 11:04:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 14:46:00 -&gt; 2022-06-28 15:00:00</t>
+    <t>2022-02-09 13:07:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-15 10:04:00 -&gt; 2022-06-27 15:00:00</t>
+    <t>2022-02-09 13:08:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-15 10:09:00 -&gt; 2022-06-27 15:00:00</t>
+    <t>2022-02-09 13:18:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-15 10:15:00 -&gt; 2022-06-24 15:00:00</t>
+    <t>2022-02-14 10:26:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-15 11:01:00 -&gt; 2022-06-24 15:00:00</t>
+    <t>2022-02-14 10:27:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-15 11:19:00 -&gt; 2022-06-24 15:00:00</t>
+    <t>2022-02-14 10:28:00 -&gt; 2022-06-09 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-16 14:05:00 -&gt; 2022-06-24 15:00:00</t>
+    <t>2022-02-14 10:28:00 -&gt; 2022-06-08 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-16 14:09:00 -&gt; 2022-06-24 15:00:00</t>
+    <t>2022-02-14 11:01:00 -&gt; 2022-06-08 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-21 14:52:00 -&gt; 2022-06-24 15:00:00</t>
+    <t>2022-02-14 11:07:00 -&gt; 2022-06-08 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-23 13:00:00 -&gt; 2022-06-23 15:00:00</t>
+    <t>2022-02-14 11:08:00 -&gt; 2022-05-25 15:00:00</t>
   </si>
   <si>
-    <t>2022-01-18 10:36:00 -&gt; 2022-06-23 15:00:00</t>
+    <t>2022-02-14 13:29:00 -&gt; 2022-05-25 15:00:00</t>
   </si>
   <si>
-    <t>2022-01-24 14:43:00 -&gt; 2022-06-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28 10:17:00 -&gt; 2022-06-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28 10:22:00 -&gt; 2022-06-15 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28 10:23:00 -&gt; 2022-06-15 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28 10:23:00 -&gt; 2022-05-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28 10:24:00 -&gt; 2022-05-23 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-02-14 14:30:00 -&gt; 2022-04-26 15:00:00</t>
+    <t>2022-02-14 13:30:00 -&gt; 2022-05-25 15:00:00</t>
   </si>
 </sst>
 </file>
@@ -558,31 +540,31 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0.001</v>
@@ -591,48 +573,48 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5348837209302325</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="N2">
-        <v>0.08</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="O2">
-        <v>0.6442307692307693</v>
+        <v>0.984375</v>
       </c>
       <c r="P2">
-        <v>0.3833333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0.002</v>
@@ -641,48 +623,48 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5348837209302325</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="N3">
-        <v>0.06451612903225806</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="O3">
-        <v>0.6836734693877551</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>129</v>
-      </c>
-      <c r="E4">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>108</v>
-      </c>
-      <c r="G4">
+      <c r="I4">
+        <v>64</v>
+      </c>
+      <c r="J4">
         <v>2</v>
-      </c>
-      <c r="H4">
-        <v>19</v>
-      </c>
-      <c r="I4">
-        <v>60</v>
-      </c>
-      <c r="J4">
-        <v>48</v>
       </c>
       <c r="K4">
         <v>0.002</v>
@@ -691,48 +673,48 @@
         <v>0.001</v>
       </c>
       <c r="M4">
-        <v>0.4806201550387597</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="N4">
-        <v>0.09523809523809523</v>
+        <v>0.0625</v>
       </c>
       <c r="O4">
-        <v>0.5555555555555556</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="P4">
-        <v>0.2835820895522388</v>
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0.003</v>
@@ -741,48 +723,48 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6589147286821705</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="N5">
-        <v>0.06060606060606061</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="O5">
-        <v>0.8645833333333334</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.7045454545454546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0.003</v>
@@ -791,48 +773,48 @@
         <v>0.001</v>
       </c>
       <c r="M6">
-        <v>0.5658914728682171</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="N6">
-        <v>0.08695652173913043</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="O6">
-        <v>0.6698113207547169</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>14</v>
       </c>
       <c r="F7">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J7">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <v>0.003</v>
@@ -841,45 +823,45 @@
         <v>0.002</v>
       </c>
       <c r="M7">
-        <v>0.4263565891472868</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="N7">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="O7">
-        <v>0.4608695652173913</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="P7">
-        <v>0.1621621621621622</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -891,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7286821705426356</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="N8">
-        <v>0.05405405405405406</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -905,34 +887,34 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0.004</v>
@@ -941,48 +923,48 @@
         <v>0.001</v>
       </c>
       <c r="M9">
-        <v>0.6976744186046512</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="N9">
-        <v>0.07142857142857142</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="O9">
-        <v>0.8712871287128713</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>82</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
         <v>68</v>
       </c>
-      <c r="C10">
-        <v>61</v>
-      </c>
-      <c r="D10">
-        <v>129</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>109</v>
-      </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J10">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0.004</v>
@@ -991,48 +973,48 @@
         <v>0.002</v>
       </c>
       <c r="M10">
-        <v>0.5271317829457365</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="N10">
-        <v>0.1</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="O10">
-        <v>0.6055045871559633</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.2950819672131147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>69</v>
+      </c>
+      <c r="J11">
         <v>2</v>
-      </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <v>46</v>
-      </c>
-      <c r="J11">
-        <v>66</v>
       </c>
       <c r="K11">
         <v>0.004</v>
@@ -1041,16 +1023,16 @@
         <v>0.003</v>
       </c>
       <c r="M11">
-        <v>0.3720930232558139</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="N11">
-        <v>0.1176470588235294</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O11">
-        <v>0.4107142857142857</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="P11">
-        <v>0.1851851851851852</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1058,28 +1040,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I12">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1091,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6929133858267716</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="N12">
-        <v>0.07142857142857142</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1108,28 +1090,28 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1141,10 +1123,10 @@
         <v>0.001</v>
       </c>
       <c r="M13">
-        <v>0.7716535433070866</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="N13">
-        <v>0.09375</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1155,34 +1137,34 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I14">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="J14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0.005</v>
@@ -1191,48 +1173,48 @@
         <v>0.002</v>
       </c>
       <c r="M14">
-        <v>0.7007874015748031</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="N14">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O14">
-        <v>0.8349514563106796</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.5526315789473685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C15">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0.005</v>
@@ -1241,45 +1223,45 @@
         <v>0.003</v>
       </c>
       <c r="M15">
-        <v>0.5118110236220472</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="N15">
-        <v>0.15</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O15">
-        <v>0.5794392523364486</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.2741935483870968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I16">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1291,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.632</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="N16">
-        <v>0.06122448979591837</v>
+        <v>0.16</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1305,31 +1287,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C17">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="E17">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I17">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1341,10 +1323,10 @@
         <v>0.001</v>
       </c>
       <c r="M17">
-        <v>0.6879999999999999</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="N17">
-        <v>0.07142857142857142</v>
+        <v>0.1</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1355,31 +1337,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="E18">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I18">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1391,10 +1373,10 @@
         <v>0.002</v>
       </c>
       <c r="M18">
-        <v>0.752</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="N18">
-        <v>0.08823529411764706</v>
+        <v>0.125</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1405,34 +1387,34 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I19">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0.006</v>
@@ -1441,45 +1423,45 @@
         <v>0.003</v>
       </c>
       <c r="M19">
-        <v>0.712</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="N19">
-        <v>0.1111111111111111</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O19">
-        <v>0.8775510204081632</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I20">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1491,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5702479338842975</v>
+        <v>0.7125</v>
       </c>
       <c r="N20">
-        <v>0.07142857142857142</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1505,31 +1487,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I21">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1541,10 +1523,10 @@
         <v>0.001</v>
       </c>
       <c r="M21">
-        <v>0.6198347107438017</v>
+        <v>0.7625</v>
       </c>
       <c r="N21">
-        <v>0.08</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1555,31 +1537,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I22">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1591,10 +1573,10 @@
         <v>0.002</v>
       </c>
       <c r="M22">
-        <v>0.6859504132231405</v>
+        <v>0.8125</v>
       </c>
       <c r="N22">
-        <v>0.07317073170731707</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1605,31 +1587,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E23">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F23">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I23">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1641,10 +1623,10 @@
         <v>0.003</v>
       </c>
       <c r="M23">
-        <v>0.7520661157024794</v>
+        <v>0.825</v>
       </c>
       <c r="N23">
-        <v>0.09090909090909091</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1655,31 +1637,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F24">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I24">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1691,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5304347826086957</v>
+        <v>0.7468354430379747</v>
       </c>
       <c r="N24">
-        <v>0.1</v>
+        <v>0.375</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1705,31 +1687,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E25">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I25">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1741,10 +1723,10 @@
         <v>0.001</v>
       </c>
       <c r="M25">
-        <v>0.5478260869565217</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="N25">
-        <v>0.07142857142857142</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1755,31 +1737,31 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F26">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I26">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1791,10 +1773,10 @@
         <v>0.002</v>
       </c>
       <c r="M26">
-        <v>0.6</v>
+        <v>0.7721518987341772</v>
       </c>
       <c r="N26">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1805,31 +1787,31 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E27">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F27">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I27">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1841,10 +1823,10 @@
         <v>0.003</v>
       </c>
       <c r="M27">
-        <v>0.7043478260869566</v>
+        <v>0.7974683544303798</v>
       </c>
       <c r="N27">
-        <v>0.08108108108108109</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1855,31 +1837,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E28">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F28">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I28">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1891,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.5412844036697247</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="N28">
-        <v>0.180327868852459</v>
+        <v>0.375</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1905,31 +1887,31 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E29">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F29">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>8</v>
       </c>
       <c r="H29">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I29">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1941,10 +1923,10 @@
         <v>0.001</v>
       </c>
       <c r="M29">
-        <v>0.5504587155963303</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="N29">
-        <v>0.1403508771929824</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1955,31 +1937,31 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>77</v>
+      </c>
+      <c r="E30">
         <v>24</v>
       </c>
-      <c r="B30">
-        <v>66</v>
-      </c>
-      <c r="C30">
-        <v>43</v>
-      </c>
-      <c r="D30">
-        <v>109</v>
-      </c>
-      <c r="E30">
-        <v>50</v>
-      </c>
       <c r="F30">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I30">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1991,10 +1973,10 @@
         <v>0.002</v>
       </c>
       <c r="M30">
-        <v>0.6055045871559633</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="N30">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2005,31 +1987,31 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E31">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F31">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I31">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2041,10 +2023,10 @@
         <v>0.003</v>
       </c>
       <c r="M31">
-        <v>0.6422018348623854</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="N31">
-        <v>0.07142857142857142</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2055,31 +2037,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E32">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F32">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I32">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2091,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.5656565656565656</v>
+        <v>0.72</v>
       </c>
       <c r="N32">
-        <v>0.2711864406779661</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2105,31 +2087,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E33">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F33">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G33">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H33">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I33">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2141,10 +2123,10 @@
         <v>0.001</v>
       </c>
       <c r="M33">
-        <v>0.5757575757575758</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="N33">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2155,28 +2137,28 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F34">
         <v>49</v>
       </c>
       <c r="G34">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I34">
         <v>49</v>
@@ -2191,10 +2173,10 @@
         <v>0.002</v>
       </c>
       <c r="M34">
-        <v>0.6262626262626263</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="N34">
-        <v>0.26</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2205,31 +2187,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E35">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F35">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H35">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I35">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2241,10 +2223,10 @@
         <v>0.003</v>
       </c>
       <c r="M35">
-        <v>0.6363636363636364</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="N35">
-        <v>0.1818181818181818</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2255,31 +2237,31 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E36">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F36">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G36">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H36">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I36">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2291,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.5760869565217391</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="N36">
-        <v>0.3275862068965517</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2305,31 +2287,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E37">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F37">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G37">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I37">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2341,10 +2323,10 @@
         <v>0.001</v>
       </c>
       <c r="M37">
-        <v>0.5869565217391305</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="N37">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2355,31 +2337,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F38">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G38">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H38">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I38">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2391,10 +2373,10 @@
         <v>0.002</v>
       </c>
       <c r="M38">
-        <v>0.6304347826086957</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="N38">
-        <v>0.32</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2405,31 +2387,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E39">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F39">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I39">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2441,10 +2423,10 @@
         <v>0.003</v>
       </c>
       <c r="M39">
-        <v>0.6304347826086957</v>
+        <v>0.75</v>
       </c>
       <c r="N39">
-        <v>0.2444444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2455,31 +2437,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I40">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2491,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.5555555555555556</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="N40">
-        <v>0.2941176470588235</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2505,31 +2487,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C41">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F41">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G41">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H41">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I41">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2541,10 +2523,10 @@
         <v>0.001</v>
       </c>
       <c r="M41">
-        <v>0.5679012345679012</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="N41">
-        <v>0.2857142857142857</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2555,31 +2537,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E42">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F42">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G42">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H42">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I42">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2591,10 +2573,10 @@
         <v>0.002</v>
       </c>
       <c r="M42">
-        <v>0.6049382716049383</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="N42">
-        <v>0.2727272727272727</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2605,31 +2587,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F43">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I43">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2641,10 +2623,10 @@
         <v>0.003</v>
       </c>
       <c r="M43">
-        <v>0.6049382716049383</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="N43">
-        <v>0.2</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -2655,31 +2637,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E44">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F44">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I44">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2691,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.547945205479452</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="N44">
-        <v>0.3125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2705,31 +2687,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E45">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F45">
+        <v>32</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
         <v>25</v>
       </c>
-      <c r="G45">
-        <v>15</v>
-      </c>
-      <c r="H45">
-        <v>33</v>
-      </c>
       <c r="I45">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2741,10 +2723,10 @@
         <v>0.001</v>
       </c>
       <c r="M45">
-        <v>0.547945205479452</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="N45">
-        <v>0.3125</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -2755,31 +2737,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E46">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F46">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G46">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I46">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2791,10 +2773,10 @@
         <v>0.002</v>
       </c>
       <c r="M46">
-        <v>0.5753424657534246</v>
+        <v>0.6417910447761194</v>
       </c>
       <c r="N46">
-        <v>0.2954545454545455</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2805,31 +2787,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B47">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>67</v>
+      </c>
+      <c r="E47">
         <v>31</v>
       </c>
-      <c r="D47">
-        <v>73</v>
-      </c>
-      <c r="E47">
-        <v>41</v>
-      </c>
       <c r="F47">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H47">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I47">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2841,10 +2823,10 @@
         <v>0.003</v>
       </c>
       <c r="M47">
-        <v>0.5753424657534246</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="N47">
-        <v>0.2439024390243902</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2855,31 +2837,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C48">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E48">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I48">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2891,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.4923076923076923</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="N48">
-        <v>0.2666666666666667</v>
+        <v>0.325</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2905,31 +2887,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B49">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E49">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H49">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2941,10 +2923,10 @@
         <v>0.001</v>
       </c>
       <c r="M49">
-        <v>0.4923076923076923</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="N49">
-        <v>0.2666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2955,31 +2937,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E50">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F50">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H50">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I50">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2991,10 +2973,10 @@
         <v>0.002</v>
       </c>
       <c r="M50">
-        <v>0.5230769230769231</v>
+        <v>0.6212121212121212</v>
       </c>
       <c r="N50">
-        <v>0.2439024390243902</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -3005,31 +2987,31 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>66</v>
+      </c>
+      <c r="E51">
         <v>31</v>
       </c>
-      <c r="D51">
-        <v>65</v>
-      </c>
-      <c r="E51">
-        <v>39</v>
-      </c>
       <c r="F51">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I51">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3041,10 +3023,10 @@
         <v>0.003</v>
       </c>
       <c r="M51">
-        <v>0.5230769230769231</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N51">
-        <v>0.2051282051282051</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3055,31 +3037,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D52">
         <v>64</v>
       </c>
       <c r="E52">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F52">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H52">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I52">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3091,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.484375</v>
+        <v>0.59375</v>
       </c>
       <c r="N52">
-        <v>0.2978723404255319</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3105,31 +3087,31 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B53">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D53">
         <v>64</v>
       </c>
       <c r="E53">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G53">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H53">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I53">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3141,10 +3123,10 @@
         <v>0.001</v>
       </c>
       <c r="M53">
-        <v>0.484375</v>
+        <v>0.59375</v>
       </c>
       <c r="N53">
-        <v>0.2978723404255319</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3155,31 +3137,31 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B54">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D54">
         <v>64</v>
       </c>
       <c r="E54">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F54">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G54">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I54">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3191,10 +3173,10 @@
         <v>0.002</v>
       </c>
       <c r="M54">
-        <v>0.515625</v>
+        <v>0.625</v>
       </c>
       <c r="N54">
-        <v>0.2790697674418605</v>
+        <v>0.25</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3205,31 +3187,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C55">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D55">
         <v>64</v>
       </c>
       <c r="E55">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F55">
+        <v>34</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+      <c r="H55">
         <v>23</v>
       </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="H55">
-        <v>31</v>
-      </c>
       <c r="I55">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3241,10 +3223,10 @@
         <v>0.003</v>
       </c>
       <c r="M55">
-        <v>0.515625</v>
+        <v>0.640625</v>
       </c>
       <c r="N55">
-        <v>0.2439024390243902</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3255,31 +3237,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E56">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I56">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3291,10 +3273,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.5357142857142857</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="N56">
-        <v>0.3953488372093023</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3305,31 +3287,31 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E57">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F57">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G57">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H57">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I57">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3341,10 +3323,10 @@
         <v>0.001</v>
       </c>
       <c r="M57">
-        <v>0.5357142857142857</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="N57">
-        <v>0.3953488372093023</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3355,31 +3337,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>40</v>
+      </c>
+      <c r="C58">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>63</v>
+      </c>
+      <c r="E58">
+        <v>33</v>
+      </c>
+      <c r="F58">
         <v>30</v>
       </c>
-      <c r="B58">
-        <v>32</v>
-      </c>
-      <c r="C58">
-        <v>24</v>
-      </c>
-      <c r="D58">
-        <v>56</v>
-      </c>
-      <c r="E58">
-        <v>39</v>
-      </c>
-      <c r="F58">
-        <v>17</v>
-      </c>
       <c r="G58">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3391,10 +3373,10 @@
         <v>0.002</v>
       </c>
       <c r="M58">
-        <v>0.5714285714285714</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="N58">
-        <v>0.3846153846153846</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3405,31 +3387,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B59">
+        <v>41</v>
+      </c>
+      <c r="C59">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>63</v>
+      </c>
+      <c r="E59">
+        <v>31</v>
+      </c>
+      <c r="F59">
         <v>32</v>
       </c>
-      <c r="C59">
-        <v>24</v>
-      </c>
-      <c r="D59">
-        <v>56</v>
-      </c>
-      <c r="E59">
-        <v>39</v>
-      </c>
-      <c r="F59">
-        <v>17</v>
-      </c>
       <c r="G59">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I59">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3441,10 +3423,10 @@
         <v>0.003</v>
       </c>
       <c r="M59">
-        <v>0.5714285714285714</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="N59">
-        <v>0.3846153846153846</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -3455,31 +3437,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B60">
+        <v>37</v>
+      </c>
+      <c r="C60">
         <v>24</v>
       </c>
-      <c r="C60">
-        <v>25</v>
-      </c>
       <c r="D60">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E60">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3491,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.4897959183673469</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="N60">
-        <v>0.358974358974359</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3505,31 +3487,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B61">
+        <v>37</v>
+      </c>
+      <c r="C61">
         <v>24</v>
       </c>
-      <c r="C61">
+      <c r="D61">
+        <v>61</v>
+      </c>
+      <c r="E61">
+        <v>36</v>
+      </c>
+      <c r="F61">
         <v>25</v>
       </c>
-      <c r="D61">
-        <v>49</v>
-      </c>
-      <c r="E61">
-        <v>39</v>
-      </c>
-      <c r="F61">
-        <v>10</v>
-      </c>
       <c r="G61">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H61">
+        <v>24</v>
+      </c>
+      <c r="I61">
         <v>25</v>
-      </c>
-      <c r="I61">
-        <v>10</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3541,10 +3523,10 @@
         <v>0.001</v>
       </c>
       <c r="M61">
-        <v>0.4897959183673469</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="N61">
-        <v>0.358974358974359</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -3555,31 +3537,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B62">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C62">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D62">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E62">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G62">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H62">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I62">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3591,10 +3573,10 @@
         <v>0.002</v>
       </c>
       <c r="M62">
-        <v>0.5306122448979592</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="N62">
-        <v>0.3783783783783784</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -3605,31 +3587,31 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B63">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E63">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G63">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H63">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3641,10 +3623,10 @@
         <v>0.003</v>
       </c>
       <c r="M63">
-        <v>0.5306122448979592</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="N63">
-        <v>0.3783783783783784</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3655,31 +3637,31 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B64">
+        <v>34</v>
+      </c>
+      <c r="C64">
         <v>22</v>
       </c>
-      <c r="C64">
-        <v>25</v>
-      </c>
       <c r="D64">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E64">
         <v>38</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G64">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H64">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I64">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3691,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.4680851063829787</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="N64">
-        <v>0.3421052631578947</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3705,31 +3687,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B65">
+        <v>34</v>
+      </c>
+      <c r="C65">
         <v>22</v>
       </c>
-      <c r="C65">
-        <v>25</v>
-      </c>
       <c r="D65">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E65">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G65">
         <v>13</v>
       </c>
       <c r="H65">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I65">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3741,10 +3723,10 @@
         <v>0.001</v>
       </c>
       <c r="M65">
-        <v>0.4680851063829787</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="N65">
-        <v>0.3421052631578947</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3755,31 +3737,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E66">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3791,10 +3773,10 @@
         <v>0.002</v>
       </c>
       <c r="M66">
-        <v>0.4893617021276596</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="N66">
-        <v>0.3513513513513514</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3805,31 +3787,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67">
+        <v>34</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>56</v>
+      </c>
+      <c r="E67">
         <v>32</v>
       </c>
-      <c r="B67">
-        <v>23</v>
-      </c>
-      <c r="C67">
+      <c r="F67">
         <v>24</v>
       </c>
-      <c r="D67">
-        <v>47</v>
-      </c>
-      <c r="E67">
-        <v>37</v>
-      </c>
-      <c r="F67">
+      <c r="G67">
         <v>10</v>
       </c>
-      <c r="G67">
-        <v>13</v>
-      </c>
       <c r="H67">
+        <v>22</v>
+      </c>
+      <c r="I67">
         <v>24</v>
-      </c>
-      <c r="I67">
-        <v>10</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3841,10 +3823,10 @@
         <v>0.003</v>
       </c>
       <c r="M67">
-        <v>0.4893617021276596</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="N67">
-        <v>0.3513513513513514</v>
+        <v>0.3125</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -3855,31 +3837,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E68">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G68">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H68">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I68">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3891,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.4651162790697674</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="N68">
-        <v>0.3428571428571429</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -3905,31 +3887,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E69">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G69">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H69">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3941,10 +3923,10 @@
         <v>0.001</v>
       </c>
       <c r="M69">
-        <v>0.4651162790697674</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="N69">
-        <v>0.3428571428571429</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -3955,31 +3937,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>34</v>
+      </c>
+      <c r="C70">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>53</v>
+      </c>
+      <c r="E70">
         <v>33</v>
       </c>
-      <c r="B70">
-        <v>21</v>
-      </c>
-      <c r="C70">
-        <v>22</v>
-      </c>
-      <c r="D70">
-        <v>43</v>
-      </c>
-      <c r="E70">
-        <v>34</v>
-      </c>
       <c r="F70">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G70">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H70">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I70">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3991,10 +3973,10 @@
         <v>0.002</v>
       </c>
       <c r="M70">
-        <v>0.4883720930232558</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="N70">
-        <v>0.3529411764705883</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -4005,31 +3987,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C71">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>53</v>
+      </c>
+      <c r="E71">
+        <v>31</v>
+      </c>
+      <c r="F71">
         <v>22</v>
-      </c>
-      <c r="D71">
-        <v>43</v>
-      </c>
-      <c r="E71">
-        <v>34</v>
-      </c>
-      <c r="F71">
-        <v>9</v>
       </c>
       <c r="G71">
         <v>12</v>
       </c>
       <c r="H71">
+        <v>19</v>
+      </c>
+      <c r="I71">
         <v>22</v>
-      </c>
-      <c r="I71">
-        <v>9</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4041,10 +4023,10 @@
         <v>0.003</v>
       </c>
       <c r="M71">
-        <v>0.4883720930232558</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="N71">
-        <v>0.3529411764705883</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4055,31 +4037,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B72">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C72">
         <v>19</v>
       </c>
       <c r="D72">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E72">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G72">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H72">
         <v>19</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4091,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.5365853658536586</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N72">
-        <v>0.4411764705882353</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4105,31 +4087,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B73">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C73">
         <v>19</v>
       </c>
       <c r="D73">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E73">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H73">
         <v>19</v>
       </c>
       <c r="I73">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4141,10 +4123,10 @@
         <v>0.001</v>
       </c>
       <c r="M73">
-        <v>0.5365853658536586</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N73">
-        <v>0.4411764705882353</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4155,31 +4137,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C74">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E74">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G74">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H74">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4191,10 +4173,10 @@
         <v>0.002</v>
       </c>
       <c r="M74">
-        <v>0.5609756097560976</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N74">
-        <v>0.4545454545454545</v>
+        <v>0.40625</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4205,31 +4187,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B75">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>49</v>
+      </c>
+      <c r="E75">
+        <v>31</v>
+      </c>
+      <c r="F75">
         <v>18</v>
       </c>
-      <c r="D75">
-        <v>41</v>
-      </c>
-      <c r="E75">
-        <v>33</v>
-      </c>
-      <c r="F75">
-        <v>8</v>
-      </c>
       <c r="G75">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H75">
+        <v>19</v>
+      </c>
+      <c r="I75">
         <v>18</v>
-      </c>
-      <c r="I75">
-        <v>8</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4241,10 +4223,10 @@
         <v>0.003</v>
       </c>
       <c r="M75">
-        <v>0.5609756097560976</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N75">
-        <v>0.4545454545454545</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4255,31 +4237,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>46</v>
+      </c>
+      <c r="E76">
         <v>34</v>
       </c>
-      <c r="B76">
-        <v>21</v>
-      </c>
-      <c r="C76">
-        <v>17</v>
-      </c>
-      <c r="D76">
-        <v>38</v>
-      </c>
-      <c r="E76">
-        <v>32</v>
-      </c>
       <c r="F76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G76">
         <v>15</v>
       </c>
       <c r="H76">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4291,10 +4273,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.5526315789473685</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="N76">
-        <v>0.46875</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4305,31 +4287,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B77">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D77">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E77">
         <v>32</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G77">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H77">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I77">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4341,10 +4323,10 @@
         <v>0.001</v>
       </c>
       <c r="M77">
-        <v>0.5526315789473685</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="N77">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4355,31 +4337,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D78">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E78">
         <v>31</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G78">
+        <v>12</v>
+      </c>
+      <c r="H78">
+        <v>19</v>
+      </c>
+      <c r="I78">
         <v>15</v>
-      </c>
-      <c r="H78">
-        <v>16</v>
-      </c>
-      <c r="I78">
-        <v>7</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4391,10 +4373,10 @@
         <v>0.002</v>
       </c>
       <c r="M78">
-        <v>0.5789473684210527</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="N78">
-        <v>0.4838709677419355</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4405,31 +4387,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C79">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>46</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
+      <c r="F79">
         <v>16</v>
       </c>
-      <c r="D79">
-        <v>38</v>
-      </c>
-      <c r="E79">
-        <v>31</v>
-      </c>
-      <c r="F79">
-        <v>7</v>
-      </c>
       <c r="G79">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H79">
+        <v>19</v>
+      </c>
+      <c r="I79">
         <v>16</v>
-      </c>
-      <c r="I79">
-        <v>7</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4441,10 +4423,10 @@
         <v>0.003</v>
       </c>
       <c r="M79">
-        <v>0.5789473684210527</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="N79">
-        <v>0.4838709677419355</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4455,31 +4437,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C80">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D80">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G80">
         <v>15</v>
       </c>
       <c r="H80">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I80">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4494,7 +4476,7 @@
         <v>0.6</v>
       </c>
       <c r="N80">
-        <v>0.5172413793103449</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -4505,31 +4487,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C81">
+        <v>18</v>
+      </c>
+      <c r="D81">
+        <v>45</v>
+      </c>
+      <c r="E81">
+        <v>32</v>
+      </c>
+      <c r="F81">
+        <v>13</v>
+      </c>
+      <c r="G81">
         <v>14</v>
       </c>
-      <c r="D81">
-        <v>35</v>
-      </c>
-      <c r="E81">
-        <v>29</v>
-      </c>
-      <c r="F81">
-        <v>6</v>
-      </c>
-      <c r="G81">
-        <v>15</v>
-      </c>
       <c r="H81">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I81">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4544,7 +4526,7 @@
         <v>0.6</v>
       </c>
       <c r="N81">
-        <v>0.5172413793103449</v>
+        <v>0.4375</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -4555,31 +4537,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C82">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>45</v>
+      </c>
+      <c r="E82">
+        <v>31</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82">
         <v>13</v>
       </c>
-      <c r="D82">
-        <v>35</v>
-      </c>
-      <c r="E82">
-        <v>28</v>
-      </c>
-      <c r="F82">
-        <v>7</v>
-      </c>
-      <c r="G82">
-        <v>15</v>
-      </c>
       <c r="H82">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I82">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4591,10 +4573,10 @@
         <v>0.002</v>
       </c>
       <c r="M82">
-        <v>0.6285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="N82">
-        <v>0.5357142857142857</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -4605,31 +4587,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B83">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E83">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G83">
+        <v>12</v>
+      </c>
+      <c r="H83">
+        <v>18</v>
+      </c>
+      <c r="I83">
         <v>15</v>
-      </c>
-      <c r="H83">
-        <v>13</v>
-      </c>
-      <c r="I83">
-        <v>7</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4641,10 +4623,10 @@
         <v>0.003</v>
       </c>
       <c r="M83">
-        <v>0.6285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="N83">
-        <v>0.5357142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -4655,31 +4637,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B84">
+        <v>27</v>
+      </c>
+      <c r="C84">
         <v>15</v>
       </c>
-      <c r="C84">
-        <v>13</v>
-      </c>
       <c r="D84">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G84">
+        <v>15</v>
+      </c>
+      <c r="H84">
+        <v>15</v>
+      </c>
+      <c r="I84">
         <v>12</v>
-      </c>
-      <c r="H84">
-        <v>13</v>
-      </c>
-      <c r="I84">
-        <v>3</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4691,10 +4673,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.5357142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N84">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -4705,31 +4687,31 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B85">
+        <v>27</v>
+      </c>
+      <c r="C85">
         <v>15</v>
       </c>
-      <c r="C85">
+      <c r="D85">
+        <v>42</v>
+      </c>
+      <c r="E85">
+        <v>29</v>
+      </c>
+      <c r="F85">
         <v>13</v>
       </c>
-      <c r="D85">
-        <v>28</v>
-      </c>
-      <c r="E85">
-        <v>25</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
       <c r="G85">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H85">
+        <v>15</v>
+      </c>
+      <c r="I85">
         <v>13</v>
-      </c>
-      <c r="I85">
-        <v>3</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4741,10 +4723,10 @@
         <v>0.001</v>
       </c>
       <c r="M85">
-        <v>0.5357142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N85">
-        <v>0.48</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -4755,31 +4737,31 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B86">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D86">
+        <v>42</v>
+      </c>
+      <c r="E86">
         <v>28</v>
       </c>
-      <c r="E86">
-        <v>24</v>
-      </c>
       <c r="F86">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G86">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4791,10 +4773,10 @@
         <v>0.002</v>
       </c>
       <c r="M86">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N86">
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -4805,31 +4787,31 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B87">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E87">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G87">
         <v>12</v>
       </c>
       <c r="H87">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4841,10 +4823,10 @@
         <v>0.003</v>
       </c>
       <c r="M87">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N87">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -4855,31 +4837,31 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B88">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>40</v>
+      </c>
+      <c r="E88">
+        <v>29</v>
+      </c>
+      <c r="F88">
         <v>11</v>
       </c>
-      <c r="D88">
-        <v>24</v>
-      </c>
-      <c r="E88">
-        <v>22</v>
-      </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
       <c r="G88">
+        <v>14</v>
+      </c>
+      <c r="H88">
+        <v>15</v>
+      </c>
+      <c r="I88">
         <v>11</v>
-      </c>
-      <c r="H88">
-        <v>11</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4891,10 +4873,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.5416666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="N88">
-        <v>0.5</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -4905,31 +4887,31 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>40</v>
+      </c>
+      <c r="E89">
+        <v>28</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89">
         <v>13</v>
       </c>
-      <c r="C89">
-        <v>11</v>
-      </c>
-      <c r="D89">
-        <v>24</v>
-      </c>
-      <c r="E89">
-        <v>22</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-      <c r="G89">
-        <v>11</v>
-      </c>
       <c r="H89">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4941,10 +4923,10 @@
         <v>0.001</v>
       </c>
       <c r="M89">
-        <v>0.5416666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="N89">
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="O89">
         <v>1</v>
@@ -4955,31 +4937,31 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B90">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E90">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4991,10 +4973,10 @@
         <v>0.002</v>
       </c>
       <c r="M90">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="N90">
-        <v>0.5238095238095238</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -5005,31 +4987,31 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B91">
+        <v>25</v>
+      </c>
+      <c r="C91">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="E91">
+        <v>26</v>
+      </c>
+      <c r="F91">
         <v>14</v>
-      </c>
-      <c r="C91">
-        <v>10</v>
-      </c>
-      <c r="D91">
-        <v>24</v>
-      </c>
-      <c r="E91">
-        <v>21</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
       </c>
       <c r="G91">
         <v>11</v>
       </c>
       <c r="H91">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5041,10 +5023,10 @@
         <v>0.003</v>
       </c>
       <c r="M91">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="N91">
-        <v>0.5238095238095238</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -5055,31 +5037,31 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B92">
+        <v>25</v>
+      </c>
+      <c r="C92">
         <v>12</v>
       </c>
-      <c r="C92">
-        <v>11</v>
-      </c>
       <c r="D92">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E92">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G92">
+        <v>15</v>
+      </c>
+      <c r="H92">
+        <v>12</v>
+      </c>
+      <c r="I92">
         <v>10</v>
-      </c>
-      <c r="H92">
-        <v>11</v>
-      </c>
-      <c r="I92">
-        <v>2</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5091,10 +5073,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.5217391304347826</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="N92">
-        <v>0.4761904761904762</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O92">
         <v>1</v>
@@ -5105,31 +5087,31 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B93">
+        <v>25</v>
+      </c>
+      <c r="C93">
         <v>12</v>
       </c>
-      <c r="C93">
+      <c r="D93">
+        <v>37</v>
+      </c>
+      <c r="E93">
+        <v>26</v>
+      </c>
+      <c r="F93">
         <v>11</v>
       </c>
-      <c r="D93">
-        <v>23</v>
-      </c>
-      <c r="E93">
-        <v>21</v>
-      </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
       <c r="G93">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H93">
+        <v>12</v>
+      </c>
+      <c r="I93">
         <v>11</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5141,10 +5123,10 @@
         <v>0.001</v>
       </c>
       <c r="M93">
-        <v>0.5217391304347826</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="N93">
-        <v>0.4761904761904762</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -5155,31 +5137,31 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B94">
+        <v>25</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>37</v>
+      </c>
+      <c r="E94">
+        <v>25</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94">
         <v>13</v>
       </c>
-      <c r="C94">
-        <v>10</v>
-      </c>
-      <c r="D94">
-        <v>23</v>
-      </c>
-      <c r="E94">
-        <v>20</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-      <c r="G94">
-        <v>10</v>
-      </c>
       <c r="H94">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5191,10 +5173,10 @@
         <v>0.002</v>
       </c>
       <c r="M94">
-        <v>0.5652173913043478</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="N94">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -5205,31 +5187,31 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B95">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>37</v>
+      </c>
+      <c r="E95">
+        <v>24</v>
+      </c>
+      <c r="F95">
         <v>13</v>
       </c>
-      <c r="C95">
-        <v>10</v>
-      </c>
-      <c r="D95">
-        <v>23</v>
-      </c>
-      <c r="E95">
-        <v>20</v>
-      </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
       <c r="G95">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H95">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5241,7 +5223,7 @@
         <v>0.003</v>
       </c>
       <c r="M95">
-        <v>0.5652173913043478</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="N95">
         <v>0.5</v>
@@ -5255,31 +5237,31 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B96">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>33</v>
+      </c>
+      <c r="E96">
+        <v>23</v>
+      </c>
+      <c r="F96">
         <v>10</v>
       </c>
-      <c r="C96">
+      <c r="G96">
+        <v>12</v>
+      </c>
+      <c r="H96">
+        <v>11</v>
+      </c>
+      <c r="I96">
         <v>10</v>
-      </c>
-      <c r="D96">
-        <v>20</v>
-      </c>
-      <c r="E96">
-        <v>18</v>
-      </c>
-      <c r="F96">
-        <v>2</v>
-      </c>
-      <c r="G96">
-        <v>8</v>
-      </c>
-      <c r="H96">
-        <v>10</v>
-      </c>
-      <c r="I96">
-        <v>2</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5291,10 +5273,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N96">
-        <v>0.4444444444444444</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -5305,31 +5287,31 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E97">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G97">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5341,10 +5323,10 @@
         <v>0.001</v>
       </c>
       <c r="M97">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N97">
         <v>0.5</v>
-      </c>
-      <c r="N97">
-        <v>0.4444444444444444</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -5355,31 +5337,31 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B98">
+        <v>22</v>
+      </c>
+      <c r="C98">
         <v>11</v>
       </c>
-      <c r="C98">
-        <v>9</v>
-      </c>
       <c r="D98">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E98">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G98">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5391,10 +5373,10 @@
         <v>0.002</v>
       </c>
       <c r="M98">
-        <v>0.55</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N98">
-        <v>0.4705882352941176</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -5405,31 +5387,31 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B99">
+        <v>22</v>
+      </c>
+      <c r="C99">
         <v>11</v>
       </c>
-      <c r="C99">
+      <c r="D99">
+        <v>33</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99">
         <v>9</v>
       </c>
-      <c r="D99">
-        <v>20</v>
-      </c>
-      <c r="E99">
-        <v>17</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99">
-        <v>8</v>
-      </c>
       <c r="H99">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5441,10 +5423,10 @@
         <v>0.003</v>
       </c>
       <c r="M99">
-        <v>0.55</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N99">
-        <v>0.4705882352941176</v>
+        <v>0.45</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -5455,31 +5437,31 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E100">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G100">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H100">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5491,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.4705882352941176</v>
+        <v>0.65625</v>
       </c>
       <c r="N100">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -5505,31 +5487,31 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E101">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G101">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -5541,10 +5523,10 @@
         <v>0.001</v>
       </c>
       <c r="M101">
-        <v>0.4705882352941176</v>
+        <v>0.65625</v>
       </c>
       <c r="N101">
-        <v>0.4</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -5555,31 +5537,31 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>32</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102">
         <v>9</v>
       </c>
-      <c r="D102">
-        <v>17</v>
-      </c>
-      <c r="E102">
-        <v>15</v>
-      </c>
-      <c r="F102">
-        <v>2</v>
-      </c>
-      <c r="G102">
-        <v>6</v>
-      </c>
       <c r="H102">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5591,10 +5573,10 @@
         <v>0.002</v>
       </c>
       <c r="M102">
-        <v>0.4705882352941176</v>
+        <v>0.65625</v>
       </c>
       <c r="N102">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -5605,31 +5587,31 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B103">
+        <v>21</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <v>32</v>
+      </c>
+      <c r="E103">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103">
         <v>8</v>
       </c>
-      <c r="C103">
-        <v>9</v>
-      </c>
-      <c r="D103">
-        <v>17</v>
-      </c>
-      <c r="E103">
-        <v>15</v>
-      </c>
-      <c r="F103">
-        <v>2</v>
-      </c>
-      <c r="G103">
-        <v>6</v>
-      </c>
       <c r="H103">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -5641,10 +5623,10 @@
         <v>0.003</v>
       </c>
       <c r="M103">
-        <v>0.4705882352941176</v>
+        <v>0.65625</v>
       </c>
       <c r="N103">
-        <v>0.4</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -5655,31 +5637,31 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B104">
+        <v>20</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>31</v>
+      </c>
+      <c r="E104">
+        <v>22</v>
+      </c>
+      <c r="F104">
         <v>9</v>
       </c>
-      <c r="C104">
-        <v>8</v>
-      </c>
-      <c r="D104">
-        <v>17</v>
-      </c>
-      <c r="E104">
-        <v>15</v>
-      </c>
-      <c r="F104">
-        <v>2</v>
-      </c>
       <c r="G104">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H104">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -5691,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.5294117647058824</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="N104">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -5705,31 +5687,31 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B105">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D105">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E105">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H105">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -5741,10 +5723,10 @@
         <v>0.001</v>
       </c>
       <c r="M105">
-        <v>0.5294117647058824</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="N105">
-        <v>0.4666666666666667</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -5755,31 +5737,31 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B106">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>31</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106">
         <v>9</v>
       </c>
-      <c r="C106">
-        <v>8</v>
-      </c>
-      <c r="D106">
-        <v>17</v>
-      </c>
-      <c r="E106">
-        <v>15</v>
-      </c>
-      <c r="F106">
-        <v>2</v>
-      </c>
-      <c r="G106">
-        <v>7</v>
-      </c>
       <c r="H106">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5791,10 +5773,10 @@
         <v>0.002</v>
       </c>
       <c r="M106">
-        <v>0.5294117647058824</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="N106">
-        <v>0.4666666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -5805,31 +5787,31 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C107">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>31</v>
+      </c>
+      <c r="E107">
+        <v>19</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107">
         <v>8</v>
       </c>
-      <c r="D107">
-        <v>17</v>
-      </c>
-      <c r="E107">
-        <v>15</v>
-      </c>
-      <c r="F107">
-        <v>2</v>
-      </c>
-      <c r="G107">
-        <v>7</v>
-      </c>
       <c r="H107">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5841,10 +5823,10 @@
         <v>0.003</v>
       </c>
       <c r="M107">
-        <v>0.5294117647058824</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="N107">
-        <v>0.4666666666666667</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -5855,31 +5837,31 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E108">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -5891,10 +5873,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.5625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N108">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -5905,31 +5887,31 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B109">
+        <v>16</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>26</v>
+      </c>
+      <c r="E109">
+        <v>17</v>
+      </c>
+      <c r="F109">
         <v>9</v>
-      </c>
-      <c r="C109">
-        <v>7</v>
-      </c>
-      <c r="D109">
-        <v>16</v>
-      </c>
-      <c r="E109">
-        <v>14</v>
-      </c>
-      <c r="F109">
-        <v>2</v>
       </c>
       <c r="G109">
         <v>7</v>
       </c>
       <c r="H109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -5941,10 +5923,10 @@
         <v>0.001</v>
       </c>
       <c r="M109">
-        <v>0.5625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N109">
-        <v>0.5</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -5955,31 +5937,31 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B110">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>26</v>
+      </c>
+      <c r="E110">
+        <v>17</v>
+      </c>
+      <c r="F110">
         <v>9</v>
-      </c>
-      <c r="C110">
-        <v>7</v>
-      </c>
-      <c r="D110">
-        <v>16</v>
-      </c>
-      <c r="E110">
-        <v>14</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
       </c>
       <c r="G110">
         <v>7</v>
       </c>
       <c r="H110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5991,10 +5973,10 @@
         <v>0.002</v>
       </c>
       <c r="M110">
-        <v>0.5625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N110">
-        <v>0.5</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -6005,31 +5987,31 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B111">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D111">
+        <v>26</v>
+      </c>
+      <c r="E111">
         <v>16</v>
       </c>
-      <c r="E111">
-        <v>14</v>
-      </c>
       <c r="F111">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -6041,10 +6023,10 @@
         <v>0.003</v>
       </c>
       <c r="M111">
-        <v>0.5625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N111">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -6055,31 +6037,31 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B112">
+        <v>16</v>
+      </c>
+      <c r="C112">
         <v>10</v>
       </c>
-      <c r="C112">
-        <v>4</v>
-      </c>
       <c r="D112">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G112">
         <v>8</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6091,10 +6073,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.7142857142857143</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N112">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6105,31 +6087,31 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113">
         <v>10</v>
       </c>
-      <c r="C113">
-        <v>4</v>
-      </c>
       <c r="D113">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G113">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6141,10 +6123,10 @@
         <v>0.001</v>
       </c>
       <c r="M113">
-        <v>0.7142857142857143</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N113">
-        <v>0.6666666666666666</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -6155,31 +6137,31 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114">
         <v>10</v>
       </c>
-      <c r="C114">
-        <v>4</v>
-      </c>
       <c r="D114">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6191,10 +6173,10 @@
         <v>0.002</v>
       </c>
       <c r="M114">
-        <v>0.7142857142857143</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N114">
-        <v>0.6666666666666666</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -6205,31 +6187,31 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B115">
+        <v>16</v>
+      </c>
+      <c r="C115">
         <v>10</v>
       </c>
-      <c r="C115">
-        <v>4</v>
-      </c>
       <c r="D115">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E115">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6241,10 +6223,10 @@
         <v>0.003</v>
       </c>
       <c r="M115">
-        <v>0.7142857142857143</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N115">
-        <v>0.6666666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -6255,31 +6237,31 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D116">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E116">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G116">
         <v>8</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6291,10 +6273,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.6923076923076923</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N116">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -6305,31 +6287,31 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B117">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>26</v>
+      </c>
+      <c r="E117">
+        <v>17</v>
+      </c>
+      <c r="F117">
         <v>9</v>
       </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-      <c r="D117">
-        <v>13</v>
-      </c>
-      <c r="E117">
-        <v>12</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
       <c r="G117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6341,10 +6323,10 @@
         <v>0.001</v>
       </c>
       <c r="M117">
-        <v>0.6923076923076923</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N117">
-        <v>0.6666666666666666</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O117">
         <v>1</v>
@@ -6355,31 +6337,31 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B118">
+        <v>16</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>26</v>
+      </c>
+      <c r="E118">
+        <v>17</v>
+      </c>
+      <c r="F118">
         <v>9</v>
       </c>
-      <c r="C118">
-        <v>4</v>
-      </c>
-      <c r="D118">
-        <v>13</v>
-      </c>
-      <c r="E118">
-        <v>12</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
       <c r="G118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6391,10 +6373,10 @@
         <v>0.002</v>
       </c>
       <c r="M118">
-        <v>0.6923076923076923</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N118">
-        <v>0.6666666666666666</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O118">
         <v>1</v>
@@ -6405,31 +6387,31 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D119">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E119">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G119">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6441,10 +6423,10 @@
         <v>0.003</v>
       </c>
       <c r="M119">
-        <v>0.6923076923076923</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N119">
-        <v>0.6666666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="O119">
         <v>1</v>
@@ -6455,31 +6437,31 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G120">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6491,10 +6473,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.6363636363636364</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N120">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -6505,31 +6487,31 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G121">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -6541,10 +6523,10 @@
         <v>0.001</v>
       </c>
       <c r="M121">
-        <v>0.6363636363636364</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N121">
-        <v>0.6</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="O121">
         <v>1</v>
@@ -6555,31 +6537,31 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D122">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E122">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G122">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -6591,10 +6573,10 @@
         <v>0.002</v>
       </c>
       <c r="M122">
-        <v>0.6363636363636364</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N122">
-        <v>0.6</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="O122">
         <v>1</v>
@@ -6605,31 +6587,31 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B123">
+        <v>17</v>
+      </c>
+      <c r="C123">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>26</v>
+      </c>
+      <c r="E123">
+        <v>16</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
         <v>7</v>
       </c>
-      <c r="C123">
-        <v>4</v>
-      </c>
-      <c r="D123">
-        <v>11</v>
-      </c>
-      <c r="E123">
+      <c r="H123">
+        <v>9</v>
+      </c>
+      <c r="I123">
         <v>10</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
-        <v>6</v>
-      </c>
-      <c r="H123">
-        <v>4</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -6641,10 +6623,10 @@
         <v>0.003</v>
       </c>
       <c r="M123">
-        <v>0.6363636363636364</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N123">
-        <v>0.6</v>
+        <v>0.4375</v>
       </c>
       <c r="O123">
         <v>1</v>
@@ -6655,31 +6637,31 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B124">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E124">
+        <v>16</v>
+      </c>
+      <c r="F124">
+        <v>8</v>
+      </c>
+      <c r="G124">
+        <v>7</v>
+      </c>
+      <c r="H124">
         <v>9</v>
       </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <v>5</v>
-      </c>
-      <c r="H124">
-        <v>4</v>
-      </c>
       <c r="I124">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -6691,10 +6673,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="N124">
-        <v>0.5555555555555556</v>
+        <v>0.4375</v>
       </c>
       <c r="O124">
         <v>1</v>
@@ -6705,31 +6687,31 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B125">
+        <v>15</v>
+      </c>
+      <c r="C125">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>24</v>
+      </c>
+      <c r="E125">
+        <v>15</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
+      </c>
+      <c r="G125">
         <v>6</v>
       </c>
-      <c r="C125">
-        <v>4</v>
-      </c>
-      <c r="D125">
-        <v>10</v>
-      </c>
-      <c r="E125">
+      <c r="H125">
         <v>9</v>
       </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
-        <v>5</v>
-      </c>
-      <c r="H125">
-        <v>4</v>
-      </c>
       <c r="I125">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -6741,10 +6723,10 @@
         <v>0.001</v>
       </c>
       <c r="M125">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="N125">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="O125">
         <v>1</v>
@@ -6755,31 +6737,31 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B126">
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>24</v>
+      </c>
+      <c r="E126">
+        <v>15</v>
+      </c>
+      <c r="F126">
+        <v>9</v>
+      </c>
+      <c r="G126">
         <v>6</v>
       </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126">
-        <v>10</v>
-      </c>
-      <c r="E126">
+      <c r="H126">
         <v>9</v>
       </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>5</v>
-      </c>
-      <c r="H126">
-        <v>4</v>
-      </c>
       <c r="I126">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -6791,10 +6773,10 @@
         <v>0.002</v>
       </c>
       <c r="M126">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="N126">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="O126">
         <v>1</v>
@@ -6805,31 +6787,31 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D127">
+        <v>24</v>
+      </c>
+      <c r="E127">
+        <v>14</v>
+      </c>
+      <c r="F127">
         <v>10</v>
-      </c>
-      <c r="E127">
-        <v>9</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
       </c>
       <c r="G127">
         <v>5</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -6841,10 +6823,10 @@
         <v>0.003</v>
       </c>
       <c r="M127">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="N127">
-        <v>0.5555555555555556</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="O127">
         <v>1</v>
@@ -6855,31 +6837,31 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>23</v>
+      </c>
+      <c r="E128">
+        <v>15</v>
+      </c>
+      <c r="F128">
+        <v>8</v>
+      </c>
+      <c r="G128">
         <v>6</v>
       </c>
-      <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128">
+      <c r="H128">
         <v>9</v>
       </c>
-      <c r="E128">
+      <c r="I128">
         <v>8</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>5</v>
-      </c>
-      <c r="H128">
-        <v>3</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -6891,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.6666666666666666</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="N128">
-        <v>0.625</v>
+        <v>0.4</v>
       </c>
       <c r="O128">
         <v>1</v>
@@ -6905,31 +6887,31 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B129">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>23</v>
+      </c>
+      <c r="E129">
+        <v>15</v>
+      </c>
+      <c r="F129">
+        <v>8</v>
+      </c>
+      <c r="G129">
         <v>6</v>
       </c>
-      <c r="C129">
-        <v>3</v>
-      </c>
-      <c r="D129">
+      <c r="H129">
         <v>9</v>
       </c>
-      <c r="E129">
+      <c r="I129">
         <v>8</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>5</v>
-      </c>
-      <c r="H129">
-        <v>3</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -6941,10 +6923,10 @@
         <v>0.001</v>
       </c>
       <c r="M129">
-        <v>0.6666666666666666</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="N129">
-        <v>0.625</v>
+        <v>0.4</v>
       </c>
       <c r="O129">
         <v>1</v>
@@ -6955,31 +6937,31 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B130">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>23</v>
+      </c>
+      <c r="E130">
+        <v>15</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+      <c r="G130">
         <v>6</v>
       </c>
-      <c r="C130">
-        <v>3</v>
-      </c>
-      <c r="D130">
+      <c r="H130">
         <v>9</v>
       </c>
-      <c r="E130">
+      <c r="I130">
         <v>8</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>5</v>
-      </c>
-      <c r="H130">
-        <v>3</v>
-      </c>
-      <c r="I130">
-        <v>1</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6991,10 +6973,10 @@
         <v>0.002</v>
       </c>
       <c r="M130">
-        <v>0.6666666666666666</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="N130">
-        <v>0.625</v>
+        <v>0.4</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -7005,31 +6987,31 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D131">
+        <v>23</v>
+      </c>
+      <c r="E131">
+        <v>14</v>
+      </c>
+      <c r="F131">
         <v>9</v>
-      </c>
-      <c r="E131">
-        <v>8</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
       </c>
       <c r="G131">
         <v>5</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7041,10 +7023,10 @@
         <v>0.003</v>
       </c>
       <c r="M131">
-        <v>0.6666666666666666</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="N131">
-        <v>0.625</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="O131">
         <v>1</v>
@@ -7055,31 +7037,31 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D132">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E132">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7091,10 +7073,13 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N132">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
       </c>
       <c r="P132">
         <v>1</v>
@@ -7102,31 +7087,31 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E133">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G133">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7138,10 +7123,13 @@
         <v>0.001</v>
       </c>
       <c r="M133">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N133">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
       </c>
       <c r="P133">
         <v>1</v>
@@ -7149,31 +7137,31 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D134">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E134">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -7185,10 +7173,13 @@
         <v>0.002</v>
       </c>
       <c r="M134">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N134">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
       </c>
       <c r="P134">
         <v>1</v>
@@ -7196,31 +7187,31 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D135">
+        <v>22</v>
+      </c>
+      <c r="E135">
+        <v>14</v>
+      </c>
+      <c r="F135">
+        <v>8</v>
+      </c>
+      <c r="G135">
         <v>6</v>
       </c>
-      <c r="E135">
-        <v>6</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>4</v>
-      </c>
       <c r="H135">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7232,10 +7223,13 @@
         <v>0.003</v>
       </c>
       <c r="M135">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N135">
-        <v>0.6666666666666666</v>
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
       </c>
       <c r="P135">
         <v>1</v>

--- a/tmp_grid_res.xlsx
+++ b/tmp_grid_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="46">
   <si>
     <t>win</t>
   </si>
@@ -61,70 +61,97 @@
     <t>close by time lose/lose</t>
   </si>
   <si>
-    <t>2022-02-08 09:31:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:30:00 -&gt; 2022-06-28 09:31:00</t>
   </si>
   <si>
-    <t>2022-02-08 09:32:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:31:00 -&gt; 2022-06-28 09:31:00</t>
   </si>
   <si>
-    <t>2022-02-08 09:36:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:33:00 -&gt; 2022-06-28 13:31:00</t>
   </si>
   <si>
-    <t>2022-02-08 09:42:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:33:00 -&gt; 2022-06-28 13:29:00</t>
   </si>
   <si>
-    <t>2022-02-08 10:41:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:33:00 -&gt; 2022-06-28 09:52:00</t>
   </si>
   <si>
-    <t>2022-02-08 10:43:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:33:00 -&gt; 2022-06-28 09:37:00</t>
   </si>
   <si>
-    <t>2022-02-08 10:44:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:33:00 -&gt; 2022-06-28 09:50:00</t>
   </si>
   <si>
-    <t>2022-02-08 10:50:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:51:00 -&gt; 2022-06-28 13:31:00</t>
   </si>
   <si>
-    <t>2022-02-08 11:03:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:51:00 -&gt; 2022-06-28 13:29:00</t>
   </si>
   <si>
-    <t>2022-02-08 11:04:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:51:00 -&gt; 2022-06-28 09:52:00</t>
   </si>
   <si>
-    <t>2022-02-09 13:07:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 09:51:00 -&gt; 2022-06-28 09:50:00</t>
   </si>
   <si>
-    <t>2022-02-09 13:08:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 14:56:00 -&gt; 2022-06-28 13:31:00</t>
   </si>
   <si>
-    <t>2022-02-09 13:18:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 14:56:00 -&gt; 2022-06-28 13:29:00</t>
   </si>
   <si>
-    <t>2022-02-14 10:26:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 14:56:00 -&gt; 2022-06-28 13:25:00</t>
   </si>
   <si>
-    <t>2022-02-14 10:27:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-14 14:56:00 -&gt; 2022-06-28 13:23:00</t>
   </si>
   <si>
-    <t>2022-02-14 10:28:00 -&gt; 2022-06-09 15:00:00</t>
+    <t>2021-12-15 09:49:00 -&gt; 2022-06-27 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-14 10:28:00 -&gt; 2022-06-08 15:00:00</t>
+    <t>2021-12-15 09:49:00 -&gt; 2022-06-27 14:48:00</t>
   </si>
   <si>
-    <t>2022-02-14 11:01:00 -&gt; 2022-06-08 15:00:00</t>
+    <t>2021-12-15 09:53:00 -&gt; 2022-06-27 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-14 11:07:00 -&gt; 2022-06-08 15:00:00</t>
+    <t>2021-12-15 09:53:00 -&gt; 2022-06-27 14:48:00</t>
   </si>
   <si>
-    <t>2022-02-14 11:08:00 -&gt; 2022-05-25 15:00:00</t>
+    <t>2021-12-20 09:50:00 -&gt; 2022-06-27 15:00:00</t>
   </si>
   <si>
-    <t>2022-02-14 13:29:00 -&gt; 2022-05-25 15:00:00</t>
+    <t>2021-12-20 09:50:00 -&gt; 2022-06-27 14:48:00</t>
   </si>
   <si>
-    <t>2022-02-14 13:30:00 -&gt; 2022-05-25 15:00:00</t>
+    <t>2021-12-20 10:24:00 -&gt; 2022-06-27 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-20 10:24:00 -&gt; 2022-06-27 14:48:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 14:22:00 -&gt; 2022-06-27 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 14:22:00 -&gt; 2022-06-27 14:48:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 14:24:00 -&gt; 2022-06-23 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 14:48:00 -&gt; 2022-06-23 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-05 09:58:00 -&gt; 2022-06-16 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-05 10:01:00 -&gt; 2022-06-16 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-05 10:03:00 -&gt; 2022-06-16 15:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-05 10:04:00 -&gt; 2022-06-16 15:00:00</t>
   </si>
 </sst>
 </file>
@@ -540,31 +567,31 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>0.001</v>
@@ -573,45 +600,45 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7804878048780488</v>
+        <v>0.8527131782945736</v>
       </c>
       <c r="N2">
-        <v>0.05555555555555555</v>
+        <v>0.25</v>
       </c>
       <c r="O2">
-        <v>0.984375</v>
+        <v>0.963302752293578</v>
       </c>
       <c r="P2">
-        <v>0.9444444444444444</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>113</v>
+      </c>
+      <c r="C3">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>64</v>
-      </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
       <c r="D3">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -623,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7804878048780488</v>
+        <v>0.875968992248062</v>
       </c>
       <c r="N3">
-        <v>0.05263157894736842</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -637,34 +664,34 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>0.002</v>
@@ -673,45 +700,45 @@
         <v>0.001</v>
       </c>
       <c r="M4">
-        <v>0.7926829268292683</v>
+        <v>0.8062015503875969</v>
       </c>
       <c r="N4">
-        <v>0.0625</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O4">
-        <v>0.9696969696969697</v>
+        <v>0.9009009009009009</v>
       </c>
       <c r="P4">
-        <v>0.8823529411764706</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -723,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7560975609756098</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="N5">
-        <v>0.04761904761904762</v>
+        <v>0.25</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -737,31 +764,31 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -773,10 +800,10 @@
         <v>0.001</v>
       </c>
       <c r="M6">
-        <v>0.8048780487804879</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="N6">
-        <v>0.05882352941176471</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -787,34 +814,34 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>17</v>
       </c>
       <c r="D7">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K7">
         <v>0.003</v>
@@ -823,16 +850,16 @@
         <v>0.002</v>
       </c>
       <c r="M7">
-        <v>0.7926829268292683</v>
+        <v>0.8682170542635659</v>
       </c>
       <c r="N7">
-        <v>0.07142857142857142</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="O7">
-        <v>0.9411764705882353</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="P7">
-        <v>0.7647058823529411</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -840,28 +867,28 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -873,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7560975609756098</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="N8">
-        <v>0.09090909090909091</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -887,31 +914,31 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I9">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -923,10 +950,10 @@
         <v>0.001</v>
       </c>
       <c r="M9">
-        <v>0.8048780487804879</v>
+        <v>0.8527131782945736</v>
       </c>
       <c r="N9">
-        <v>0.05882352941176471</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -937,31 +964,31 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>129</v>
+      </c>
+      <c r="E10">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>82</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
       <c r="F10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -973,10 +1000,10 @@
         <v>0.002</v>
       </c>
       <c r="M10">
-        <v>0.8414634146341463</v>
+        <v>0.9224806201550387</v>
       </c>
       <c r="N10">
-        <v>0.07142857142857142</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -987,34 +1014,34 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>112</v>
+      </c>
+      <c r="C11">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>70</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
       <c r="D11">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <v>0.004</v>
@@ -1023,16 +1050,16 @@
         <v>0.003</v>
       </c>
       <c r="M11">
-        <v>0.8536585365853658</v>
+        <v>0.8682170542635659</v>
       </c>
       <c r="N11">
-        <v>0.09090909090909091</v>
+        <v>0.2</v>
       </c>
       <c r="O11">
-        <v>0.971830985915493</v>
+        <v>0.9243697478991597</v>
       </c>
       <c r="P11">
-        <v>0.8333333333333334</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1040,28 +1067,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>97</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
         <v>22</v>
       </c>
-      <c r="F12">
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
       <c r="I12">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1073,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7682926829268293</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="N12">
-        <v>0.1363636363636364</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1087,31 +1114,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1123,10 +1150,10 @@
         <v>0.001</v>
       </c>
       <c r="M13">
-        <v>0.8170731707317073</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="N13">
-        <v>0.1176470588235294</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1137,31 +1164,31 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>12</v>
       </c>
       <c r="I14">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1173,10 +1200,10 @@
         <v>0.002</v>
       </c>
       <c r="M14">
-        <v>0.8536585365853658</v>
+        <v>0.905511811023622</v>
       </c>
       <c r="N14">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1187,22 +1214,22 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E15">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1211,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1223,7 +1250,7 @@
         <v>0.003</v>
       </c>
       <c r="M15">
-        <v>0.8780487804878049</v>
+        <v>0.9212598425196851</v>
       </c>
       <c r="N15">
         <v>0.1666666666666667</v>
@@ -1240,28 +1267,28 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I16">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1273,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7439024390243902</v>
+        <v>0.7795275590551181</v>
       </c>
       <c r="N16">
-        <v>0.16</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1287,31 +1314,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I17">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1323,10 +1350,10 @@
         <v>0.001</v>
       </c>
       <c r="M17">
-        <v>0.7804878048780488</v>
+        <v>0.7874015748031497</v>
       </c>
       <c r="N17">
-        <v>0.1</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1337,31 +1364,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F18">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I18">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1373,10 +1400,10 @@
         <v>0.002</v>
       </c>
       <c r="M18">
-        <v>0.8292682926829268</v>
+        <v>0.8582677165354331</v>
       </c>
       <c r="N18">
-        <v>0.125</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1387,31 +1414,31 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>70</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>82</v>
-      </c>
-      <c r="E19">
+      <c r="F19">
+        <v>110</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
         <v>14</v>
       </c>
-      <c r="F19">
-        <v>68</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
       <c r="I19">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1423,10 +1450,10 @@
         <v>0.003</v>
       </c>
       <c r="M19">
-        <v>0.8536585365853658</v>
+        <v>0.889763779527559</v>
       </c>
       <c r="N19">
-        <v>0.1428571428571428</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1437,31 +1464,31 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E20">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I20">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1473,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7125</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="N20">
-        <v>0.2068965517241379</v>
+        <v>0.25</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1487,31 +1514,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E21">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I21">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1523,10 +1550,10 @@
         <v>0.001</v>
       </c>
       <c r="M21">
-        <v>0.7625</v>
+        <v>0.7642276422764228</v>
       </c>
       <c r="N21">
-        <v>0.1739130434782609</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1537,31 +1564,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E22">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F22">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I22">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1573,10 +1600,10 @@
         <v>0.002</v>
       </c>
       <c r="M22">
-        <v>0.8125</v>
+        <v>0.8211382113821138</v>
       </c>
       <c r="N22">
-        <v>0.2105263157894737</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1587,31 +1614,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I23">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1623,10 +1650,10 @@
         <v>0.003</v>
       </c>
       <c r="M23">
-        <v>0.825</v>
+        <v>0.8617886178861789</v>
       </c>
       <c r="N23">
-        <v>0.1764705882352941</v>
+        <v>0.15</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1637,31 +1664,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="E24">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>74</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
         <v>32</v>
       </c>
-      <c r="F24">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
-      </c>
-      <c r="H24">
-        <v>20</v>
-      </c>
       <c r="I24">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1673,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7468354430379747</v>
+        <v>0.7310924369747899</v>
       </c>
       <c r="N24">
-        <v>0.375</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1687,31 +1714,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D25">
+        <v>119</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+      <c r="F25">
         <v>79</v>
-      </c>
-      <c r="E25">
-        <v>28</v>
-      </c>
-      <c r="F25">
-        <v>51</v>
       </c>
       <c r="G25">
         <v>9</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I25">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1723,10 +1750,10 @@
         <v>0.001</v>
       </c>
       <c r="M25">
-        <v>0.759493670886076</v>
+        <v>0.7394957983193278</v>
       </c>
       <c r="N25">
-        <v>0.3214285714285715</v>
+        <v>0.225</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1737,31 +1764,31 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I26">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1773,10 +1800,10 @@
         <v>0.002</v>
       </c>
       <c r="M26">
-        <v>0.7721518987341772</v>
+        <v>0.7983193277310925</v>
       </c>
       <c r="N26">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1787,31 +1814,31 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>22</v>
       </c>
       <c r="F27">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I27">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1823,10 +1850,10 @@
         <v>0.003</v>
       </c>
       <c r="M27">
-        <v>0.7974683544303798</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="N27">
-        <v>0.2727272727272727</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1837,31 +1864,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E28">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F28">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I28">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1873,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.7402597402597403</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="N28">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1887,31 +1914,31 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E29">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I29">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1923,10 +1950,10 @@
         <v>0.001</v>
       </c>
       <c r="M29">
-        <v>0.7532467532467533</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="N29">
-        <v>0.2962962962962963</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1937,31 +1964,31 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E30">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F30">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I30">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1973,10 +2000,10 @@
         <v>0.002</v>
       </c>
       <c r="M30">
-        <v>0.7662337662337663</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="N30">
-        <v>0.25</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -1987,31 +2014,31 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E31">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F31">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G31">
         <v>5</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I31">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2023,10 +2050,10 @@
         <v>0.003</v>
       </c>
       <c r="M31">
-        <v>0.7922077922077922</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="N31">
-        <v>0.2380952380952381</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2037,31 +2064,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E32">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F32">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G32">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I32">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2073,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.72</v>
+        <v>0.6728971962616822</v>
       </c>
       <c r="N32">
         <v>0.3636363636363636</v>
@@ -2087,31 +2114,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E33">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I33">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2123,10 +2150,10 @@
         <v>0.001</v>
       </c>
       <c r="M33">
-        <v>0.7333333333333333</v>
+        <v>0.6915887850467289</v>
       </c>
       <c r="N33">
-        <v>0.2857142857142857</v>
+        <v>0.34</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2137,31 +2164,31 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E34">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F34">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I34">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2173,10 +2200,10 @@
         <v>0.002</v>
       </c>
       <c r="M34">
-        <v>0.7466666666666667</v>
+        <v>0.7476635514018691</v>
       </c>
       <c r="N34">
-        <v>0.2692307692307692</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2187,31 +2214,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E35">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F35">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H35">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I35">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2223,10 +2250,10 @@
         <v>0.003</v>
       </c>
       <c r="M35">
-        <v>0.7733333333333333</v>
+        <v>0.7757009345794392</v>
       </c>
       <c r="N35">
-        <v>0.2608695652173913</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2237,31 +2264,31 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>65</v>
+      </c>
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>98</v>
+      </c>
+      <c r="E36">
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>46</v>
+      </c>
+      <c r="G36">
         <v>19</v>
       </c>
-      <c r="B36">
-        <v>50</v>
-      </c>
-      <c r="C36">
-        <v>22</v>
-      </c>
-      <c r="D36">
-        <v>72</v>
-      </c>
-      <c r="E36">
-        <v>34</v>
-      </c>
-      <c r="F36">
-        <v>38</v>
-      </c>
-      <c r="G36">
-        <v>12</v>
-      </c>
       <c r="H36">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I36">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2273,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.6944444444444444</v>
+        <v>0.6632653061224489</v>
       </c>
       <c r="N36">
-        <v>0.3529411764705883</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2287,31 +2314,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B37">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E37">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F37">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I37">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2323,10 +2350,10 @@
         <v>0.001</v>
       </c>
       <c r="M37">
-        <v>0.7222222222222222</v>
+        <v>0.6836734693877551</v>
       </c>
       <c r="N37">
-        <v>0.2857142857142857</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2337,31 +2364,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B38">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E38">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F38">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H38">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I38">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2373,10 +2400,10 @@
         <v>0.002</v>
       </c>
       <c r="M38">
-        <v>0.7361111111111112</v>
+        <v>0.7448979591836735</v>
       </c>
       <c r="N38">
-        <v>0.2692307692307692</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2387,31 +2414,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B39">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E39">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F39">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I39">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2423,10 +2450,10 @@
         <v>0.003</v>
       </c>
       <c r="M39">
-        <v>0.75</v>
+        <v>0.7653061224489796</v>
       </c>
       <c r="N39">
-        <v>0.25</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2437,31 +2464,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B40">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F40">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G40">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H40">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I40">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2473,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.6619718309859155</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="N40">
-        <v>0.3513513513513514</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2487,31 +2514,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B41">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>94</v>
+      </c>
+      <c r="E41">
         <v>49</v>
       </c>
-      <c r="C41">
-        <v>22</v>
-      </c>
-      <c r="D41">
-        <v>71</v>
-      </c>
-      <c r="E41">
-        <v>31</v>
-      </c>
       <c r="F41">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G41">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H41">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I41">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2523,10 +2550,10 @@
         <v>0.001</v>
       </c>
       <c r="M41">
-        <v>0.6901408450704225</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="N41">
-        <v>0.2903225806451613</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2537,31 +2564,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E42">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H42">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I42">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2573,10 +2600,10 @@
         <v>0.002</v>
       </c>
       <c r="M42">
-        <v>0.704225352112676</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="N42">
-        <v>0.2758620689655172</v>
+        <v>0.35</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2587,31 +2614,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E43">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F43">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H43">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I43">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2623,10 +2650,10 @@
         <v>0.003</v>
       </c>
       <c r="M43">
-        <v>0.7183098591549296</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="N43">
-        <v>0.2592592592592592</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -2637,31 +2664,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E44">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F44">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>19</v>
+      </c>
+      <c r="H44">
         <v>28</v>
       </c>
-      <c r="G44">
-        <v>13</v>
-      </c>
-      <c r="H44">
-        <v>26</v>
-      </c>
       <c r="I44">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2673,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.6119402985074627</v>
+        <v>0.6626506024096386</v>
       </c>
       <c r="N44">
-        <v>0.3333333333333333</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2687,31 +2714,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B45">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E45">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F45">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H45">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I45">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2723,10 +2750,10 @@
         <v>0.001</v>
       </c>
       <c r="M45">
-        <v>0.6268656716417911</v>
+        <v>0.6626506024096386</v>
       </c>
       <c r="N45">
-        <v>0.2857142857142857</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -2737,31 +2764,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B46">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>24</v>
       </c>
       <c r="D46">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E46">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F46">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H46">
         <v>24</v>
       </c>
       <c r="I46">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2773,10 +2800,10 @@
         <v>0.002</v>
       </c>
       <c r="M46">
-        <v>0.6417910447761194</v>
+        <v>0.7108433734939759</v>
       </c>
       <c r="N46">
-        <v>0.2727272727272727</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2787,31 +2814,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E47">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G47">
         <v>8</v>
       </c>
       <c r="H47">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I47">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2823,10 +2850,10 @@
         <v>0.003</v>
       </c>
       <c r="M47">
-        <v>0.6567164179104478</v>
+        <v>0.7108433734939759</v>
       </c>
       <c r="N47">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2837,31 +2864,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B48">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>27</v>
       </c>
       <c r="D48">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F48">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G48">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H48">
         <v>27</v>
       </c>
       <c r="I48">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2873,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.5909090909090909</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N48">
-        <v>0.325</v>
+        <v>0.4</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2887,31 +2914,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B49">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>27</v>
       </c>
       <c r="D49">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E49">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F49">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H49">
         <v>27</v>
       </c>
       <c r="I49">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2923,10 +2950,10 @@
         <v>0.001</v>
       </c>
       <c r="M49">
-        <v>0.5909090909090909</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N49">
-        <v>0.25</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2937,31 +2964,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>78</v>
+      </c>
+      <c r="E50">
+        <v>37</v>
+      </c>
+      <c r="F50">
         <v>41</v>
       </c>
-      <c r="C50">
-        <v>25</v>
-      </c>
-      <c r="D50">
-        <v>66</v>
-      </c>
-      <c r="E50">
-        <v>33</v>
-      </c>
-      <c r="F50">
-        <v>33</v>
-      </c>
       <c r="G50">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I50">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2973,10 +3000,10 @@
         <v>0.002</v>
       </c>
       <c r="M50">
-        <v>0.6212121212121212</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N50">
-        <v>0.2424242424242424</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -2987,31 +3014,31 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B51">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>24</v>
       </c>
       <c r="D51">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E51">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F51">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G51">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H51">
         <v>24</v>
       </c>
       <c r="I51">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3023,10 +3050,10 @@
         <v>0.003</v>
       </c>
       <c r="M51">
-        <v>0.6363636363636364</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N51">
-        <v>0.2258064516129032</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3037,31 +3064,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B52">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C52">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E52">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F52">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G52">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H52">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I52">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3073,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.59375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N52">
-        <v>0.3333333333333333</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3087,31 +3114,31 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B53">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E53">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F53">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H53">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I53">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3123,10 +3150,10 @@
         <v>0.001</v>
       </c>
       <c r="M53">
-        <v>0.59375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N53">
-        <v>0.2571428571428571</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3137,31 +3164,31 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B54">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E54">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F54">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H54">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I54">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3173,10 +3200,10 @@
         <v>0.002</v>
       </c>
       <c r="M54">
-        <v>0.625</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N54">
-        <v>0.25</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3187,31 +3214,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B55">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C55">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E55">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F55">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G55">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H55">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I55">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3223,10 +3250,10 @@
         <v>0.003</v>
       </c>
       <c r="M55">
-        <v>0.640625</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N55">
-        <v>0.2333333333333333</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3237,31 +3264,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B56">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D56">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E56">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F56">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G56">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H56">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I56">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3273,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.6349206349206349</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="N56">
-        <v>0.4102564102564102</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3287,31 +3314,31 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B57">
+        <v>46</v>
+      </c>
+      <c r="C57">
+        <v>21</v>
+      </c>
+      <c r="D57">
+        <v>67</v>
+      </c>
+      <c r="E57">
         <v>40</v>
       </c>
-      <c r="C57">
-        <v>23</v>
-      </c>
-      <c r="D57">
-        <v>63</v>
-      </c>
-      <c r="E57">
-        <v>35</v>
-      </c>
       <c r="F57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G57">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H57">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3323,10 +3350,10 @@
         <v>0.001</v>
       </c>
       <c r="M57">
-        <v>0.6349206349206349</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="N57">
-        <v>0.3428571428571429</v>
+        <v>0.475</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3337,31 +3364,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B58">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E58">
         <v>33</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H58">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I58">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3373,10 +3400,10 @@
         <v>0.002</v>
       </c>
       <c r="M58">
-        <v>0.6349206349206349</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="N58">
-        <v>0.303030303030303</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3387,31 +3414,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B59">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C59">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E59">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H59">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I59">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3423,10 +3450,10 @@
         <v>0.003</v>
       </c>
       <c r="M59">
-        <v>0.6507936507936508</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="N59">
-        <v>0.2903225806451613</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -3437,31 +3464,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B60">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E60">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G60">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3473,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.6065573770491803</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="N60">
-        <v>0.4146341463414634</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3487,31 +3514,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B61">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E61">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F61">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G61">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H61">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I61">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3523,10 +3550,10 @@
         <v>0.001</v>
       </c>
       <c r="M61">
-        <v>0.6065573770491803</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="N61">
-        <v>0.3333333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -3537,31 +3564,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B62">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E62">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F62">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H62">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I62">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3573,10 +3600,10 @@
         <v>0.002</v>
       </c>
       <c r="M62">
-        <v>0.6065573770491803</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="N62">
-        <v>0.2941176470588235</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -3587,28 +3614,28 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B63">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E63">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F63">
         <v>28</v>
       </c>
       <c r="G63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H63">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I63">
         <v>28</v>
@@ -3623,10 +3650,10 @@
         <v>0.003</v>
       </c>
       <c r="M63">
-        <v>0.6065573770491803</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="N63">
-        <v>0.2727272727272727</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3637,31 +3664,31 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B64">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E64">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F64">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G64">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H64">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I64">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3673,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.6071428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N64">
-        <v>0.4210526315789473</v>
+        <v>0.53125</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3687,31 +3714,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B65">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E65">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F65">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G65">
+        <v>17</v>
+      </c>
+      <c r="H65">
+        <v>15</v>
+      </c>
+      <c r="I65">
         <v>13</v>
-      </c>
-      <c r="H65">
-        <v>22</v>
-      </c>
-      <c r="I65">
-        <v>21</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3723,10 +3750,10 @@
         <v>0.001</v>
       </c>
       <c r="M65">
-        <v>0.6071428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N65">
-        <v>0.3714285714285714</v>
+        <v>0.53125</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3737,31 +3764,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B66">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D66">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E66">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F66">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G66">
         <v>12</v>
       </c>
       <c r="H66">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I66">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3773,10 +3800,10 @@
         <v>0.002</v>
       </c>
       <c r="M66">
-        <v>0.6071428571428571</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="N66">
-        <v>0.3529411764705883</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3787,31 +3814,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67">
+        <v>31</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>45</v>
+      </c>
+      <c r="E67">
         <v>24</v>
       </c>
-      <c r="B67">
-        <v>34</v>
-      </c>
-      <c r="C67">
-        <v>22</v>
-      </c>
-      <c r="D67">
-        <v>56</v>
-      </c>
-      <c r="E67">
-        <v>32</v>
-      </c>
       <c r="F67">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G67">
         <v>10</v>
       </c>
       <c r="H67">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I67">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3823,10 +3850,10 @@
         <v>0.003</v>
       </c>
       <c r="M67">
-        <v>0.6071428571428571</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="N67">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -3837,31 +3864,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B68">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D68">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E68">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F68">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G68">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I68">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3873,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.6415094339622641</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="N68">
-        <v>0.4722222222222222</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -3887,31 +3914,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B69">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E69">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F69">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G69">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H69">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I69">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3923,10 +3950,10 @@
         <v>0.001</v>
       </c>
       <c r="M69">
-        <v>0.6415094339622641</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="N69">
-        <v>0.4411764705882353</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -3937,31 +3964,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B70">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C70">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D70">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E70">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F70">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G70">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H70">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I70">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3973,10 +4000,10 @@
         <v>0.002</v>
       </c>
       <c r="M70">
-        <v>0.6415094339622641</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="N70">
-        <v>0.4242424242424243</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -3987,31 +4014,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B71">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C71">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>41</v>
+      </c>
+      <c r="E71">
+        <v>22</v>
+      </c>
+      <c r="F71">
         <v>19</v>
       </c>
-      <c r="D71">
-        <v>53</v>
-      </c>
-      <c r="E71">
-        <v>31</v>
-      </c>
-      <c r="F71">
-        <v>22</v>
-      </c>
       <c r="G71">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H71">
+        <v>13</v>
+      </c>
+      <c r="I71">
         <v>19</v>
-      </c>
-      <c r="I71">
-        <v>22</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4023,10 +4050,10 @@
         <v>0.003</v>
       </c>
       <c r="M71">
-        <v>0.6415094339622641</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="N71">
-        <v>0.3870967741935484</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4037,31 +4064,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B72">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C72">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D72">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E72">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>13</v>
+      </c>
+      <c r="H72">
         <v>14</v>
       </c>
-      <c r="G72">
-        <v>16</v>
-      </c>
-      <c r="H72">
-        <v>19</v>
-      </c>
       <c r="I72">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4073,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.6122448979591837</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="N72">
-        <v>0.4571428571428571</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4087,31 +4114,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B73">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C73">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D73">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E73">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F73">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G73">
+        <v>13</v>
+      </c>
+      <c r="H73">
         <v>14</v>
       </c>
-      <c r="H73">
-        <v>19</v>
-      </c>
       <c r="I73">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4123,10 +4150,10 @@
         <v>0.001</v>
       </c>
       <c r="M73">
-        <v>0.6122448979591837</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="N73">
-        <v>0.4242424242424243</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4137,28 +4164,28 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B74">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D74">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E74">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F74">
         <v>17</v>
       </c>
       <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
         <v>13</v>
-      </c>
-      <c r="H74">
-        <v>19</v>
       </c>
       <c r="I74">
         <v>17</v>
@@ -4173,10 +4200,10 @@
         <v>0.002</v>
       </c>
       <c r="M74">
-        <v>0.6122448979591837</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="N74">
-        <v>0.40625</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4187,31 +4214,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B75">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C75">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>38</v>
+      </c>
+      <c r="E75">
         <v>19</v>
       </c>
-      <c r="D75">
-        <v>49</v>
-      </c>
-      <c r="E75">
-        <v>31</v>
-      </c>
       <c r="F75">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G75">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H75">
+        <v>13</v>
+      </c>
+      <c r="I75">
         <v>19</v>
-      </c>
-      <c r="I75">
-        <v>18</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4223,10 +4250,10 @@
         <v>0.003</v>
       </c>
       <c r="M75">
-        <v>0.6122448979591837</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="N75">
-        <v>0.3870967741935484</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4237,31 +4264,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76">
+        <v>24</v>
+      </c>
+      <c r="C76">
+        <v>13</v>
+      </c>
+      <c r="D76">
+        <v>37</v>
+      </c>
+      <c r="E76">
         <v>26</v>
       </c>
-      <c r="B76">
-        <v>27</v>
-      </c>
-      <c r="C76">
-        <v>19</v>
-      </c>
-      <c r="D76">
-        <v>46</v>
-      </c>
-      <c r="E76">
-        <v>34</v>
-      </c>
       <c r="F76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H76">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4273,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.5869565217391305</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="N76">
-        <v>0.4411764705882353</v>
+        <v>0.5</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4287,31 +4314,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77">
+        <v>24</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>37</v>
+      </c>
+      <c r="E77">
         <v>26</v>
       </c>
-      <c r="B77">
-        <v>27</v>
-      </c>
-      <c r="C77">
-        <v>19</v>
-      </c>
-      <c r="D77">
-        <v>46</v>
-      </c>
-      <c r="E77">
-        <v>32</v>
-      </c>
       <c r="F77">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G77">
         <v>13</v>
       </c>
       <c r="H77">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I77">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4323,10 +4350,10 @@
         <v>0.001</v>
       </c>
       <c r="M77">
-        <v>0.5869565217391305</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="N77">
-        <v>0.40625</v>
+        <v>0.5</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4337,28 +4364,28 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B78">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C78">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D78">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E78">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F78">
         <v>15</v>
       </c>
       <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
         <v>12</v>
-      </c>
-      <c r="H78">
-        <v>19</v>
       </c>
       <c r="I78">
         <v>15</v>
@@ -4373,10 +4400,10 @@
         <v>0.002</v>
       </c>
       <c r="M78">
-        <v>0.5869565217391305</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="N78">
-        <v>0.3870967741935484</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4387,31 +4414,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C79">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D79">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E79">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F79">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G79">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H79">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I79">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4423,10 +4450,10 @@
         <v>0.003</v>
       </c>
       <c r="M79">
-        <v>0.5869565217391305</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="N79">
-        <v>0.3666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4437,31 +4464,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B80">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C80">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E80">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80">
         <v>12</v>
       </c>
-      <c r="G80">
-        <v>15</v>
-      </c>
-      <c r="H80">
-        <v>18</v>
-      </c>
       <c r="I80">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4473,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="N80">
         <v>0.4545454545454545</v>
@@ -4487,31 +4514,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B81">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C81">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D81">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E81">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F81">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G81">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H81">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I81">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4523,10 +4550,10 @@
         <v>0.001</v>
       </c>
       <c r="M81">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="N81">
-        <v>0.4375</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -4537,31 +4564,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B82">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C82">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E82">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F82">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G82">
+        <v>8</v>
+      </c>
+      <c r="H82">
+        <v>11</v>
+      </c>
+      <c r="I82">
         <v>13</v>
-      </c>
-      <c r="H82">
-        <v>18</v>
-      </c>
-      <c r="I82">
-        <v>14</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4573,10 +4600,10 @@
         <v>0.002</v>
       </c>
       <c r="M82">
-        <v>0.6</v>
+        <v>0.65625</v>
       </c>
       <c r="N82">
-        <v>0.4193548387096774</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -4587,28 +4614,28 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B83">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F83">
         <v>15</v>
       </c>
       <c r="G83">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H83">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I83">
         <v>15</v>
@@ -4623,10 +4650,10 @@
         <v>0.003</v>
       </c>
       <c r="M83">
-        <v>0.6</v>
+        <v>0.65625</v>
       </c>
       <c r="N83">
-        <v>0.4</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -4637,31 +4664,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F84">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H84">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I84">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4673,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.6428571428571429</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="N84">
         <v>0.5</v>
@@ -4687,31 +4714,31 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B85">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E85">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F85">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G85">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H85">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I85">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4723,10 +4750,10 @@
         <v>0.001</v>
       </c>
       <c r="M85">
-        <v>0.6428571428571429</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="N85">
-        <v>0.4827586206896552</v>
+        <v>0.5</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -4737,31 +4764,31 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B86">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E86">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F86">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G86">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H86">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I86">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4773,10 +4800,10 @@
         <v>0.002</v>
       </c>
       <c r="M86">
-        <v>0.6428571428571429</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="N86">
-        <v>0.4642857142857143</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -4787,31 +4814,31 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B87">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D87">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E87">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F87">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G87">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H87">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I87">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4823,10 +4850,10 @@
         <v>0.003</v>
       </c>
       <c r="M87">
-        <v>0.6428571428571429</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="N87">
-        <v>0.4444444444444444</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -4837,31 +4864,31 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E88">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F88">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G88">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I88">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4873,10 +4900,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N88">
-        <v>0.4827586206896552</v>
+        <v>0.5</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -4887,31 +4914,31 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B89">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F89">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G89">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H89">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I89">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4923,10 +4950,10 @@
         <v>0.001</v>
       </c>
       <c r="M89">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N89">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="O89">
         <v>1</v>
@@ -4937,31 +4964,31 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B90">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E90">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F90">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G90">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H90">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I90">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4973,7 +5000,7 @@
         <v>0.002</v>
       </c>
       <c r="M90">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N90">
         <v>0.4444444444444444</v>
@@ -4987,31 +5014,31 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B91">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E91">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F91">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G91">
+        <v>7</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91">
         <v>11</v>
-      </c>
-      <c r="H91">
-        <v>15</v>
-      </c>
-      <c r="I91">
-        <v>14</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5023,10 +5050,10 @@
         <v>0.003</v>
       </c>
       <c r="M91">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N91">
-        <v>0.4230769230769231</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -5037,31 +5064,31 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
         <v>27</v>
       </c>
-      <c r="B92">
-        <v>25</v>
-      </c>
-      <c r="C92">
-        <v>12</v>
-      </c>
-      <c r="D92">
-        <v>37</v>
-      </c>
       <c r="E92">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <v>9</v>
+      </c>
+      <c r="H92">
         <v>10</v>
       </c>
-      <c r="G92">
-        <v>15</v>
-      </c>
-      <c r="H92">
-        <v>12</v>
-      </c>
       <c r="I92">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5073,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.6756756756756757</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="N92">
-        <v>0.5555555555555556</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="O92">
         <v>1</v>
@@ -5087,31 +5114,31 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
         <v>27</v>
       </c>
-      <c r="B93">
-        <v>25</v>
-      </c>
-      <c r="C93">
-        <v>12</v>
-      </c>
-      <c r="D93">
-        <v>37</v>
-      </c>
       <c r="E93">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F93">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H93">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I93">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5123,10 +5150,10 @@
         <v>0.001</v>
       </c>
       <c r="M93">
-        <v>0.6756756756756757</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="N93">
-        <v>0.5384615384615384</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -5137,31 +5164,31 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
         <v>27</v>
       </c>
-      <c r="B94">
-        <v>25</v>
-      </c>
-      <c r="C94">
-        <v>12</v>
-      </c>
-      <c r="D94">
-        <v>37</v>
-      </c>
       <c r="E94">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F94">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G94">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H94">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I94">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5173,10 +5200,10 @@
         <v>0.002</v>
       </c>
       <c r="M94">
-        <v>0.6756756756756757</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="N94">
-        <v>0.52</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -5187,31 +5214,31 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
         <v>27</v>
       </c>
-      <c r="B95">
-        <v>25</v>
-      </c>
-      <c r="C95">
-        <v>12</v>
-      </c>
-      <c r="D95">
-        <v>37</v>
-      </c>
       <c r="E95">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F95">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G95">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H95">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I95">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5223,10 +5250,10 @@
         <v>0.003</v>
       </c>
       <c r="M95">
-        <v>0.6756756756756757</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="N95">
-        <v>0.5</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -5237,31 +5264,31 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F96">
+        <v>7</v>
+      </c>
+      <c r="G96">
+        <v>9</v>
+      </c>
+      <c r="H96">
         <v>10</v>
       </c>
-      <c r="G96">
-        <v>12</v>
-      </c>
-      <c r="H96">
-        <v>11</v>
-      </c>
       <c r="I96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5273,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N96">
-        <v>0.5217391304347826</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -5287,31 +5314,31 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B97">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E97">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F97">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G97">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I97">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5323,10 +5350,10 @@
         <v>0.001</v>
       </c>
       <c r="M97">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N97">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -5337,31 +5364,31 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B98">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F98">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G98">
+        <v>8</v>
+      </c>
+      <c r="H98">
         <v>10</v>
       </c>
-      <c r="H98">
-        <v>11</v>
-      </c>
       <c r="I98">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5373,10 +5400,10 @@
         <v>0.002</v>
       </c>
       <c r="M98">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N98">
-        <v>0.4761904761904762</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -5387,31 +5414,31 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B99">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E99">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F99">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G99">
+        <v>7</v>
+      </c>
+      <c r="H99">
+        <v>10</v>
+      </c>
+      <c r="I99">
         <v>9</v>
-      </c>
-      <c r="H99">
-        <v>11</v>
-      </c>
-      <c r="I99">
-        <v>13</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5423,10 +5450,10 @@
         <v>0.003</v>
       </c>
       <c r="M99">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N99">
-        <v>0.45</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -5437,31 +5464,31 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E100">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G100">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I100">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5473,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.65625</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="N100">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -5487,31 +5514,31 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B101">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D101">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E101">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F101">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H101">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I101">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -5523,10 +5550,10 @@
         <v>0.001</v>
       </c>
       <c r="M101">
-        <v>0.65625</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="N101">
-        <v>0.4761904761904762</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -5537,31 +5564,31 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B102">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E102">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F102">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G102">
+        <v>7</v>
+      </c>
+      <c r="H102">
         <v>9</v>
       </c>
-      <c r="H102">
-        <v>11</v>
-      </c>
       <c r="I102">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5573,10 +5600,10 @@
         <v>0.002</v>
       </c>
       <c r="M102">
-        <v>0.65625</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="N102">
-        <v>0.45</v>
+        <v>0.4375</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -5587,31 +5614,31 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E103">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F103">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G103">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I103">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -5623,10 +5650,10 @@
         <v>0.003</v>
       </c>
       <c r="M103">
-        <v>0.65625</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="N103">
-        <v>0.4210526315789473</v>
+        <v>0.4375</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -5637,31 +5664,31 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B104">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D104">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E104">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F104">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G104">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H104">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I104">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -5673,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.6451612903225806</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N104">
         <v>0.5</v>
@@ -5687,31 +5714,31 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B105">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D105">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E105">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H105">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I105">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -5723,10 +5750,10 @@
         <v>0.001</v>
       </c>
       <c r="M105">
-        <v>0.6451612903225806</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N105">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -5737,31 +5764,31 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D106">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E106">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F106">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G106">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H106">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I106">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5773,10 +5800,10 @@
         <v>0.002</v>
       </c>
       <c r="M106">
-        <v>0.6451612903225806</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N106">
-        <v>0.45</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -5787,31 +5814,31 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B107">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D107">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E107">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F107">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G107">
+        <v>7</v>
+      </c>
+      <c r="H107">
         <v>8</v>
       </c>
-      <c r="H107">
-        <v>11</v>
-      </c>
       <c r="I107">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5823,10 +5850,10 @@
         <v>0.003</v>
       </c>
       <c r="M107">
-        <v>0.6451612903225806</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N107">
-        <v>0.4210526315789473</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -5837,31 +5864,31 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B108">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>21</v>
+      </c>
+      <c r="E108">
         <v>16</v>
       </c>
-      <c r="C108">
-        <v>10</v>
-      </c>
-      <c r="D108">
-        <v>26</v>
-      </c>
-      <c r="E108">
-        <v>18</v>
-      </c>
       <c r="F108">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G108">
         <v>8</v>
       </c>
       <c r="H108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I108">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -5873,10 +5900,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.6153846153846154</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="N108">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -5887,31 +5914,31 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B109">
+        <v>13</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>21</v>
+      </c>
+      <c r="E109">
         <v>16</v>
       </c>
-      <c r="C109">
-        <v>10</v>
-      </c>
-      <c r="D109">
-        <v>26</v>
-      </c>
-      <c r="E109">
-        <v>17</v>
-      </c>
       <c r="F109">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G109">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H109">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I109">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -5923,10 +5950,10 @@
         <v>0.001</v>
       </c>
       <c r="M109">
-        <v>0.6153846153846154</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="N109">
-        <v>0.4117647058823529</v>
+        <v>0.5</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -5937,31 +5964,31 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B110">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D110">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E110">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F110">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G110">
         <v>7</v>
       </c>
       <c r="H110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I110">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5973,10 +6000,10 @@
         <v>0.002</v>
       </c>
       <c r="M110">
-        <v>0.6153846153846154</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="N110">
-        <v>0.4117647058823529</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -5987,31 +6014,31 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B111">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E111">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G111">
+        <v>7</v>
+      </c>
+      <c r="H111">
+        <v>8</v>
+      </c>
+      <c r="I111">
         <v>6</v>
-      </c>
-      <c r="H111">
-        <v>10</v>
-      </c>
-      <c r="I111">
-        <v>10</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -6023,10 +6050,10 @@
         <v>0.003</v>
       </c>
       <c r="M111">
-        <v>0.6153846153846154</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="N111">
-        <v>0.375</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -6037,31 +6064,31 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
+      </c>
+      <c r="E112">
         <v>16</v>
       </c>
-      <c r="C112">
-        <v>10</v>
-      </c>
-      <c r="D112">
-        <v>26</v>
-      </c>
-      <c r="E112">
-        <v>18</v>
-      </c>
       <c r="F112">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H112">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I112">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6073,10 +6100,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.6153846153846154</v>
+        <v>0.55</v>
       </c>
       <c r="N112">
-        <v>0.4444444444444444</v>
+        <v>0.4375</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6087,31 +6114,31 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <v>20</v>
+      </c>
+      <c r="E113">
         <v>16</v>
       </c>
-      <c r="C113">
-        <v>10</v>
-      </c>
-      <c r="D113">
-        <v>26</v>
-      </c>
-      <c r="E113">
-        <v>17</v>
-      </c>
       <c r="F113">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G113">
         <v>7</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I113">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6123,10 +6150,10 @@
         <v>0.001</v>
       </c>
       <c r="M113">
-        <v>0.6153846153846154</v>
+        <v>0.55</v>
       </c>
       <c r="N113">
-        <v>0.4117647058823529</v>
+        <v>0.4375</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -6137,31 +6164,31 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D114">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E114">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F114">
+        <v>5</v>
+      </c>
+      <c r="G114">
+        <v>6</v>
+      </c>
+      <c r="H114">
         <v>9</v>
       </c>
-      <c r="G114">
-        <v>7</v>
-      </c>
-      <c r="H114">
-        <v>10</v>
-      </c>
       <c r="I114">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6173,10 +6200,10 @@
         <v>0.002</v>
       </c>
       <c r="M114">
-        <v>0.6153846153846154</v>
+        <v>0.55</v>
       </c>
       <c r="N114">
-        <v>0.4117647058823529</v>
+        <v>0.4</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -6187,31 +6214,31 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B115">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E115">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G115">
         <v>6</v>
       </c>
       <c r="H115">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I115">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6223,10 +6250,10 @@
         <v>0.003</v>
       </c>
       <c r="M115">
-        <v>0.6153846153846154</v>
+        <v>0.55</v>
       </c>
       <c r="N115">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -6237,31 +6264,31 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>19</v>
+      </c>
+      <c r="E116">
         <v>16</v>
       </c>
-      <c r="C116">
-        <v>10</v>
-      </c>
-      <c r="D116">
-        <v>26</v>
-      </c>
-      <c r="E116">
-        <v>18</v>
-      </c>
       <c r="F116">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G116">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H116">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I116">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6273,10 +6300,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.6153846153846154</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="N116">
-        <v>0.4444444444444444</v>
+        <v>0.4375</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -6287,31 +6314,31 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>19</v>
+      </c>
+      <c r="E117">
         <v>16</v>
       </c>
-      <c r="C117">
-        <v>10</v>
-      </c>
-      <c r="D117">
-        <v>26</v>
-      </c>
-      <c r="E117">
-        <v>17</v>
-      </c>
       <c r="F117">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G117">
         <v>7</v>
       </c>
       <c r="H117">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I117">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6323,10 +6350,10 @@
         <v>0.001</v>
       </c>
       <c r="M117">
-        <v>0.6153846153846154</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="N117">
-        <v>0.4117647058823529</v>
+        <v>0.4375</v>
       </c>
       <c r="O117">
         <v>1</v>
@@ -6337,31 +6364,31 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B118">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E118">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118">
+        <v>6</v>
+      </c>
+      <c r="H118">
         <v>9</v>
       </c>
-      <c r="G118">
-        <v>7</v>
-      </c>
-      <c r="H118">
-        <v>10</v>
-      </c>
       <c r="I118">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6373,10 +6400,10 @@
         <v>0.002</v>
       </c>
       <c r="M118">
-        <v>0.6153846153846154</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="N118">
-        <v>0.4117647058823529</v>
+        <v>0.4</v>
       </c>
       <c r="O118">
         <v>1</v>
@@ -6387,31 +6414,31 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D119">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E119">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G119">
         <v>6</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I119">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6423,10 +6450,10 @@
         <v>0.003</v>
       </c>
       <c r="M119">
-        <v>0.6153846153846154</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="N119">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="O119">
         <v>1</v>
@@ -6437,31 +6464,31 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B120">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>8</v>
+      </c>
+      <c r="D120">
         <v>17</v>
       </c>
-      <c r="C120">
-        <v>9</v>
-      </c>
-      <c r="D120">
-        <v>26</v>
-      </c>
       <c r="E120">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>6</v>
+      </c>
+      <c r="H120">
         <v>8</v>
       </c>
-      <c r="G120">
-        <v>9</v>
-      </c>
-      <c r="H120">
-        <v>9</v>
-      </c>
       <c r="I120">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6473,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.6538461538461539</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="N120">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -6487,31 +6514,31 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121">
         <v>17</v>
       </c>
-      <c r="C121">
-        <v>9</v>
-      </c>
-      <c r="D121">
-        <v>26</v>
-      </c>
       <c r="E121">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F121">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G121">
+        <v>6</v>
+      </c>
+      <c r="H121">
         <v>8</v>
       </c>
-      <c r="H121">
-        <v>9</v>
-      </c>
       <c r="I121">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -6523,10 +6550,10 @@
         <v>0.001</v>
       </c>
       <c r="M121">
-        <v>0.6538461538461539</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="N121">
-        <v>0.4705882352941176</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O121">
         <v>1</v>
@@ -6537,31 +6564,31 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+      <c r="D122">
         <v>17</v>
       </c>
-      <c r="C122">
-        <v>9</v>
-      </c>
-      <c r="D122">
-        <v>26</v>
-      </c>
       <c r="E122">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122">
         <v>8</v>
       </c>
-      <c r="H122">
-        <v>9</v>
-      </c>
       <c r="I122">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -6573,10 +6600,10 @@
         <v>0.002</v>
       </c>
       <c r="M122">
-        <v>0.6538461538461539</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="N122">
-        <v>0.4705882352941176</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="O122">
         <v>1</v>
@@ -6587,31 +6614,31 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+      <c r="D123">
         <v>17</v>
       </c>
-      <c r="C123">
-        <v>9</v>
-      </c>
-      <c r="D123">
-        <v>26</v>
-      </c>
       <c r="E123">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G123">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H123">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I123">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -6623,10 +6650,10 @@
         <v>0.003</v>
       </c>
       <c r="M123">
-        <v>0.6538461538461539</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="N123">
-        <v>0.4375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="O123">
         <v>1</v>
@@ -6637,31 +6664,31 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B124">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D124">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E124">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F124">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G124">
         <v>7</v>
       </c>
       <c r="H124">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I124">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -6673,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="N124">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="O124">
         <v>1</v>
@@ -6687,31 +6714,31 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C125">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D125">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E125">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F125">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G125">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H125">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I125">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -6723,10 +6750,10 @@
         <v>0.001</v>
       </c>
       <c r="M125">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="N125">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O125">
         <v>1</v>
@@ -6737,31 +6764,31 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B126">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C126">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D126">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E126">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F126">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G126">
         <v>6</v>
       </c>
       <c r="H126">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I126">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -6773,10 +6800,10 @@
         <v>0.002</v>
       </c>
       <c r="M126">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="N126">
-        <v>0.4</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O126">
         <v>1</v>
@@ -6787,31 +6814,31 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C127">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D127">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E127">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H127">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I127">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -6823,10 +6850,10 @@
         <v>0.003</v>
       </c>
       <c r="M127">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="N127">
-        <v>0.3571428571428572</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O127">
         <v>1</v>
@@ -6837,31 +6864,31 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
         <v>14</v>
       </c>
-      <c r="C128">
-        <v>9</v>
-      </c>
-      <c r="D128">
-        <v>23</v>
-      </c>
       <c r="E128">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
         <v>8</v>
       </c>
-      <c r="G128">
-        <v>6</v>
-      </c>
       <c r="H128">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I128">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -6873,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.6086956521739131</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N128">
-        <v>0.4</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="O128">
         <v>1</v>
@@ -6887,31 +6914,31 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
         <v>14</v>
       </c>
-      <c r="C129">
-        <v>9</v>
-      </c>
-      <c r="D129">
-        <v>23</v>
-      </c>
       <c r="E129">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
         <v>8</v>
       </c>
-      <c r="G129">
-        <v>6</v>
-      </c>
       <c r="H129">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I129">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -6923,10 +6950,10 @@
         <v>0.001</v>
       </c>
       <c r="M129">
-        <v>0.6086956521739131</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N129">
-        <v>0.4</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="O129">
         <v>1</v>
@@ -6937,31 +6964,31 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
         <v>14</v>
       </c>
-      <c r="C130">
-        <v>9</v>
-      </c>
-      <c r="D130">
-        <v>23</v>
-      </c>
       <c r="E130">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F130">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H130">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I130">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6973,10 +7000,10 @@
         <v>0.002</v>
       </c>
       <c r="M130">
-        <v>0.6086956521739131</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N130">
-        <v>0.4</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -6987,31 +7014,31 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
         <v>14</v>
       </c>
-      <c r="C131">
-        <v>9</v>
-      </c>
-      <c r="D131">
-        <v>23</v>
-      </c>
       <c r="E131">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F131">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G131">
+        <v>7</v>
+      </c>
+      <c r="H131">
         <v>5</v>
       </c>
-      <c r="H131">
-        <v>9</v>
-      </c>
       <c r="I131">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7023,10 +7050,10 @@
         <v>0.003</v>
       </c>
       <c r="M131">
-        <v>0.6086956521739131</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N131">
-        <v>0.3571428571428572</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="O131">
         <v>1</v>
@@ -7037,31 +7064,31 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B132">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D132">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E132">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G132">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I132">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7076,7 +7103,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="N132">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="O132">
         <v>1</v>
@@ -7087,31 +7114,31 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B133">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D133">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E133">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7126,7 +7153,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="N133">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="O133">
         <v>1</v>
@@ -7137,31 +7164,31 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B134">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D134">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E134">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F134">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G134">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I134">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -7176,7 +7203,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="N134">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O134">
         <v>1</v>
@@ -7187,31 +7214,31 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B135">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E135">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F135">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G135">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H135">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I135">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7226,7 +7253,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="N135">
-        <v>0.4285714285714285</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O135">
         <v>1</v>

--- a/tmp_grid_res.xlsx
+++ b/tmp_grid_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
   <si>
     <t>win</t>
   </si>
@@ -61,97 +61,94 @@
     <t>close by time lose/lose</t>
   </si>
   <si>
-    <t>2021-12-14 09:30:00 -&gt; 2022-06-28 09:31:00</t>
+    <t>2021-12-14 09:30:00 -&gt; 2022-06-08 14:10:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:31:00 -&gt; 2022-06-28 09:31:00</t>
+    <t>2021-12-14 09:30:00 -&gt; 2022-06-08 14:08:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:33:00 -&gt; 2022-06-28 13:31:00</t>
+    <t>2021-12-14 09:30:00 -&gt; 2022-06-08 14:06:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:33:00 -&gt; 2022-06-28 13:29:00</t>
+    <t>2021-12-14 09:33:00 -&gt; 2022-06-08 14:10:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:33:00 -&gt; 2022-06-28 09:52:00</t>
+    <t>2021-12-14 09:33:00 -&gt; 2022-06-08 14:08:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:33:00 -&gt; 2022-06-28 09:37:00</t>
+    <t>2021-12-14 09:33:00 -&gt; 2022-06-08 14:06:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:33:00 -&gt; 2022-06-28 09:50:00</t>
+    <t>2021-12-14 09:34:00 -&gt; 2022-06-08 14:10:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:51:00 -&gt; 2022-06-28 13:31:00</t>
+    <t>2021-12-14 09:34:00 -&gt; 2022-06-08 14:08:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:51:00 -&gt; 2022-06-28 13:29:00</t>
+    <t>2021-12-14 09:34:00 -&gt; 2022-06-08 14:06:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:51:00 -&gt; 2022-06-28 09:52:00</t>
+    <t>2021-12-14 09:36:00 -&gt; 2022-06-08 14:10:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:51:00 -&gt; 2022-06-28 09:50:00</t>
+    <t>2021-12-14 09:36:00 -&gt; 2022-06-08 14:08:00</t>
   </si>
   <si>
-    <t>2021-12-14 14:56:00 -&gt; 2022-06-28 13:31:00</t>
+    <t>2021-12-14 09:36:00 -&gt; 2022-06-08 14:06:00</t>
   </si>
   <si>
-    <t>2021-12-14 14:56:00 -&gt; 2022-06-28 13:29:00</t>
+    <t>2021-12-14 09:37:00 -&gt; 2022-06-08 14:10:00</t>
   </si>
   <si>
-    <t>2021-12-14 14:56:00 -&gt; 2022-06-28 13:25:00</t>
+    <t>2021-12-14 09:37:00 -&gt; 2022-06-08 14:08:00</t>
   </si>
   <si>
-    <t>2021-12-14 14:56:00 -&gt; 2022-06-28 13:23:00</t>
+    <t>2021-12-14 09:37:00 -&gt; 2022-06-08 14:06:00</t>
   </si>
   <si>
-    <t>2021-12-15 09:49:00 -&gt; 2022-06-27 15:00:00</t>
+    <t>2021-12-14 09:39:00 -&gt; 2022-06-08 14:10:00</t>
   </si>
   <si>
-    <t>2021-12-15 09:49:00 -&gt; 2022-06-27 14:48:00</t>
+    <t>2021-12-14 09:39:00 -&gt; 2022-06-08 14:08:00</t>
   </si>
   <si>
-    <t>2021-12-15 09:53:00 -&gt; 2022-06-27 15:00:00</t>
+    <t>2021-12-14 09:39:00 -&gt; 2022-06-08 14:06:00</t>
   </si>
   <si>
-    <t>2021-12-15 09:53:00 -&gt; 2022-06-27 14:48:00</t>
+    <t>2021-12-14 09:40:00 -&gt; 2022-06-08 14:10:00</t>
   </si>
   <si>
-    <t>2021-12-20 09:50:00 -&gt; 2022-06-27 15:00:00</t>
+    <t>2021-12-14 09:40:00 -&gt; 2022-06-08 14:08:00</t>
   </si>
   <si>
-    <t>2021-12-20 09:50:00 -&gt; 2022-06-27 14:48:00</t>
+    <t>2021-12-14 09:40:00 -&gt; 2022-06-08 14:06:00</t>
   </si>
   <si>
-    <t>2021-12-20 10:24:00 -&gt; 2022-06-27 15:00:00</t>
+    <t>2021-12-14 09:41:00 -&gt; 2022-06-08 14:10:00</t>
   </si>
   <si>
-    <t>2021-12-20 10:24:00 -&gt; 2022-06-27 14:48:00</t>
+    <t>2021-12-14 09:41:00 -&gt; 2022-06-08 14:08:00</t>
   </si>
   <si>
-    <t>2021-12-28 14:22:00 -&gt; 2022-06-27 15:00:00</t>
+    <t>2021-12-14 09:41:00 -&gt; 2022-06-08 14:06:00</t>
   </si>
   <si>
-    <t>2021-12-28 14:22:00 -&gt; 2022-06-27 14:48:00</t>
+    <t>2021-12-14 09:45:00 -&gt; 2022-06-08 14:10:00</t>
   </si>
   <si>
-    <t>2021-12-28 14:24:00 -&gt; 2022-06-23 15:00:00</t>
+    <t>2021-12-14 09:45:00 -&gt; 2022-06-08 14:08:00</t>
   </si>
   <si>
-    <t>2021-12-28 14:48:00 -&gt; 2022-06-23 15:00:00</t>
+    <t>2021-12-14 09:45:00 -&gt; 2022-06-08 14:06:00</t>
   </si>
   <si>
-    <t>2022-01-05 09:58:00 -&gt; 2022-06-16 15:00:00</t>
+    <t>2021-12-14 09:45:00 -&gt; 2022-05-24 09:44:00</t>
   </si>
   <si>
-    <t>2022-01-05 10:01:00 -&gt; 2022-06-16 15:00:00</t>
+    <t>2021-12-14 09:59:00 -&gt; 2022-05-24 09:44:00</t>
   </si>
   <si>
-    <t>2022-01-05 10:03:00 -&gt; 2022-06-16 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-05 10:04:00 -&gt; 2022-06-16 15:00:00</t>
+    <t>2021-12-14 10:00:00 -&gt; 2022-05-24 09:44:00</t>
   </si>
 </sst>
 </file>
@@ -567,31 +564,31 @@
         <v>15</v>
       </c>
       <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>110</v>
       </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>129</v>
-      </c>
       <c r="E2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0.001</v>
@@ -600,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8527131782945736</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="N2">
-        <v>0.25</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="O2">
-        <v>0.963302752293578</v>
+        <v>0.9895833333333334</v>
       </c>
       <c r="P2">
-        <v>0.7894736842105263</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -617,28 +614,28 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -650,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.875968992248062</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="N3">
-        <v>0.2380952380952381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -664,34 +661,34 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0.002</v>
@@ -700,45 +697,45 @@
         <v>0.001</v>
       </c>
       <c r="M4">
-        <v>0.8062015503875969</v>
+        <v>0.9181818181818182</v>
       </c>
       <c r="N4">
-        <v>0.2222222222222222</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="O4">
-        <v>0.9009009009009009</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="P4">
-        <v>0.5600000000000001</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -750,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8604651162790697</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="N5">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -767,28 +764,28 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -800,10 +797,10 @@
         <v>0.001</v>
       </c>
       <c r="M6">
-        <v>0.8837209302325582</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="N6">
-        <v>0.2105263157894737</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -814,34 +811,34 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>8</v>
       </c>
       <c r="I7">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0.003</v>
@@ -850,45 +847,45 @@
         <v>0.002</v>
       </c>
       <c r="M7">
-        <v>0.8682170542635659</v>
+        <v>0.9181818181818182</v>
       </c>
       <c r="N7">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O7">
-        <v>0.923728813559322</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="P7">
-        <v>0.4705882352941176</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -900,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8372093023255814</v>
+        <v>0.9</v>
       </c>
       <c r="N8">
-        <v>0.2222222222222222</v>
+        <v>0.3125</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -914,31 +911,31 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>110</v>
       </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>129</v>
-      </c>
       <c r="E9">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -950,10 +947,10 @@
         <v>0.001</v>
       </c>
       <c r="M9">
-        <v>0.8527131782945736</v>
+        <v>0.9181818181818182</v>
       </c>
       <c r="N9">
-        <v>0.1739130434782609</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -964,31 +961,31 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1000,10 +997,10 @@
         <v>0.002</v>
       </c>
       <c r="M10">
-        <v>0.9224806201550387</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="N10">
-        <v>0.2307692307692308</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1014,34 +1011,34 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0.004</v>
@@ -1050,45 +1047,45 @@
         <v>0.003</v>
       </c>
       <c r="M11">
-        <v>0.8682170542635659</v>
+        <v>0.9363636363636364</v>
       </c>
       <c r="N11">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O11">
-        <v>0.9243697478991597</v>
+        <v>0.9902912621359223</v>
       </c>
       <c r="P11">
-        <v>0.4705882352941176</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1100,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8267716535433071</v>
+        <v>0.9</v>
       </c>
       <c r="N12">
-        <v>0.2666666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1114,31 +1111,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E13">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1150,10 +1147,10 @@
         <v>0.001</v>
       </c>
       <c r="M13">
-        <v>0.8346456692913385</v>
+        <v>0.9181818181818182</v>
       </c>
       <c r="N13">
-        <v>0.1923076923076923</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1164,31 +1161,31 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>110</v>
+      </c>
+      <c r="E14">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
       <c r="F14">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1200,10 +1197,10 @@
         <v>0.002</v>
       </c>
       <c r="M14">
-        <v>0.905511811023622</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="N14">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1214,31 +1211,31 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1250,10 +1247,10 @@
         <v>0.003</v>
       </c>
       <c r="M15">
-        <v>0.9212598425196851</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="N15">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1264,31 +1261,31 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E16">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I16">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1300,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7795275590551181</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="N16">
-        <v>0.2432432432432433</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1314,31 +1311,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>100</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E17">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F17">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1350,10 +1347,10 @@
         <v>0.001</v>
       </c>
       <c r="M17">
-        <v>0.7874015748031497</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="N17">
-        <v>0.1818181818181818</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1364,31 +1361,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E18">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1400,10 +1397,10 @@
         <v>0.002</v>
       </c>
       <c r="M18">
-        <v>0.8582677165354331</v>
+        <v>0.9181818181818182</v>
       </c>
       <c r="N18">
-        <v>0.1818181818181818</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1414,31 +1411,31 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1450,10 +1447,10 @@
         <v>0.003</v>
       </c>
       <c r="M19">
-        <v>0.889763779527559</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="N19">
-        <v>0.1764705882352941</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1464,31 +1461,31 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F20">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I20">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1500,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7560975609756098</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="N20">
-        <v>0.25</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1514,31 +1511,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E21">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I21">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1550,10 +1547,10 @@
         <v>0.001</v>
       </c>
       <c r="M21">
-        <v>0.7642276422764228</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="N21">
-        <v>0.1944444444444444</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1564,31 +1561,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E22">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I22">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1600,10 +1597,10 @@
         <v>0.002</v>
       </c>
       <c r="M22">
-        <v>0.8211382113821138</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="N22">
-        <v>0.1851851851851852</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1614,31 +1611,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I23">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1650,10 +1647,10 @@
         <v>0.003</v>
       </c>
       <c r="M23">
-        <v>0.8617886178861789</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="N23">
-        <v>0.15</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1664,31 +1661,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E24">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F24">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G24">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I24">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1700,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7310924369747899</v>
+        <v>0.8363636363636363</v>
       </c>
       <c r="N24">
-        <v>0.2888888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1714,31 +1711,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1750,10 +1747,10 @@
         <v>0.001</v>
       </c>
       <c r="M25">
-        <v>0.7394957983193278</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="N25">
-        <v>0.225</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1764,31 +1761,31 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F26">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I26">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1800,10 +1797,10 @@
         <v>0.002</v>
       </c>
       <c r="M26">
-        <v>0.7983193277310925</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="N26">
-        <v>0.2</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1814,31 +1811,31 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E27">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I27">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1850,10 +1847,10 @@
         <v>0.003</v>
       </c>
       <c r="M27">
-        <v>0.8403361344537815</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="N27">
-        <v>0.1363636363636364</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1864,31 +1861,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E28">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F28">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G28">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I28">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1900,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.7017543859649122</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N28">
-        <v>0.3333333333333333</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1914,31 +1911,31 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E29">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F29">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G29">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H29">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I29">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1950,10 +1947,10 @@
         <v>0.001</v>
       </c>
       <c r="M29">
-        <v>0.7105263157894737</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="N29">
-        <v>0.2826086956521739</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1964,31 +1961,31 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B30">
+        <v>94</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>110</v>
+      </c>
+      <c r="E30">
+        <v>22</v>
+      </c>
+      <c r="F30">
         <v>88</v>
       </c>
-      <c r="C30">
-        <v>26</v>
-      </c>
-      <c r="D30">
-        <v>114</v>
-      </c>
-      <c r="E30">
-        <v>34</v>
-      </c>
-      <c r="F30">
-        <v>80</v>
-      </c>
       <c r="G30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I30">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2000,10 +1997,10 @@
         <v>0.002</v>
       </c>
       <c r="M30">
-        <v>0.7719298245614035</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="N30">
-        <v>0.2352941176470588</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2014,31 +2011,31 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B31">
+        <v>95</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
         <v>92</v>
       </c>
-      <c r="C31">
-        <v>22</v>
-      </c>
-      <c r="D31">
-        <v>114</v>
-      </c>
-      <c r="E31">
-        <v>27</v>
-      </c>
-      <c r="F31">
-        <v>87</v>
-      </c>
       <c r="G31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2050,10 +2047,10 @@
         <v>0.003</v>
       </c>
       <c r="M31">
-        <v>0.8070175438596491</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="N31">
-        <v>0.1851851851851852</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2064,31 +2061,31 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E32">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F32">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I32">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2100,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.6728971962616822</v>
+        <v>0.7981651376146789</v>
       </c>
       <c r="N32">
-        <v>0.3636363636363636</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2114,31 +2111,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F33">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G33">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I33">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2150,10 +2147,10 @@
         <v>0.001</v>
       </c>
       <c r="M33">
-        <v>0.6915887850467289</v>
+        <v>0.8256880733944955</v>
       </c>
       <c r="N33">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2164,31 +2161,31 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E34">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I34">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2200,10 +2197,10 @@
         <v>0.002</v>
       </c>
       <c r="M34">
-        <v>0.7476635514018691</v>
+        <v>0.8348623853211009</v>
       </c>
       <c r="N34">
-        <v>0.3076923076923077</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2214,31 +2211,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E35">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F35">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I35">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2250,10 +2247,10 @@
         <v>0.003</v>
       </c>
       <c r="M35">
-        <v>0.7757009345794392</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="N35">
-        <v>0.2258064516129032</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2264,31 +2261,31 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E36">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F36">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="G36">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H36">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I36">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2300,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.6632653061224489</v>
+        <v>0.7981651376146789</v>
       </c>
       <c r="N36">
-        <v>0.3653846153846154</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2314,31 +2311,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E37">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G37">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H37">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I37">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2350,10 +2347,10 @@
         <v>0.001</v>
       </c>
       <c r="M37">
-        <v>0.6836734693877551</v>
+        <v>0.8256880733944955</v>
       </c>
       <c r="N37">
-        <v>0.3541666666666667</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2364,31 +2361,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E38">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F38">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G38">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I38">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2400,10 +2397,10 @@
         <v>0.002</v>
       </c>
       <c r="M38">
-        <v>0.7448979591836735</v>
+        <v>0.8348623853211009</v>
       </c>
       <c r="N38">
-        <v>0.3421052631578947</v>
+        <v>0.25</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2414,31 +2411,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E39">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F39">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I39">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2450,10 +2447,10 @@
         <v>0.003</v>
       </c>
       <c r="M39">
-        <v>0.7653061224489796</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="N39">
-        <v>0.2580645161290323</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2464,31 +2461,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E40">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F40">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G40">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I40">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2500,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.6702127659574468</v>
+        <v>0.8073394495412844</v>
       </c>
       <c r="N40">
-        <v>0.4150943396226415</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2514,31 +2511,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F41">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G41">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H41">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I41">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2550,10 +2547,10 @@
         <v>0.001</v>
       </c>
       <c r="M41">
-        <v>0.6808510638297872</v>
+        <v>0.8348623853211009</v>
       </c>
       <c r="N41">
-        <v>0.3877551020408163</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2564,31 +2561,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F42">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G42">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I42">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2600,10 +2597,10 @@
         <v>0.002</v>
       </c>
       <c r="M42">
-        <v>0.723404255319149</v>
+        <v>0.8440366972477065</v>
       </c>
       <c r="N42">
-        <v>0.35</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2614,31 +2611,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E43">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F43">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I43">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2650,10 +2647,10 @@
         <v>0.003</v>
       </c>
       <c r="M43">
-        <v>0.7446808510638298</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="N43">
-        <v>0.2727272727272727</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -2664,31 +2661,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E44">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F44">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G44">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I44">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2700,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.6626506024096386</v>
+        <v>0.8165137614678899</v>
       </c>
       <c r="N44">
-        <v>0.4042553191489361</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2714,31 +2711,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B45">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E45">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F45">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
         <v>17</v>
       </c>
-      <c r="H45">
-        <v>28</v>
-      </c>
       <c r="I45">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2750,10 +2747,10 @@
         <v>0.001</v>
       </c>
       <c r="M45">
-        <v>0.6626506024096386</v>
+        <v>0.8440366972477065</v>
       </c>
       <c r="N45">
-        <v>0.3777777777777778</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -2764,31 +2761,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E46">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F46">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G46">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I46">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2800,10 +2797,10 @@
         <v>0.002</v>
       </c>
       <c r="M46">
-        <v>0.7108433734939759</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="N46">
-        <v>0.3513513513513514</v>
+        <v>0.36</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2814,31 +2811,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E47">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F47">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H47">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I47">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2850,10 +2847,10 @@
         <v>0.003</v>
       </c>
       <c r="M47">
-        <v>0.7108433734939759</v>
+        <v>0.8715596330275229</v>
       </c>
       <c r="N47">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2864,31 +2861,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E48">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F48">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G48">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I48">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2900,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.6538461538461539</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="N48">
-        <v>0.4</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2914,31 +2911,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B49">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E49">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F49">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="G49">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I49">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2950,10 +2947,10 @@
         <v>0.001</v>
       </c>
       <c r="M49">
-        <v>0.6538461538461539</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N49">
-        <v>0.3863636363636364</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2964,31 +2961,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E50">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F50">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G50">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H50">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I50">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3000,10 +2997,10 @@
         <v>0.002</v>
       </c>
       <c r="M50">
-        <v>0.6923076923076923</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="N50">
-        <v>0.3513513513513514</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -3014,31 +3011,31 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E51">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F51">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H51">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I51">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3050,10 +3047,10 @@
         <v>0.003</v>
       </c>
       <c r="M51">
-        <v>0.6923076923076923</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="N51">
-        <v>0.2727272727272727</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3064,31 +3061,31 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E52">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F52">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H52">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I52">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3100,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.6666666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="N52">
-        <v>0.4523809523809524</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3114,31 +3111,31 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B53">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E53">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F53">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H53">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I53">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3150,10 +3147,10 @@
         <v>0.001</v>
       </c>
       <c r="M53">
-        <v>0.6666666666666666</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="N53">
-        <v>0.4390243902439024</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3164,31 +3161,31 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B54">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E54">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F54">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H54">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I54">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3200,10 +3197,10 @@
         <v>0.002</v>
       </c>
       <c r="M54">
-        <v>0.7101449275362319</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="N54">
-        <v>0.4117647058823529</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3214,31 +3211,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B55">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E55">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F55">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H55">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I55">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3250,10 +3247,10 @@
         <v>0.003</v>
       </c>
       <c r="M55">
-        <v>0.7101449275362319</v>
+        <v>0.8796296296296297</v>
       </c>
       <c r="N55">
-        <v>0.3548387096774194</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3264,31 +3261,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B56">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E56">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F56">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="G56">
+        <v>16</v>
+      </c>
+      <c r="H56">
         <v>20</v>
       </c>
-      <c r="H56">
-        <v>21</v>
-      </c>
       <c r="I56">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3300,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.6865671641791045</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="N56">
-        <v>0.4878048780487805</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3314,31 +3311,31 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E57">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F57">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="G57">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H57">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I57">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3350,10 +3347,10 @@
         <v>0.001</v>
       </c>
       <c r="M57">
-        <v>0.6865671641791045</v>
+        <v>0.8380952380952381</v>
       </c>
       <c r="N57">
-        <v>0.475</v>
+        <v>0.46875</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3364,31 +3361,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E58">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G58">
         <v>14</v>
       </c>
       <c r="H58">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I58">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3400,10 +3397,10 @@
         <v>0.002</v>
       </c>
       <c r="M58">
-        <v>0.7164179104477612</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="N58">
-        <v>0.4242424242424243</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3414,31 +3411,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B59">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E59">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F59">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H59">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I59">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3450,10 +3447,10 @@
         <v>0.003</v>
       </c>
       <c r="M59">
-        <v>0.7164179104477612</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N59">
-        <v>0.3666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -3464,31 +3461,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E60">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F60">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H60">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I60">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3500,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.7037037037037037</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N60">
-        <v>0.5428571428571428</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3514,31 +3511,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B61">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>104</v>
+      </c>
+      <c r="E61">
+        <v>36</v>
+      </c>
+      <c r="F61">
+        <v>68</v>
+      </c>
+      <c r="G61">
         <v>16</v>
       </c>
-      <c r="D61">
-        <v>54</v>
-      </c>
-      <c r="E61">
-        <v>34</v>
-      </c>
-      <c r="F61">
+      <c r="H61">
         <v>20</v>
       </c>
-      <c r="G61">
-        <v>18</v>
-      </c>
-      <c r="H61">
-        <v>16</v>
-      </c>
       <c r="I61">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3550,10 +3547,10 @@
         <v>0.001</v>
       </c>
       <c r="M61">
-        <v>0.7037037037037037</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="N61">
-        <v>0.5294117647058824</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -3564,31 +3561,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B62">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>104</v>
+      </c>
+      <c r="E62">
+        <v>35</v>
+      </c>
+      <c r="F62">
+        <v>69</v>
+      </c>
+      <c r="G62">
         <v>15</v>
       </c>
-      <c r="D62">
-        <v>54</v>
-      </c>
-      <c r="E62">
-        <v>28</v>
-      </c>
-      <c r="F62">
-        <v>26</v>
-      </c>
-      <c r="G62">
-        <v>13</v>
-      </c>
       <c r="H62">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I62">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3600,10 +3597,10 @@
         <v>0.002</v>
       </c>
       <c r="M62">
-        <v>0.7222222222222222</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="N62">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -3614,31 +3611,31 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E63">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G63">
         <v>11</v>
       </c>
       <c r="H63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I63">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3650,10 +3647,10 @@
         <v>0.003</v>
       </c>
       <c r="M63">
-        <v>0.7222222222222222</v>
+        <v>0.8173076923076923</v>
       </c>
       <c r="N63">
-        <v>0.4230769230769231</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3664,31 +3661,31 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B64">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D64">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E64">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F64">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G64">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H64">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I64">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3700,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.6666666666666666</v>
+        <v>0.7596153846153846</v>
       </c>
       <c r="N64">
-        <v>0.53125</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3714,31 +3711,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B65">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E65">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F65">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G65">
         <v>17</v>
       </c>
       <c r="H65">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I65">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3750,10 +3747,10 @@
         <v>0.001</v>
       </c>
       <c r="M65">
-        <v>0.6666666666666666</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="N65">
-        <v>0.53125</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3764,31 +3761,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B66">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C66">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E66">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F66">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="G66">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H66">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I66">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3800,10 +3797,10 @@
         <v>0.002</v>
       </c>
       <c r="M66">
-        <v>0.6888888888888889</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="N66">
-        <v>0.4615384615384616</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3814,31 +3811,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B67">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D67">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E67">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F67">
+        <v>71</v>
+      </c>
+      <c r="G67">
+        <v>12</v>
+      </c>
+      <c r="H67">
         <v>21</v>
       </c>
-      <c r="G67">
-        <v>10</v>
-      </c>
-      <c r="H67">
-        <v>14</v>
-      </c>
       <c r="I67">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3850,10 +3847,10 @@
         <v>0.003</v>
       </c>
       <c r="M67">
-        <v>0.6888888888888889</v>
+        <v>0.7980769230769231</v>
       </c>
       <c r="N67">
-        <v>0.4166666666666667</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -3864,31 +3861,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B68">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68">
         <v>41</v>
       </c>
-      <c r="E68">
-        <v>30</v>
-      </c>
       <c r="F68">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G68">
         <v>16</v>
       </c>
       <c r="H68">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I68">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3900,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.6585365853658537</v>
+        <v>0.75</v>
       </c>
       <c r="N68">
-        <v>0.5333333333333333</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -3914,31 +3911,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B69">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C69">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E69">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F69">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I69">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3950,10 +3947,10 @@
         <v>0.001</v>
       </c>
       <c r="M69">
-        <v>0.6585365853658537</v>
+        <v>0.78</v>
       </c>
       <c r="N69">
-        <v>0.5333333333333333</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -3964,31 +3961,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B70">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C70">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D70">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E70">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F70">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="G70">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H70">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I70">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4000,10 +3997,10 @@
         <v>0.002</v>
       </c>
       <c r="M70">
-        <v>0.6829268292682927</v>
+        <v>0.78</v>
       </c>
       <c r="N70">
-        <v>0.4583333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -4014,31 +4011,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C71">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E71">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F71">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H71">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I71">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4050,10 +4047,10 @@
         <v>0.003</v>
       </c>
       <c r="M71">
-        <v>0.6829268292682927</v>
+        <v>0.79</v>
       </c>
       <c r="N71">
-        <v>0.4090909090909091</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4064,31 +4061,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B72">
+        <v>73</v>
+      </c>
+      <c r="C72">
         <v>24</v>
       </c>
-      <c r="C72">
-        <v>14</v>
-      </c>
       <c r="D72">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E72">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G72">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H72">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I72">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4100,10 +4097,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.631578947368421</v>
+        <v>0.7525773195876289</v>
       </c>
       <c r="N72">
-        <v>0.4814814814814815</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4114,31 +4111,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C73">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D73">
+        <v>97</v>
+      </c>
+      <c r="E73">
         <v>38</v>
       </c>
-      <c r="E73">
-        <v>27</v>
-      </c>
       <c r="F73">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G73">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H73">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I73">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4150,10 +4147,10 @@
         <v>0.001</v>
       </c>
       <c r="M73">
-        <v>0.631578947368421</v>
+        <v>0.7731958762886598</v>
       </c>
       <c r="N73">
-        <v>0.4814814814814815</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4164,31 +4161,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B74">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D74">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E74">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F74">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H74">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I74">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4200,10 +4197,10 @@
         <v>0.002</v>
       </c>
       <c r="M74">
-        <v>0.6578947368421053</v>
+        <v>0.7731958762886598</v>
       </c>
       <c r="N74">
-        <v>0.3809523809523809</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4214,31 +4211,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D75">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E75">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F75">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H75">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I75">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4250,10 +4247,10 @@
         <v>0.003</v>
       </c>
       <c r="M75">
-        <v>0.6578947368421053</v>
+        <v>0.7731958762886598</v>
       </c>
       <c r="N75">
-        <v>0.3157894736842105</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4264,31 +4261,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B76">
+        <v>69</v>
+      </c>
+      <c r="C76">
         <v>24</v>
       </c>
-      <c r="C76">
-        <v>13</v>
-      </c>
       <c r="D76">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E76">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F76">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G76">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H76">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I76">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4300,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.6486486486486487</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="N76">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4314,31 +4311,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B77">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C77">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D77">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E77">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F77">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G77">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H77">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I77">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4350,10 +4347,10 @@
         <v>0.001</v>
       </c>
       <c r="M77">
-        <v>0.6486486486486487</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="N77">
-        <v>0.5</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4364,31 +4361,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E78">
+        <v>38</v>
+      </c>
+      <c r="F78">
+        <v>55</v>
+      </c>
+      <c r="G78">
+        <v>16</v>
+      </c>
+      <c r="H78">
         <v>22</v>
       </c>
-      <c r="F78">
-        <v>15</v>
-      </c>
-      <c r="G78">
-        <v>10</v>
-      </c>
-      <c r="H78">
-        <v>12</v>
-      </c>
       <c r="I78">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4400,10 +4397,10 @@
         <v>0.002</v>
       </c>
       <c r="M78">
-        <v>0.6756756756756757</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="N78">
-        <v>0.4545454545454545</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4414,31 +4411,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B79">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C79">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>93</v>
+      </c>
+      <c r="E79">
+        <v>34</v>
+      </c>
+      <c r="F79">
+        <v>59</v>
+      </c>
+      <c r="G79">
         <v>12</v>
       </c>
-      <c r="D79">
-        <v>37</v>
-      </c>
-      <c r="E79">
-        <v>20</v>
-      </c>
-      <c r="F79">
-        <v>17</v>
-      </c>
-      <c r="G79">
-        <v>8</v>
-      </c>
       <c r="H79">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I79">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4450,10 +4447,10 @@
         <v>0.003</v>
       </c>
       <c r="M79">
-        <v>0.6756756756756757</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="N79">
-        <v>0.4</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4464,31 +4461,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C80">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D80">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E80">
+        <v>44</v>
+      </c>
+      <c r="F80">
+        <v>45</v>
+      </c>
+      <c r="G80">
         <v>22</v>
       </c>
-      <c r="F80">
-        <v>10</v>
-      </c>
-      <c r="G80">
-        <v>10</v>
-      </c>
       <c r="H80">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I80">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4500,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.625</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="N80">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -4514,31 +4511,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B81">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D81">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E81">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G81">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H81">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4550,10 +4547,10 @@
         <v>0.001</v>
       </c>
       <c r="M81">
-        <v>0.625</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="N81">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -4564,31 +4561,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B82">
+        <v>68</v>
+      </c>
+      <c r="C82">
         <v>21</v>
       </c>
-      <c r="C82">
-        <v>11</v>
-      </c>
       <c r="D82">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E82">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F82">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G82">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H82">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I82">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4600,10 +4597,10 @@
         <v>0.002</v>
       </c>
       <c r="M82">
-        <v>0.65625</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="N82">
-        <v>0.4210526315789473</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -4614,31 +4611,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B83">
+        <v>68</v>
+      </c>
+      <c r="C83">
         <v>21</v>
       </c>
-      <c r="C83">
-        <v>11</v>
-      </c>
       <c r="D83">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E83">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F83">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H83">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I83">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4650,10 +4647,10 @@
         <v>0.003</v>
       </c>
       <c r="M83">
-        <v>0.65625</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="N83">
-        <v>0.3529411764705883</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -4664,31 +4661,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B84">
+        <v>69</v>
+      </c>
+      <c r="C84">
         <v>20</v>
       </c>
-      <c r="C84">
-        <v>11</v>
-      </c>
       <c r="D84">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E84">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G84">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H84">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I84">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4700,10 +4697,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.6451612903225806</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="N84">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -4714,31 +4711,31 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C85">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D85">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E85">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="G85">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H85">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I85">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4750,10 +4747,10 @@
         <v>0.001</v>
       </c>
       <c r="M85">
-        <v>0.6451612903225806</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="N85">
-        <v>0.5</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -4764,31 +4761,31 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D86">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E86">
+        <v>41</v>
+      </c>
+      <c r="F86">
+        <v>48</v>
+      </c>
+      <c r="G86">
+        <v>22</v>
+      </c>
+      <c r="H86">
         <v>19</v>
       </c>
-      <c r="F86">
-        <v>12</v>
-      </c>
-      <c r="G86">
-        <v>9</v>
-      </c>
-      <c r="H86">
-        <v>10</v>
-      </c>
       <c r="I86">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4800,10 +4797,10 @@
         <v>0.002</v>
       </c>
       <c r="M86">
-        <v>0.6774193548387096</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="N86">
-        <v>0.4736842105263158</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -4814,31 +4811,31 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B87">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D87">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E87">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F87">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I87">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4850,10 +4847,10 @@
         <v>0.003</v>
       </c>
       <c r="M87">
-        <v>0.6774193548387096</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="N87">
-        <v>0.4117647058823529</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -4864,31 +4861,31 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B88">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D88">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F88">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H88">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I88">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4900,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.6428571428571429</v>
+        <v>0.7558139534883721</v>
       </c>
       <c r="N88">
-        <v>0.5</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -4914,31 +4911,31 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B89">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D89">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E89">
+        <v>42</v>
+      </c>
+      <c r="F89">
+        <v>44</v>
+      </c>
+      <c r="G89">
+        <v>22</v>
+      </c>
+      <c r="H89">
         <v>20</v>
       </c>
-      <c r="F89">
-        <v>8</v>
-      </c>
-      <c r="G89">
-        <v>10</v>
-      </c>
-      <c r="H89">
-        <v>10</v>
-      </c>
       <c r="I89">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4950,10 +4947,10 @@
         <v>0.001</v>
       </c>
       <c r="M89">
-        <v>0.6428571428571429</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="N89">
-        <v>0.5</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="O89">
         <v>1</v>
@@ -4964,31 +4961,31 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B90">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D90">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E90">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G90">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I90">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -5000,10 +4997,10 @@
         <v>0.002</v>
       </c>
       <c r="M90">
-        <v>0.6428571428571429</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="N90">
-        <v>0.4444444444444444</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -5014,31 +5011,31 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B91">
+        <v>66</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>86</v>
+      </c>
+      <c r="E91">
+        <v>38</v>
+      </c>
+      <c r="F91">
+        <v>48</v>
+      </c>
+      <c r="G91">
         <v>18</v>
       </c>
-      <c r="C91">
-        <v>10</v>
-      </c>
-      <c r="D91">
-        <v>28</v>
-      </c>
-      <c r="E91">
-        <v>17</v>
-      </c>
-      <c r="F91">
-        <v>11</v>
-      </c>
-      <c r="G91">
-        <v>7</v>
-      </c>
       <c r="H91">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I91">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5050,10 +5047,10 @@
         <v>0.003</v>
       </c>
       <c r="M91">
-        <v>0.6428571428571429</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="N91">
-        <v>0.4117647058823529</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -5064,31 +5061,31 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B92">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D92">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E92">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F92">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G92">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H92">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I92">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5100,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.6296296296296297</v>
+        <v>0.7375</v>
       </c>
       <c r="N92">
-        <v>0.4736842105263158</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="O92">
         <v>1</v>
@@ -5114,31 +5111,31 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B93">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D93">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E93">
+        <v>39</v>
+      </c>
+      <c r="F93">
+        <v>41</v>
+      </c>
+      <c r="G93">
         <v>19</v>
       </c>
-      <c r="F93">
-        <v>8</v>
-      </c>
-      <c r="G93">
-        <v>9</v>
-      </c>
       <c r="H93">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I93">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5150,10 +5147,10 @@
         <v>0.001</v>
       </c>
       <c r="M93">
-        <v>0.6296296296296297</v>
+        <v>0.75</v>
       </c>
       <c r="N93">
-        <v>0.4736842105263158</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -5164,31 +5161,31 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B94">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D94">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E94">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F94">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G94">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H94">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I94">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5200,10 +5197,10 @@
         <v>0.002</v>
       </c>
       <c r="M94">
-        <v>0.6296296296296297</v>
+        <v>0.7625</v>
       </c>
       <c r="N94">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -5214,31 +5211,31 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B95">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D95">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E95">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H95">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I95">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5250,10 +5247,10 @@
         <v>0.003</v>
       </c>
       <c r="M95">
-        <v>0.6296296296296297</v>
+        <v>0.7625</v>
       </c>
       <c r="N95">
-        <v>0.4117647058823529</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -5264,31 +5261,31 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96">
+        <v>53</v>
+      </c>
+      <c r="C96">
+        <v>23</v>
+      </c>
+      <c r="D96">
+        <v>76</v>
+      </c>
+      <c r="E96">
         <v>44</v>
       </c>
-      <c r="B96">
-        <v>16</v>
-      </c>
-      <c r="C96">
-        <v>10</v>
-      </c>
-      <c r="D96">
-        <v>26</v>
-      </c>
-      <c r="E96">
-        <v>19</v>
-      </c>
       <c r="F96">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H96">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I96">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5300,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.6153846153846154</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="N96">
-        <v>0.4736842105263158</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -5314,31 +5311,31 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D97">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E97">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G97">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I97">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5350,10 +5347,10 @@
         <v>0.001</v>
       </c>
       <c r="M97">
-        <v>0.6153846153846154</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="N97">
-        <v>0.4736842105263158</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -5364,31 +5361,31 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E98">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G98">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I98">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5400,10 +5397,10 @@
         <v>0.002</v>
       </c>
       <c r="M98">
-        <v>0.6153846153846154</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="N98">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -5414,31 +5411,31 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E99">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G99">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H99">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I99">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5450,10 +5447,10 @@
         <v>0.003</v>
       </c>
       <c r="M99">
-        <v>0.6153846153846154</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="N99">
-        <v>0.4117647058823529</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -5464,31 +5461,31 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B100">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E100">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G100">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H100">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5500,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.6086956521739131</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="N100">
-        <v>0.4705882352941176</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -5514,31 +5511,31 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B101">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C101">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E101">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F101">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -5550,10 +5547,10 @@
         <v>0.001</v>
       </c>
       <c r="M101">
-        <v>0.6086956521739131</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="N101">
-        <v>0.4705882352941176</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -5564,31 +5561,31 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C102">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E102">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I102">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5600,10 +5597,10 @@
         <v>0.002</v>
       </c>
       <c r="M102">
-        <v>0.6086956521739131</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="N102">
-        <v>0.4375</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -5614,31 +5611,31 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C103">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E103">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G103">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H103">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I103">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -5650,10 +5647,10 @@
         <v>0.003</v>
       </c>
       <c r="M103">
-        <v>0.6086956521739131</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="N103">
-        <v>0.4375</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -5664,31 +5661,31 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104">
+        <v>52</v>
+      </c>
+      <c r="C104">
+        <v>18</v>
+      </c>
+      <c r="D104">
+        <v>70</v>
+      </c>
+      <c r="E104">
         <v>45</v>
       </c>
-      <c r="B104">
-        <v>14</v>
-      </c>
-      <c r="C104">
-        <v>8</v>
-      </c>
-      <c r="D104">
-        <v>22</v>
-      </c>
-      <c r="E104">
-        <v>16</v>
-      </c>
       <c r="F104">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G104">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H104">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I104">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -5700,10 +5697,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.6363636363636364</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N104">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -5714,31 +5711,31 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D105">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E105">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G105">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H105">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I105">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -5750,10 +5747,10 @@
         <v>0.001</v>
       </c>
       <c r="M105">
-        <v>0.6363636363636364</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N105">
-        <v>0.5</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -5764,31 +5761,31 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B106">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C106">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D106">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E106">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G106">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H106">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I106">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5800,10 +5797,10 @@
         <v>0.002</v>
       </c>
       <c r="M106">
-        <v>0.6363636363636364</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="N106">
-        <v>0.4666666666666667</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -5814,31 +5811,31 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B107">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D107">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E107">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G107">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H107">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I107">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5850,10 +5847,10 @@
         <v>0.003</v>
       </c>
       <c r="M107">
-        <v>0.6363636363636364</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="N107">
-        <v>0.4666666666666667</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -5864,31 +5861,31 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B108">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D108">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E108">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F108">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G108">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H108">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -5900,10 +5897,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.6190476190476191</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="N108">
-        <v>0.5</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -5914,31 +5911,31 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B109">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C109">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D109">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E109">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G109">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H109">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -5950,10 +5947,10 @@
         <v>0.001</v>
       </c>
       <c r="M109">
-        <v>0.6190476190476191</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="N109">
-        <v>0.5</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -5964,31 +5961,31 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B110">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C110">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D110">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E110">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F110">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H110">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I110">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6000,10 +5997,10 @@
         <v>0.002</v>
       </c>
       <c r="M110">
-        <v>0.6190476190476191</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="N110">
-        <v>0.4666666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -6014,31 +6011,31 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B111">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D111">
+        <v>66</v>
+      </c>
+      <c r="E111">
+        <v>35</v>
+      </c>
+      <c r="F111">
+        <v>31</v>
+      </c>
+      <c r="G111">
         <v>21</v>
       </c>
-      <c r="E111">
-        <v>15</v>
-      </c>
-      <c r="F111">
-        <v>6</v>
-      </c>
-      <c r="G111">
-        <v>7</v>
-      </c>
       <c r="H111">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I111">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -6050,10 +6047,10 @@
         <v>0.003</v>
       </c>
       <c r="M111">
-        <v>0.6190476190476191</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="N111">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -6064,31 +6061,31 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B112">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C112">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D112">
+        <v>63</v>
+      </c>
+      <c r="E112">
+        <v>43</v>
+      </c>
+      <c r="F112">
         <v>20</v>
       </c>
-      <c r="E112">
-        <v>16</v>
-      </c>
-      <c r="F112">
-        <v>4</v>
-      </c>
       <c r="G112">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6100,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.55</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N112">
-        <v>0.4375</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6114,31 +6111,31 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C113">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E113">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F113">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G113">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H113">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I113">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6150,10 +6147,10 @@
         <v>0.001</v>
       </c>
       <c r="M113">
-        <v>0.55</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N113">
-        <v>0.4375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -6164,31 +6161,31 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B114">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C114">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D114">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E114">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F114">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G114">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6200,10 +6197,10 @@
         <v>0.002</v>
       </c>
       <c r="M114">
-        <v>0.55</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N114">
-        <v>0.4</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -6214,31 +6211,31 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B115">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E115">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F115">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G115">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H115">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I115">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6250,10 +6247,10 @@
         <v>0.003</v>
       </c>
       <c r="M115">
-        <v>0.55</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N115">
-        <v>0.4</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -6264,31 +6261,31 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C116">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D116">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E116">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G116">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H116">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6300,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.5263157894736842</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="N116">
-        <v>0.4375</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -6314,31 +6311,31 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C117">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D117">
+        <v>57</v>
+      </c>
+      <c r="E117">
+        <v>38</v>
+      </c>
+      <c r="F117">
         <v>19</v>
       </c>
-      <c r="E117">
-        <v>16</v>
-      </c>
-      <c r="F117">
-        <v>3</v>
-      </c>
       <c r="G117">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H117">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6350,10 +6347,10 @@
         <v>0.001</v>
       </c>
       <c r="M117">
-        <v>0.5263157894736842</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="N117">
-        <v>0.4375</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="O117">
         <v>1</v>
@@ -6364,31 +6361,31 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E118">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G118">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H118">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6400,10 +6397,10 @@
         <v>0.002</v>
       </c>
       <c r="M118">
-        <v>0.5263157894736842</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="N118">
-        <v>0.4</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="O118">
         <v>1</v>
@@ -6414,31 +6411,31 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C119">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D119">
+        <v>57</v>
+      </c>
+      <c r="E119">
+        <v>33</v>
+      </c>
+      <c r="F119">
+        <v>24</v>
+      </c>
+      <c r="G119">
         <v>19</v>
       </c>
-      <c r="E119">
-        <v>15</v>
-      </c>
-      <c r="F119">
-        <v>4</v>
-      </c>
-      <c r="G119">
-        <v>6</v>
-      </c>
       <c r="H119">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6450,10 +6447,10 @@
         <v>0.003</v>
       </c>
       <c r="M119">
-        <v>0.5263157894736842</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="N119">
-        <v>0.4</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="O119">
         <v>1</v>
@@ -6464,31 +6461,31 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D120">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E120">
+        <v>36</v>
+      </c>
+      <c r="F120">
         <v>14</v>
       </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
       <c r="G120">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H120">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6500,10 +6497,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.5294117647058824</v>
+        <v>0.72</v>
       </c>
       <c r="N120">
-        <v>0.4285714285714285</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -6514,31 +6511,31 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C121">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D121">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E121">
+        <v>35</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121">
+        <v>21</v>
+      </c>
+      <c r="H121">
         <v>14</v>
       </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-      <c r="G121">
-        <v>6</v>
-      </c>
-      <c r="H121">
-        <v>8</v>
-      </c>
       <c r="I121">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -6550,10 +6547,10 @@
         <v>0.001</v>
       </c>
       <c r="M121">
-        <v>0.5294117647058824</v>
+        <v>0.72</v>
       </c>
       <c r="N121">
-        <v>0.4285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="O121">
         <v>1</v>
@@ -6564,31 +6561,31 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C122">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D122">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E122">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H122">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -6600,10 +6597,10 @@
         <v>0.002</v>
       </c>
       <c r="M122">
-        <v>0.5294117647058824</v>
+        <v>0.72</v>
       </c>
       <c r="N122">
-        <v>0.3846153846153846</v>
+        <v>0.6</v>
       </c>
       <c r="O122">
         <v>1</v>
@@ -6614,31 +6611,31 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D123">
+        <v>50</v>
+      </c>
+      <c r="E123">
+        <v>31</v>
+      </c>
+      <c r="F123">
+        <v>19</v>
+      </c>
+      <c r="G123">
         <v>17</v>
       </c>
-      <c r="E123">
-        <v>13</v>
-      </c>
-      <c r="F123">
-        <v>4</v>
-      </c>
-      <c r="G123">
-        <v>5</v>
-      </c>
       <c r="H123">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -6650,10 +6647,10 @@
         <v>0.003</v>
       </c>
       <c r="M123">
-        <v>0.5294117647058824</v>
+        <v>0.72</v>
       </c>
       <c r="N123">
-        <v>0.3846153846153846</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="O123">
         <v>1</v>
@@ -6664,31 +6661,31 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D124">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E124">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G124">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H124">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -6700,10 +6697,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="N124">
-        <v>0.5</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="O124">
         <v>1</v>
@@ -6714,31 +6711,31 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D125">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E125">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G125">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H125">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -6750,10 +6747,10 @@
         <v>0.001</v>
       </c>
       <c r="M125">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="N125">
-        <v>0.5</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="O125">
         <v>1</v>
@@ -6764,31 +6761,31 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B126">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C126">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D126">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E126">
+        <v>35</v>
+      </c>
+      <c r="F126">
         <v>13</v>
       </c>
-      <c r="F126">
-        <v>3</v>
-      </c>
       <c r="G126">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H126">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -6800,10 +6797,10 @@
         <v>0.002</v>
       </c>
       <c r="M126">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="N126">
-        <v>0.4615384615384616</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="O126">
         <v>1</v>
@@ -6814,31 +6811,31 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B127">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D127">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E127">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F127">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G127">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H127">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -6850,10 +6847,10 @@
         <v>0.003</v>
       </c>
       <c r="M127">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="N127">
-        <v>0.4615384615384616</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="O127">
         <v>1</v>
@@ -6864,31 +6861,31 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128">
+        <v>33</v>
+      </c>
+      <c r="C128">
+        <v>12</v>
+      </c>
+      <c r="D128">
         <v>45</v>
       </c>
-      <c r="B128">
-        <v>9</v>
-      </c>
-      <c r="C128">
-        <v>5</v>
-      </c>
-      <c r="D128">
-        <v>14</v>
-      </c>
       <c r="E128">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G128">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H128">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -6900,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.6428571428571429</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="N128">
-        <v>0.6153846153846154</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O128">
         <v>1</v>
@@ -6914,31 +6911,31 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129">
+        <v>33</v>
+      </c>
+      <c r="C129">
+        <v>12</v>
+      </c>
+      <c r="D129">
         <v>45</v>
       </c>
-      <c r="B129">
-        <v>9</v>
-      </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-      <c r="D129">
-        <v>14</v>
-      </c>
       <c r="E129">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G129">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -6950,10 +6947,10 @@
         <v>0.001</v>
       </c>
       <c r="M129">
-        <v>0.6428571428571429</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="N129">
-        <v>0.6153846153846154</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O129">
         <v>1</v>
@@ -6964,31 +6961,31 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130">
+        <v>33</v>
+      </c>
+      <c r="C130">
+        <v>12</v>
+      </c>
+      <c r="D130">
         <v>45</v>
       </c>
-      <c r="B130">
-        <v>9</v>
-      </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-      <c r="D130">
-        <v>14</v>
-      </c>
       <c r="E130">
+        <v>33</v>
+      </c>
+      <c r="F130">
         <v>12</v>
       </c>
-      <c r="F130">
-        <v>2</v>
-      </c>
       <c r="G130">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -7000,10 +6997,10 @@
         <v>0.002</v>
       </c>
       <c r="M130">
-        <v>0.6428571428571429</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="N130">
-        <v>0.5833333333333334</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -7014,31 +7011,31 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131">
+        <v>33</v>
+      </c>
+      <c r="C131">
+        <v>12</v>
+      </c>
+      <c r="D131">
         <v>45</v>
       </c>
-      <c r="B131">
-        <v>9</v>
-      </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-      <c r="D131">
-        <v>14</v>
-      </c>
       <c r="E131">
+        <v>29</v>
+      </c>
+      <c r="F131">
+        <v>16</v>
+      </c>
+      <c r="G131">
+        <v>17</v>
+      </c>
+      <c r="H131">
         <v>12</v>
       </c>
-      <c r="F131">
-        <v>2</v>
-      </c>
-      <c r="G131">
-        <v>7</v>
-      </c>
-      <c r="H131">
-        <v>5</v>
-      </c>
       <c r="I131">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7050,10 +7047,10 @@
         <v>0.003</v>
       </c>
       <c r="M131">
-        <v>0.6428571428571429</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="N131">
-        <v>0.5833333333333334</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="O131">
         <v>1</v>
@@ -7064,31 +7061,31 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D132">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E132">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G132">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7100,10 +7097,10 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N132">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="O132">
         <v>1</v>
@@ -7114,31 +7111,31 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D133">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E133">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G133">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7150,10 +7147,10 @@
         <v>0.001</v>
       </c>
       <c r="M133">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N133">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="O133">
         <v>1</v>
@@ -7164,31 +7161,31 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B134">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D134">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E134">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G134">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -7200,10 +7197,10 @@
         <v>0.002</v>
       </c>
       <c r="M134">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N134">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="O134">
         <v>1</v>
@@ -7214,31 +7211,31 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B135">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D135">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E135">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G135">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7250,10 +7247,10 @@
         <v>0.003</v>
       </c>
       <c r="M135">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N135">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O135">
         <v>1</v>

--- a/tmp_grid_res.xlsx
+++ b/tmp_grid_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="33">
   <si>
     <t>win</t>
   </si>
@@ -61,94 +61,58 @@
     <t>close by time lose/lose</t>
   </si>
   <si>
-    <t>2021-12-14 09:30:00 -&gt; 2022-06-08 14:10:00</t>
+    <t>2021-12-14 09:30:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:30:00 -&gt; 2022-06-08 14:08:00</t>
+    <t>2021-12-14 09:43:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:30:00 -&gt; 2022-06-08 14:06:00</t>
+    <t>2021-12-14 09:44:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:33:00 -&gt; 2022-06-08 14:10:00</t>
+    <t>2021-12-14 09:45:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:33:00 -&gt; 2022-06-08 14:08:00</t>
+    <t>2021-12-14 10:17:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:33:00 -&gt; 2022-06-08 14:06:00</t>
+    <t>2021-12-15 11:09:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:34:00 -&gt; 2022-06-08 14:10:00</t>
+    <t>2021-12-16 10:59:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:34:00 -&gt; 2022-06-08 14:08:00</t>
+    <t>2021-12-16 13:02:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:34:00 -&gt; 2022-06-08 14:06:00</t>
+    <t>2021-12-21 10:26:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:36:00 -&gt; 2022-06-08 14:10:00</t>
+    <t>2021-12-21 10:27:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:36:00 -&gt; 2022-06-08 14:08:00</t>
+    <t>2021-12-21 11:19:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:36:00 -&gt; 2022-06-08 14:06:00</t>
+    <t>2021-12-21 14:06:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:37:00 -&gt; 2022-06-08 14:10:00</t>
+    <t>2021-12-21 14:08:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:37:00 -&gt; 2022-06-08 14:08:00</t>
+    <t>2021-12-21 14:15:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:37:00 -&gt; 2022-06-08 14:06:00</t>
+    <t>2021-12-27 13:19:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:39:00 -&gt; 2022-06-08 14:10:00</t>
+    <t>2022-01-04 13:06:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:39:00 -&gt; 2022-06-08 14:08:00</t>
+    <t>2022-01-04 13:07:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
   <si>
-    <t>2021-12-14 09:39:00 -&gt; 2022-06-08 14:06:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:40:00 -&gt; 2022-06-08 14:10:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:40:00 -&gt; 2022-06-08 14:08:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:40:00 -&gt; 2022-06-08 14:06:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:41:00 -&gt; 2022-06-08 14:10:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:41:00 -&gt; 2022-06-08 14:08:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:41:00 -&gt; 2022-06-08 14:06:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:45:00 -&gt; 2022-06-08 14:10:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:45:00 -&gt; 2022-06-08 14:08:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:45:00 -&gt; 2022-06-08 14:06:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:45:00 -&gt; 2022-05-24 09:44:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:59:00 -&gt; 2022-05-24 09:44:00</t>
-  </si>
-  <si>
-    <t>2021-12-14 10:00:00 -&gt; 2022-05-24 09:44:00</t>
+    <t>2022-01-04 13:10:00 -&gt; 2022-06-20 15:00:00</t>
   </si>
 </sst>
 </file>
@@ -564,31 +528,31 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K2">
         <v>0.001</v>
@@ -597,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9090909090909091</v>
+        <v>0.8455284552845529</v>
       </c>
       <c r="N2">
-        <v>0.3571428571428572</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="O2">
-        <v>0.9895833333333334</v>
+        <v>0.9238095238095239</v>
       </c>
       <c r="P2">
-        <v>0.9</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -614,28 +578,28 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -647,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9090909090909091</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="N3">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -661,34 +625,34 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <v>0.002</v>
@@ -697,45 +661,45 @@
         <v>0.001</v>
       </c>
       <c r="M4">
-        <v>0.9181818181818182</v>
+        <v>0.8617886178861789</v>
       </c>
       <c r="N4">
-        <v>0.3846153846153846</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="O4">
-        <v>0.9896907216494846</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="P4">
-        <v>0.8888888888888888</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -747,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9090909090909091</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="N5">
-        <v>0.3333333333333333</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -764,28 +728,28 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -797,10 +761,10 @@
         <v>0.001</v>
       </c>
       <c r="M6">
-        <v>0.9272727272727272</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="N6">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -811,34 +775,34 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7">
+        <v>123</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
         <v>110</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>98</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>0.003</v>
@@ -847,45 +811,45 @@
         <v>0.002</v>
       </c>
       <c r="M7">
-        <v>0.9181818181818182</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="N7">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="O7">
-        <v>0.9897959183673469</v>
+        <v>0.9727272727272728</v>
       </c>
       <c r="P7">
-        <v>0.8888888888888888</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -897,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9</v>
+        <v>0.8943089430894309</v>
       </c>
       <c r="N8">
-        <v>0.3125</v>
+        <v>0.35</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -914,28 +878,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -947,10 +911,10 @@
         <v>0.001</v>
       </c>
       <c r="M9">
-        <v>0.9181818181818182</v>
+        <v>0.8943089430894309</v>
       </c>
       <c r="N9">
-        <v>0.3571428571428572</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -961,31 +925,31 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
+        <v>123</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
         <v>110</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>98</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -997,10 +961,10 @@
         <v>0.002</v>
       </c>
       <c r="M10">
-        <v>0.9272727272727272</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="N10">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1011,34 +975,34 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>0.004</v>
@@ -1047,45 +1011,45 @@
         <v>0.003</v>
       </c>
       <c r="M11">
-        <v>0.9363636363636364</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="N11">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="O11">
-        <v>0.9902912621359223</v>
+        <v>0.9646017699115044</v>
       </c>
       <c r="P11">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>108</v>
+      </c>
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>99</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
       <c r="D12">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1097,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="N12">
-        <v>0.3125</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1111,31 +1075,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1147,10 +1111,10 @@
         <v>0.001</v>
       </c>
       <c r="M13">
-        <v>0.9181818181818182</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="N13">
-        <v>0.3571428571428572</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1164,28 +1128,28 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1197,10 +1161,10 @@
         <v>0.002</v>
       </c>
       <c r="M14">
-        <v>0.9272727272727272</v>
+        <v>0.9186991869918699</v>
       </c>
       <c r="N14">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1214,28 +1178,28 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I15">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1247,10 +1211,10 @@
         <v>0.003</v>
       </c>
       <c r="M15">
-        <v>0.9454545454545454</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="N15">
-        <v>0.1428571428571428</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1261,31 +1225,31 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I16">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1297,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8818181818181818</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="N16">
-        <v>0.2777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1311,31 +1275,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
         <v>15</v>
       </c>
-      <c r="F17">
-        <v>95</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
       <c r="I17">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1347,10 +1311,10 @@
         <v>0.001</v>
       </c>
       <c r="M17">
-        <v>0.9090909090909091</v>
+        <v>0.8770491803278688</v>
       </c>
       <c r="N17">
-        <v>0.3333333333333333</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1361,31 +1325,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1397,10 +1361,10 @@
         <v>0.002</v>
       </c>
       <c r="M18">
-        <v>0.9181818181818182</v>
+        <v>0.9098360655737705</v>
       </c>
       <c r="N18">
-        <v>0.3076923076923077</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1411,31 +1375,31 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>111</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>9</v>
       </c>
-      <c r="F19">
-        <v>101</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>8</v>
-      </c>
       <c r="I19">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1447,10 +1411,10 @@
         <v>0.003</v>
       </c>
       <c r="M19">
-        <v>0.9272727272727272</v>
+        <v>0.9262295081967213</v>
       </c>
       <c r="N19">
-        <v>0.1111111111111111</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1461,31 +1425,31 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E20">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>16</v>
       </c>
       <c r="I20">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1497,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8545454545454545</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="N20">
-        <v>0.2380952380952381</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1511,31 +1475,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C21">
         <v>14</v>
       </c>
       <c r="D21">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>14</v>
       </c>
       <c r="I21">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1547,10 +1511,10 @@
         <v>0.001</v>
       </c>
       <c r="M21">
-        <v>0.8727272727272727</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="N21">
-        <v>0.2631578947368421</v>
+        <v>0.44</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1561,31 +1525,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E22">
         <v>17</v>
       </c>
       <c r="F22">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1597,10 +1561,10 @@
         <v>0.002</v>
       </c>
       <c r="M22">
-        <v>0.8818181818181818</v>
+        <v>0.8991596638655462</v>
       </c>
       <c r="N22">
-        <v>0.2352941176470588</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1611,31 +1575,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>119</v>
+      </c>
+      <c r="E23">
         <v>12</v>
       </c>
-      <c r="D23">
-        <v>110</v>
-      </c>
-      <c r="E23">
-        <v>13</v>
-      </c>
       <c r="F23">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1647,10 +1611,10 @@
         <v>0.003</v>
       </c>
       <c r="M23">
-        <v>0.8909090909090909</v>
+        <v>0.9159663865546218</v>
       </c>
       <c r="N23">
-        <v>0.07692307692307693</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1661,31 +1625,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F24">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I24">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1697,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8363636363636363</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="N24">
-        <v>0.25</v>
+        <v>0.34375</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1711,31 +1675,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>95</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E25">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F25">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I25">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1747,10 +1711,10 @@
         <v>0.001</v>
       </c>
       <c r="M25">
-        <v>0.8636363636363636</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N25">
-        <v>0.2857142857142857</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1761,31 +1725,31 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I26">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1797,10 +1761,10 @@
         <v>0.002</v>
       </c>
       <c r="M26">
-        <v>0.8727272727272727</v>
+        <v>0.8596491228070176</v>
       </c>
       <c r="N26">
-        <v>0.2631578947368421</v>
+        <v>0.2</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1811,31 +1775,31 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>114</v>
+      </c>
+      <c r="E27">
         <v>17</v>
       </c>
-      <c r="B27">
+      <c r="F27">
         <v>97</v>
-      </c>
-      <c r="C27">
-        <v>13</v>
-      </c>
-      <c r="D27">
-        <v>110</v>
-      </c>
-      <c r="E27">
-        <v>15</v>
-      </c>
-      <c r="F27">
-        <v>95</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1847,10 +1811,10 @@
         <v>0.003</v>
       </c>
       <c r="M27">
-        <v>0.8818181818181818</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="N27">
-        <v>0.1333333333333333</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1861,31 +1825,31 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F28">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I28">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1897,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.8181818181818182</v>
+        <v>0.7927927927927928</v>
       </c>
       <c r="N28">
-        <v>0.2592592592592592</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1911,31 +1875,31 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F29">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1947,10 +1911,10 @@
         <v>0.001</v>
       </c>
       <c r="M29">
-        <v>0.8545454545454545</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="N29">
-        <v>0.3043478260869565</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1961,31 +1925,31 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F30">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
       <c r="H30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I30">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1997,10 +1961,10 @@
         <v>0.002</v>
       </c>
       <c r="M30">
-        <v>0.8545454545454545</v>
+        <v>0.8288288288288288</v>
       </c>
       <c r="N30">
-        <v>0.2727272727272727</v>
+        <v>0.24</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2011,25 +1975,25 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>15</v>
       </c>
       <c r="D31">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31">
         <v>92</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31">
         <v>15</v>
@@ -2047,10 +2011,10 @@
         <v>0.003</v>
       </c>
       <c r="M31">
-        <v>0.8636363636363636</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="N31">
-        <v>0.1666666666666667</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2061,7 +2025,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>87</v>
@@ -2073,19 +2037,19 @@
         <v>109</v>
       </c>
       <c r="E32">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F32">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H32">
         <v>22</v>
       </c>
       <c r="I32">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2100,7 +2064,7 @@
         <v>0.7981651376146789</v>
       </c>
       <c r="N32">
-        <v>0.2142857142857143</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2111,31 +2075,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33">
         <v>109</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F33">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I33">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2147,10 +2111,10 @@
         <v>0.001</v>
       </c>
       <c r="M33">
-        <v>0.8256880733944955</v>
+        <v>0.8073394495412844</v>
       </c>
       <c r="N33">
-        <v>0.24</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2161,31 +2125,31 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>89</v>
+      </c>
+      <c r="C34">
         <v>20</v>
-      </c>
-      <c r="B34">
-        <v>91</v>
-      </c>
-      <c r="C34">
-        <v>18</v>
       </c>
       <c r="D34">
         <v>109</v>
       </c>
       <c r="E34">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F34">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2197,10 +2161,10 @@
         <v>0.002</v>
       </c>
       <c r="M34">
-        <v>0.8348623853211009</v>
+        <v>0.8165137614678899</v>
       </c>
       <c r="N34">
-        <v>0.2173913043478261</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2211,7 +2175,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>93</v>
@@ -2223,19 +2187,19 @@
         <v>109</v>
       </c>
       <c r="E35">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F35">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>16</v>
       </c>
       <c r="I35">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2250,7 +2214,7 @@
         <v>0.8532110091743119</v>
       </c>
       <c r="N35">
-        <v>0.1111111111111111</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2261,31 +2225,31 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>85</v>
+      </c>
+      <c r="C36">
         <v>18</v>
       </c>
-      <c r="B36">
-        <v>87</v>
-      </c>
-      <c r="C36">
-        <v>22</v>
-      </c>
       <c r="D36">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E36">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F36">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H36">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I36">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2297,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.7981651376146789</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="N36">
-        <v>0.2413793103448276</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2311,31 +2275,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E37">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F37">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I37">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2347,10 +2311,10 @@
         <v>0.001</v>
       </c>
       <c r="M37">
-        <v>0.8256880733944955</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="N37">
-        <v>0.2692307692307692</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2361,31 +2325,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B38">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E38">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F38">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I38">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2397,10 +2361,10 @@
         <v>0.002</v>
       </c>
       <c r="M38">
-        <v>0.8348623853211009</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="N38">
-        <v>0.25</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2411,31 +2375,31 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E39">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F39">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2447,10 +2411,10 @@
         <v>0.003</v>
       </c>
       <c r="M39">
-        <v>0.8532110091743119</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="N39">
-        <v>0.1578947368421053</v>
+        <v>0.4</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2461,31 +2425,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>99</v>
+      </c>
+      <c r="E40">
+        <v>41</v>
+      </c>
+      <c r="F40">
+        <v>58</v>
+      </c>
+      <c r="G40">
         <v>21</v>
       </c>
-      <c r="D40">
-        <v>109</v>
-      </c>
-      <c r="E40">
-        <v>29</v>
-      </c>
-      <c r="F40">
-        <v>80</v>
-      </c>
-      <c r="G40">
-        <v>8</v>
-      </c>
       <c r="H40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2497,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.8073394495412844</v>
+        <v>0.797979797979798</v>
       </c>
       <c r="N40">
-        <v>0.2758620689655172</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2511,31 +2475,31 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B41">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F41">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2547,10 +2511,10 @@
         <v>0.001</v>
       </c>
       <c r="M41">
-        <v>0.8348623853211009</v>
+        <v>0.797979797979798</v>
       </c>
       <c r="N41">
-        <v>0.3076923076923077</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2561,31 +2525,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E42">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F42">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I42">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2597,10 +2561,10 @@
         <v>0.002</v>
       </c>
       <c r="M42">
-        <v>0.8440366972477065</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="N42">
-        <v>0.2916666666666667</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2611,31 +2575,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B43">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E43">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F43">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I43">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2647,10 +2611,10 @@
         <v>0.003</v>
       </c>
       <c r="M43">
-        <v>0.8623853211009175</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N43">
-        <v>0.2105263157894737</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -2661,31 +2625,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F44">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H44">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I44">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2697,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.8165137614678899</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="N44">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2711,31 +2675,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>70</v>
+      </c>
+      <c r="C45">
         <v>22</v>
       </c>
-      <c r="B45">
+      <c r="D45">
         <v>92</v>
       </c>
-      <c r="C45">
-        <v>17</v>
-      </c>
-      <c r="D45">
-        <v>109</v>
-      </c>
       <c r="E45">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F45">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H45">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I45">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2747,10 +2711,10 @@
         <v>0.001</v>
       </c>
       <c r="M45">
-        <v>0.8440366972477065</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="N45">
-        <v>0.3703703703703703</v>
+        <v>0.5</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -2764,28 +2728,28 @@
         <v>23</v>
       </c>
       <c r="B46">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E46">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F46">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2797,10 +2761,10 @@
         <v>0.002</v>
       </c>
       <c r="M46">
-        <v>0.8532110091743119</v>
+        <v>0.7717391304347826</v>
       </c>
       <c r="N46">
-        <v>0.36</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2814,28 +2778,28 @@
         <v>23</v>
       </c>
       <c r="B47">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E47">
+        <v>31</v>
+      </c>
+      <c r="F47">
+        <v>61</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
+      </c>
+      <c r="H47">
         <v>20</v>
       </c>
-      <c r="F47">
-        <v>89</v>
-      </c>
-      <c r="G47">
-        <v>6</v>
-      </c>
-      <c r="H47">
-        <v>14</v>
-      </c>
       <c r="I47">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2847,10 +2811,10 @@
         <v>0.003</v>
       </c>
       <c r="M47">
-        <v>0.8715596330275229</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N47">
-        <v>0.3</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2861,31 +2825,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B48">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E48">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F48">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H48">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I48">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2897,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.8055555555555556</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="N48">
-        <v>0.3225806451612903</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2911,31 +2875,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C49">
         <v>18</v>
       </c>
       <c r="D49">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E49">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F49">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H49">
         <v>18</v>
       </c>
       <c r="I49">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2947,10 +2911,10 @@
         <v>0.001</v>
       </c>
       <c r="M49">
-        <v>0.8333333333333334</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="N49">
-        <v>0.3571428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2964,28 +2928,28 @@
         <v>23</v>
       </c>
       <c r="B50">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>17</v>
       </c>
       <c r="D50">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E50">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F50">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G50">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H50">
         <v>17</v>
       </c>
       <c r="I50">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2997,10 +2961,10 @@
         <v>0.002</v>
       </c>
       <c r="M50">
-        <v>0.8425925925925926</v>
+        <v>0.8023255813953488</v>
       </c>
       <c r="N50">
-        <v>0.3461538461538461</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -3014,28 +2978,28 @@
         <v>23</v>
       </c>
       <c r="B51">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E51">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F51">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3047,10 +3011,10 @@
         <v>0.003</v>
       </c>
       <c r="M51">
-        <v>0.8611111111111112</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="N51">
-        <v>0.2857142857142857</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3064,28 +3028,28 @@
         <v>24</v>
       </c>
       <c r="B52">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E52">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F52">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G52">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I52">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3097,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.8148148148148148</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="N52">
-        <v>0.3939393939393939</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3111,31 +3075,31 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E53">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F53">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G53">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H53">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I53">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3147,10 +3111,10 @@
         <v>0.001</v>
       </c>
       <c r="M53">
-        <v>0.8518518518518519</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="N53">
-        <v>0.4482758620689655</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3161,31 +3125,31 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E54">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F54">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="G54">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H54">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I54">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3197,10 +3161,10 @@
         <v>0.002</v>
       </c>
       <c r="M54">
-        <v>0.8611111111111112</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="N54">
-        <v>0.4444444444444444</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3211,31 +3175,31 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B55">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C55">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E55">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F55">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G55">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H55">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I55">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3247,10 +3211,10 @@
         <v>0.003</v>
       </c>
       <c r="M55">
-        <v>0.8796296296296297</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="N55">
-        <v>0.4090909090909091</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3261,31 +3225,31 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <v>38</v>
+      </c>
+      <c r="F56">
+        <v>32</v>
+      </c>
+      <c r="G56">
         <v>20</v>
       </c>
-      <c r="D56">
-        <v>105</v>
-      </c>
-      <c r="E56">
-        <v>36</v>
-      </c>
-      <c r="F56">
-        <v>69</v>
-      </c>
-      <c r="G56">
-        <v>16</v>
-      </c>
       <c r="H56">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I56">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3297,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.8095238095238095</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N56">
-        <v>0.4444444444444444</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3311,31 +3275,31 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B57">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="E57">
+        <v>38</v>
+      </c>
+      <c r="F57">
         <v>32</v>
       </c>
-      <c r="F57">
-        <v>73</v>
-      </c>
       <c r="G57">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I57">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3347,10 +3311,10 @@
         <v>0.001</v>
       </c>
       <c r="M57">
-        <v>0.8380952380952381</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N57">
-        <v>0.46875</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3361,31 +3325,31 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B58">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F58">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G58">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H58">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I58">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3397,10 +3361,10 @@
         <v>0.002</v>
       </c>
       <c r="M58">
-        <v>0.8476190476190476</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N58">
-        <v>0.4666666666666667</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3411,31 +3375,31 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B59">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F59">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I59">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3447,10 +3411,10 @@
         <v>0.003</v>
       </c>
       <c r="M59">
-        <v>0.8571428571428571</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N59">
-        <v>0.4</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -3461,31 +3425,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B60">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D60">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="E60">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F60">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G60">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I60">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3497,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.7692307692307693</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="N60">
-        <v>0.4146341463414634</v>
+        <v>0.5</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3511,31 +3475,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="E61">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F61">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="G61">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I61">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3547,10 +3511,10 @@
         <v>0.001</v>
       </c>
       <c r="M61">
-        <v>0.8076923076923077</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="N61">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -3561,31 +3525,31 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>48</v>
+      </c>
+      <c r="C62">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>67</v>
+      </c>
+      <c r="E62">
+        <v>38</v>
+      </c>
+      <c r="F62">
         <v>29</v>
       </c>
-      <c r="B62">
-        <v>84</v>
-      </c>
-      <c r="C62">
-        <v>20</v>
-      </c>
-      <c r="D62">
-        <v>104</v>
-      </c>
-      <c r="E62">
-        <v>35</v>
-      </c>
-      <c r="F62">
-        <v>69</v>
-      </c>
       <c r="G62">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I62">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3597,10 +3561,10 @@
         <v>0.002</v>
       </c>
       <c r="M62">
-        <v>0.8076923076923077</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="N62">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -3611,31 +3575,31 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B63">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C63">
         <v>19</v>
       </c>
       <c r="D63">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F63">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="G63">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H63">
         <v>19</v>
       </c>
       <c r="I63">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3647,10 +3611,10 @@
         <v>0.003</v>
       </c>
       <c r="M63">
-        <v>0.8173076923076923</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="N63">
-        <v>0.3666666666666666</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3661,31 +3625,31 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>35</v>
+      </c>
+      <c r="F64">
         <v>27</v>
       </c>
-      <c r="B64">
-        <v>79</v>
-      </c>
-      <c r="C64">
-        <v>25</v>
-      </c>
-      <c r="D64">
-        <v>104</v>
-      </c>
-      <c r="E64">
-        <v>43</v>
-      </c>
-      <c r="F64">
-        <v>61</v>
-      </c>
       <c r="G64">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H64">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I64">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3697,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.7596153846153846</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="N64">
-        <v>0.4186046511627907</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3711,31 +3675,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E65">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F65">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G65">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I65">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3747,10 +3711,10 @@
         <v>0.001</v>
       </c>
       <c r="M65">
-        <v>0.7884615384615384</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="N65">
-        <v>0.4358974358974359</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3761,31 +3725,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E66">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F66">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G66">
         <v>16</v>
       </c>
       <c r="H66">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I66">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3797,10 +3761,10 @@
         <v>0.002</v>
       </c>
       <c r="M66">
-        <v>0.7884615384615384</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="N66">
-        <v>0.4210526315789473</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3811,31 +3775,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C67">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E67">
         <v>33</v>
       </c>
       <c r="F67">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G67">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H67">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I67">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3847,10 +3811,10 @@
         <v>0.003</v>
       </c>
       <c r="M67">
-        <v>0.7980769230769231</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="N67">
-        <v>0.3636363636363636</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -3861,31 +3825,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E68">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F68">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G68">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H68">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I68">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3897,10 +3861,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.75</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="N68">
-        <v>0.3902439024390244</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -3911,31 +3875,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C69">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E69">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F69">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="G69">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H69">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I69">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3947,10 +3911,10 @@
         <v>0.001</v>
       </c>
       <c r="M69">
-        <v>0.78</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="N69">
-        <v>0.4054054054054054</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -3961,31 +3925,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B70">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E70">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F70">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="G70">
         <v>14</v>
       </c>
       <c r="H70">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I70">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3997,10 +3961,10 @@
         <v>0.002</v>
       </c>
       <c r="M70">
-        <v>0.78</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="N70">
-        <v>0.3888888888888889</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -4011,31 +3975,31 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>38</v>
+      </c>
+      <c r="C71">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <v>55</v>
+      </c>
+      <c r="E71">
         <v>29</v>
       </c>
-      <c r="B71">
-        <v>79</v>
-      </c>
-      <c r="C71">
-        <v>21</v>
-      </c>
-      <c r="D71">
-        <v>100</v>
-      </c>
-      <c r="E71">
-        <v>31</v>
-      </c>
       <c r="F71">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H71">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I71">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4047,10 +4011,10 @@
         <v>0.003</v>
       </c>
       <c r="M71">
-        <v>0.79</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="N71">
-        <v>0.3225806451612903</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4061,31 +4025,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B72">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D72">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E72">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F72">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G72">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H72">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I72">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4097,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.7525773195876289</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="N72">
-        <v>0.4146341463414634</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -4111,31 +4075,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B73">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E73">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F73">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
         <v>16</v>
       </c>
-      <c r="H73">
-        <v>22</v>
-      </c>
       <c r="I73">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4147,10 +4111,10 @@
         <v>0.001</v>
       </c>
       <c r="M73">
-        <v>0.7731958762886598</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="N73">
-        <v>0.4210526315789473</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4161,31 +4125,31 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B74">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C74">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D74">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E74">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F74">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G74">
         <v>15</v>
       </c>
       <c r="H74">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I74">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4197,10 +4161,10 @@
         <v>0.002</v>
       </c>
       <c r="M74">
-        <v>0.7731958762886598</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="N74">
-        <v>0.4054054054054054</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -4211,31 +4175,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>51</v>
+      </c>
+      <c r="E75">
         <v>29</v>
       </c>
-      <c r="B75">
-        <v>75</v>
-      </c>
-      <c r="C75">
+      <c r="F75">
         <v>22</v>
       </c>
-      <c r="D75">
-        <v>97</v>
-      </c>
-      <c r="E75">
-        <v>33</v>
-      </c>
-      <c r="F75">
-        <v>64</v>
-      </c>
       <c r="G75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H75">
+        <v>16</v>
+      </c>
+      <c r="I75">
         <v>22</v>
-      </c>
-      <c r="I75">
-        <v>64</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4247,10 +4211,10 @@
         <v>0.003</v>
       </c>
       <c r="M75">
-        <v>0.7731958762886598</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="N75">
-        <v>0.3333333333333333</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4261,31 +4225,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D76">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E76">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F76">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G76">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H76">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I76">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4297,10 +4261,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.7419354838709677</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N76">
-        <v>0.4285714285714285</v>
+        <v>0.53125</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4311,31 +4275,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C77">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E77">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F77">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G77">
         <v>17</v>
       </c>
       <c r="H77">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I77">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4347,10 +4311,10 @@
         <v>0.001</v>
       </c>
       <c r="M77">
-        <v>0.7634408602150538</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N77">
-        <v>0.4358974358974359</v>
+        <v>0.53125</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4361,31 +4325,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C78">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E78">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F78">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G78">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H78">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I78">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4397,10 +4361,10 @@
         <v>0.002</v>
       </c>
       <c r="M78">
-        <v>0.7634408602150538</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N78">
-        <v>0.4210526315789473</v>
+        <v>0.53125</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -4411,31 +4375,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B79">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C79">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D79">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E79">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F79">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H79">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I79">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4447,10 +4411,10 @@
         <v>0.003</v>
       </c>
       <c r="M79">
-        <v>0.7634408602150538</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N79">
-        <v>0.3529411764705883</v>
+        <v>0.5</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4464,28 +4428,28 @@
         <v>27</v>
       </c>
       <c r="B80">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D80">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="E80">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F80">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G80">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H80">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I80">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4497,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.7528089887640449</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="N80">
-        <v>0.5</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -4511,31 +4475,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B81">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D81">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="E81">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F81">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G81">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H81">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I81">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4547,10 +4511,10 @@
         <v>0.001</v>
       </c>
       <c r="M81">
-        <v>0.7640449438202247</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="N81">
-        <v>0.5</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -4561,31 +4525,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B82">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C82">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D82">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="E82">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F82">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G82">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H82">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I82">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4597,10 +4561,10 @@
         <v>0.002</v>
       </c>
       <c r="M82">
-        <v>0.7640449438202247</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="N82">
-        <v>0.4878048780487805</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -4611,31 +4575,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83">
+        <v>34</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>48</v>
+      </c>
+      <c r="E83">
         <v>29</v>
       </c>
-      <c r="B83">
-        <v>68</v>
-      </c>
-      <c r="C83">
-        <v>21</v>
-      </c>
-      <c r="D83">
-        <v>89</v>
-      </c>
-      <c r="E83">
-        <v>37</v>
-      </c>
       <c r="F83">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H83">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I83">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4647,10 +4611,10 @@
         <v>0.003</v>
       </c>
       <c r="M83">
-        <v>0.7640449438202247</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="N83">
-        <v>0.4324324324324325</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -4661,31 +4625,31 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B84">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E84">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F84">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G84">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H84">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I84">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4697,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.7752808988764045</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N84">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -4714,28 +4678,28 @@
         <v>28</v>
       </c>
       <c r="B85">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C85">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D85">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E85">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F85">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G85">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H85">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I85">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4747,10 +4711,10 @@
         <v>0.001</v>
       </c>
       <c r="M85">
-        <v>0.7865168539325843</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N85">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -4761,31 +4725,31 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E86">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F86">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G86">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H86">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I86">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4797,10 +4761,10 @@
         <v>0.002</v>
       </c>
       <c r="M86">
-        <v>0.7865168539325843</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N86">
-        <v>0.5365853658536586</v>
+        <v>0.5</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -4811,31 +4775,31 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E87">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F87">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G87">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H87">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I87">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4847,10 +4811,10 @@
         <v>0.003</v>
       </c>
       <c r="M87">
-        <v>0.7865168539325843</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N87">
-        <v>0.4864864864864865</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -4861,31 +4825,31 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E88">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F88">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G88">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H88">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I88">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4897,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.7558139534883721</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N88">
-        <v>0.5227272727272727</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -4911,31 +4875,31 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B89">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D89">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E89">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F89">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G89">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H89">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I89">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4947,10 +4911,10 @@
         <v>0.001</v>
       </c>
       <c r="M89">
-        <v>0.7674418604651163</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N89">
-        <v>0.5238095238095238</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O89">
         <v>1</v>
@@ -4961,31 +4925,31 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B90">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C90">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E90">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F90">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G90">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H90">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I90">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4997,10 +4961,10 @@
         <v>0.002</v>
       </c>
       <c r="M90">
-        <v>0.7674418604651163</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N90">
-        <v>0.5238095238095238</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -5011,31 +4975,31 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B91">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D91">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E91">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F91">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G91">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H91">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I91">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5047,10 +5011,10 @@
         <v>0.003</v>
       </c>
       <c r="M91">
-        <v>0.7674418604651163</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N91">
-        <v>0.4736842105263158</v>
+        <v>0.52</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -5061,31 +5025,31 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B92">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C92">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E92">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F92">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G92">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H92">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I92">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5097,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.7375</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="N92">
-        <v>0.4878048780487805</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O92">
         <v>1</v>
@@ -5111,31 +5075,31 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B93">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C93">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E93">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F93">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G93">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H93">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I93">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5147,10 +5111,10 @@
         <v>0.001</v>
       </c>
       <c r="M93">
-        <v>0.75</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="N93">
-        <v>0.4871794871794872</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -5161,31 +5125,31 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B94">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C94">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E94">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F94">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G94">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H94">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I94">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -5197,10 +5161,10 @@
         <v>0.002</v>
       </c>
       <c r="M94">
-        <v>0.7625</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="N94">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -5211,31 +5175,31 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B95">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C95">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E95">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F95">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G95">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H95">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I95">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5247,10 +5211,10 @@
         <v>0.003</v>
       </c>
       <c r="M95">
-        <v>0.7625</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="N95">
-        <v>0.4411764705882353</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -5261,31 +5225,31 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B96">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C96">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E96">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F96">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G96">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H96">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I96">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5297,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.6973684210526315</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="N96">
-        <v>0.4772727272727273</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -5311,31 +5275,31 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B97">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C97">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E97">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F97">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G97">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H97">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I97">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -5347,10 +5311,10 @@
         <v>0.001</v>
       </c>
       <c r="M97">
-        <v>0.7236842105263158</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="N97">
-        <v>0.4878048780487805</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -5361,31 +5325,31 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98">
+        <v>24</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98">
         <v>35</v>
       </c>
-      <c r="B98">
-        <v>56</v>
-      </c>
-      <c r="C98">
-        <v>20</v>
-      </c>
-      <c r="D98">
-        <v>76</v>
-      </c>
       <c r="E98">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F98">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G98">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H98">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I98">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5397,10 +5361,10 @@
         <v>0.002</v>
       </c>
       <c r="M98">
-        <v>0.7368421052631579</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="N98">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -5411,31 +5375,31 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99">
+        <v>24</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
+      <c r="D99">
         <v>35</v>
       </c>
-      <c r="B99">
-        <v>56</v>
-      </c>
-      <c r="C99">
-        <v>20</v>
-      </c>
-      <c r="D99">
-        <v>76</v>
-      </c>
       <c r="E99">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F99">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G99">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H99">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I99">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5447,10 +5411,10 @@
         <v>0.003</v>
       </c>
       <c r="M99">
-        <v>0.7368421052631579</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="N99">
-        <v>0.4285714285714285</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -5461,31 +5425,31 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B100">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C100">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E100">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F100">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G100">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H100">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I100">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5497,10 +5461,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.7297297297297297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N100">
-        <v>0.5652173913043478</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -5511,31 +5475,31 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B101">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C101">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E101">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F101">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G101">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H101">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I101">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -5547,10 +5511,10 @@
         <v>0.001</v>
       </c>
       <c r="M101">
-        <v>0.7567567567567568</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N101">
-        <v>0.5813953488372093</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -5561,31 +5525,31 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B102">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C102">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E102">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F102">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G102">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H102">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I102">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5597,10 +5561,10 @@
         <v>0.002</v>
       </c>
       <c r="M102">
-        <v>0.7702702702702703</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N102">
-        <v>0.5853658536585366</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -5611,31 +5575,31 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B103">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E103">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F103">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G103">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H103">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I103">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -5647,10 +5611,10 @@
         <v>0.003</v>
       </c>
       <c r="M103">
-        <v>0.7702702702702703</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N103">
-        <v>0.5277777777777778</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -5661,31 +5625,31 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B104">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C104">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D104">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E104">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F104">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G104">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H104">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I104">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -5697,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.7428571428571429</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N104">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -5711,31 +5675,31 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B105">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D105">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E105">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F105">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G105">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H105">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I105">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -5747,10 +5711,10 @@
         <v>0.001</v>
       </c>
       <c r="M105">
-        <v>0.7428571428571429</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N105">
-        <v>0.5909090909090909</v>
+        <v>0.55</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -5761,31 +5725,31 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B106">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E106">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F106">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G106">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H106">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I106">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5797,10 +5761,10 @@
         <v>0.002</v>
       </c>
       <c r="M106">
-        <v>0.7571428571428571</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N106">
-        <v>0.5952380952380952</v>
+        <v>0.55</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -5811,31 +5775,31 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B107">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C107">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E107">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F107">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G107">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H107">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I107">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5847,10 +5811,10 @@
         <v>0.003</v>
       </c>
       <c r="M107">
-        <v>0.7571428571428571</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="N107">
-        <v>0.5405405405405406</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -5861,31 +5825,31 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B108">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C108">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D108">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E108">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F108">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G108">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H108">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I108">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -5897,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.7727272727272727</v>
+        <v>0.68</v>
       </c>
       <c r="N108">
-        <v>0.6511627906976745</v>
+        <v>0.6</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -5911,31 +5875,31 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B109">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C109">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D109">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E109">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F109">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G109">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H109">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I109">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -5947,10 +5911,10 @@
         <v>0.001</v>
       </c>
       <c r="M109">
-        <v>0.7727272727272727</v>
+        <v>0.68</v>
       </c>
       <c r="N109">
-        <v>0.6428571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -5961,31 +5925,31 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B110">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C110">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D110">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E110">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F110">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G110">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H110">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I110">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5997,10 +5961,10 @@
         <v>0.002</v>
       </c>
       <c r="M110">
-        <v>0.7878787878787878</v>
+        <v>0.68</v>
       </c>
       <c r="N110">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -6011,31 +5975,31 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B111">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C111">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E111">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F111">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G111">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H111">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I111">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -6047,10 +6011,10 @@
         <v>0.003</v>
       </c>
       <c r="M111">
-        <v>0.7878787878787878</v>
+        <v>0.68</v>
       </c>
       <c r="N111">
-        <v>0.6</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -6061,31 +6025,31 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B112">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C112">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D112">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E112">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F112">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G112">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H112">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I112">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6097,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.7777777777777778</v>
+        <v>0.65</v>
       </c>
       <c r="N112">
-        <v>0.6744186046511628</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6111,31 +6075,31 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B113">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C113">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D113">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E113">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F113">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G113">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H113">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I113">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6147,10 +6111,10 @@
         <v>0.001</v>
       </c>
       <c r="M113">
-        <v>0.7777777777777778</v>
+        <v>0.65</v>
       </c>
       <c r="N113">
-        <v>0.6666666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -6161,31 +6125,31 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B114">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C114">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D114">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E114">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F114">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G114">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H114">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I114">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6197,10 +6161,10 @@
         <v>0.002</v>
       </c>
       <c r="M114">
-        <v>0.7777777777777778</v>
+        <v>0.65</v>
       </c>
       <c r="N114">
-        <v>0.6585365853658537</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -6211,31 +6175,31 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B115">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>20</v>
+      </c>
+      <c r="E115">
         <v>14</v>
       </c>
-      <c r="D115">
-        <v>63</v>
-      </c>
-      <c r="E115">
-        <v>36</v>
-      </c>
       <c r="F115">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G115">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H115">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I115">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6247,10 +6211,10 @@
         <v>0.003</v>
       </c>
       <c r="M115">
-        <v>0.7777777777777778</v>
+        <v>0.65</v>
       </c>
       <c r="N115">
-        <v>0.6111111111111112</v>
+        <v>0.5</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -6261,31 +6225,31 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B116">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>19</v>
+      </c>
+      <c r="E116">
         <v>14</v>
       </c>
-      <c r="D116">
-        <v>57</v>
-      </c>
-      <c r="E116">
-        <v>39</v>
-      </c>
       <c r="F116">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G116">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H116">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I116">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6297,10 +6261,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.7543859649122807</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="N116">
-        <v>0.6410256410256411</v>
+        <v>0.5</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -6311,31 +6275,31 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B117">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C117">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>19</v>
+      </c>
+      <c r="E117">
         <v>14</v>
       </c>
-      <c r="D117">
-        <v>57</v>
-      </c>
-      <c r="E117">
-        <v>38</v>
-      </c>
       <c r="F117">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G117">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H117">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I117">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6347,10 +6311,10 @@
         <v>0.001</v>
       </c>
       <c r="M117">
-        <v>0.7543859649122807</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="N117">
-        <v>0.631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="O117">
         <v>1</v>
@@ -6361,31 +6325,31 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B118">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>19</v>
+      </c>
+      <c r="E118">
         <v>14</v>
       </c>
-      <c r="D118">
-        <v>57</v>
-      </c>
-      <c r="E118">
-        <v>37</v>
-      </c>
       <c r="F118">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G118">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H118">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I118">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6397,10 +6361,10 @@
         <v>0.002</v>
       </c>
       <c r="M118">
-        <v>0.7543859649122807</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="N118">
-        <v>0.6216216216216216</v>
+        <v>0.5</v>
       </c>
       <c r="O118">
         <v>1</v>
@@ -6411,31 +6375,31 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B119">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D119">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E119">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F119">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G119">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H119">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I119">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6447,10 +6411,10 @@
         <v>0.003</v>
       </c>
       <c r="M119">
-        <v>0.7543859649122807</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="N119">
-        <v>0.5757575757575758</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O119">
         <v>1</v>
@@ -6461,31 +6425,31 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B120">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C120">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E120">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F120">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G120">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H120">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I120">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6497,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="N120">
-        <v>0.6111111111111112</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -6511,31 +6475,31 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B121">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C121">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D121">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F121">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G121">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H121">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -6547,10 +6511,10 @@
         <v>0.001</v>
       </c>
       <c r="M121">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="N121">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O121">
         <v>1</v>
@@ -6561,31 +6525,31 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B122">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D122">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E122">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F122">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G122">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H122">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I122">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -6597,10 +6561,10 @@
         <v>0.002</v>
       </c>
       <c r="M122">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="N122">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O122">
         <v>1</v>
@@ -6611,31 +6575,31 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B123">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E123">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F123">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G123">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H123">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I123">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -6647,10 +6611,10 @@
         <v>0.003</v>
       </c>
       <c r="M123">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="N123">
-        <v>0.5483870967741935</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O123">
         <v>1</v>
@@ -6661,31 +6625,31 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B124">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C124">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F124">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G124">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -6697,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N124">
-        <v>0.6571428571428571</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O124">
         <v>1</v>
@@ -6711,31 +6675,31 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B125">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C125">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E125">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F125">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G125">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -6747,10 +6711,10 @@
         <v>0.001</v>
       </c>
       <c r="M125">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N125">
-        <v>0.6571428571428571</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O125">
         <v>1</v>
@@ -6761,31 +6725,31 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B126">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C126">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E126">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F126">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G126">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H126">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -6797,10 +6761,10 @@
         <v>0.002</v>
       </c>
       <c r="M126">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N126">
-        <v>0.6571428571428571</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O126">
         <v>1</v>
@@ -6811,31 +6775,31 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B127">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E127">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F127">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G127">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H127">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -6847,10 +6811,10 @@
         <v>0.003</v>
       </c>
       <c r="M127">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N127">
-        <v>0.6129032258064516</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O127">
         <v>1</v>
@@ -6861,31 +6825,31 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B128">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C128">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E128">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F128">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G128">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H128">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -6897,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.7333333333333333</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N128">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O128">
         <v>1</v>
@@ -6911,31 +6875,31 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B129">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E129">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F129">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G129">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H129">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -6947,10 +6911,10 @@
         <v>0.001</v>
       </c>
       <c r="M129">
-        <v>0.7333333333333333</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N129">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O129">
         <v>1</v>
@@ -6961,31 +6925,31 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B130">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C130">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E130">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F130">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G130">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H130">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6997,10 +6961,10 @@
         <v>0.002</v>
       </c>
       <c r="M130">
-        <v>0.7333333333333333</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N130">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -7011,31 +6975,31 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B131">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C131">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E131">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F131">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G131">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H131">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7047,10 +7011,10 @@
         <v>0.003</v>
       </c>
       <c r="M131">
-        <v>0.7333333333333333</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N131">
-        <v>0.5862068965517241</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O131">
         <v>1</v>
@@ -7061,31 +7025,31 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B132">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C132">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E132">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F132">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G132">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H132">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7097,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.7272727272727273</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N132">
         <v>0.625</v>
@@ -7111,31 +7075,31 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B133">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C133">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E133">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F133">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G133">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H133">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7147,7 +7111,7 @@
         <v>0.001</v>
       </c>
       <c r="M133">
-        <v>0.7272727272727273</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N133">
         <v>0.625</v>
@@ -7161,31 +7125,31 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B134">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C134">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E134">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F134">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G134">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H134">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -7197,7 +7161,7 @@
         <v>0.002</v>
       </c>
       <c r="M134">
-        <v>0.7272727272727273</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N134">
         <v>0.625</v>
@@ -7211,31 +7175,31 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B135">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C135">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E135">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F135">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G135">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H135">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7247,10 +7211,10 @@
         <v>0.003</v>
       </c>
       <c r="M135">
-        <v>0.7272727272727273</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N135">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="O135">
         <v>1</v>
